--- a/Artwork/Artwork.xlsx
+++ b/Artwork/Artwork.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3317" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3650" uniqueCount="1">
   <si>
     <t>¢</t>
   </si>
@@ -786,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:CJ419"/>
+  <dimension ref="A2:CL419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="CB153" sqref="AT151:CB153"/>
+    <sheetView tabSelected="1" topLeftCell="I51" workbookViewId="0">
+      <selection activeCell="CP94" sqref="CP94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6063,7 +6063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>1</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>2</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>4</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>8</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>16</v>
       </c>
@@ -6314,7 +6314,7 @@
       <c r="BC53" s="3"/>
       <c r="BD53" s="3"/>
     </row>
-    <row r="54" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>32</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>64</v>
       </c>
@@ -6342,7 +6342,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>128</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D57" s="4" t="str">
         <f>"0x"&amp;DEC2HEX((SUMIF(D33:D40,"&lt;&gt;",$A33:$A40)),2)&amp;","</f>
         <v>0x00,</v>
@@ -6574,7 +6574,7 @@
         <v>0x3E,</v>
       </c>
     </row>
-    <row r="58" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D58" s="4" t="str">
         <f>"0x"&amp;DEC2HEX((SUMIF(D41:D48,"&lt;&gt;",$A41:$A48)),2)&amp;","</f>
         <v>0x3F,</v>
@@ -6792,7 +6792,7 @@
         <v>0x00,</v>
       </c>
     </row>
-    <row r="59" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D59" s="4" t="str">
         <f>"0x"&amp;DEC2HEX((SUMIF(D49:D56,"&lt;&gt;",$A49:$A56)),2)&amp;","</f>
         <v>0x00,</v>
@@ -7010,11 +7010,11 @@
         <v>0x00,</v>
       </c>
     </row>
-    <row r="60" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O60" s="16"/>
       <c r="AV60" s="16"/>
     </row>
-    <row r="62" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="14"/>
       <c r="D62" s="14">
         <v>1</v>
@@ -7173,8 +7173,87 @@
       <c r="BH62" s="14">
         <v>26</v>
       </c>
-    </row>
-    <row r="63" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BL62" s="14"/>
+      <c r="BM62" s="14">
+        <v>1</v>
+      </c>
+      <c r="BN62" s="14">
+        <v>2</v>
+      </c>
+      <c r="BO62" s="14">
+        <v>3</v>
+      </c>
+      <c r="BP62" s="14">
+        <v>4</v>
+      </c>
+      <c r="BQ62" s="14">
+        <v>5</v>
+      </c>
+      <c r="BR62" s="14">
+        <v>6</v>
+      </c>
+      <c r="BS62" s="14">
+        <v>7</v>
+      </c>
+      <c r="BT62" s="14">
+        <v>8</v>
+      </c>
+      <c r="BU62" s="14">
+        <v>9</v>
+      </c>
+      <c r="BV62" s="14">
+        <v>10</v>
+      </c>
+      <c r="BW62" s="14">
+        <v>11</v>
+      </c>
+      <c r="BX62" s="14">
+        <v>12</v>
+      </c>
+      <c r="BY62" s="14">
+        <v>13</v>
+      </c>
+      <c r="BZ62" s="14">
+        <v>14</v>
+      </c>
+      <c r="CA62" s="14">
+        <v>15</v>
+      </c>
+      <c r="CB62" s="14">
+        <v>16</v>
+      </c>
+      <c r="CC62" s="14">
+        <v>17</v>
+      </c>
+      <c r="CD62" s="14">
+        <v>18</v>
+      </c>
+      <c r="CE62" s="14">
+        <v>19</v>
+      </c>
+      <c r="CF62" s="14">
+        <v>20</v>
+      </c>
+      <c r="CG62" s="14">
+        <v>21</v>
+      </c>
+      <c r="CH62" s="14">
+        <v>22</v>
+      </c>
+      <c r="CI62" s="14">
+        <v>23</v>
+      </c>
+      <c r="CJ62" s="14">
+        <v>24</v>
+      </c>
+      <c r="CK62" s="14">
+        <v>25</v>
+      </c>
+      <c r="CL62" s="14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>1</v>
       </c>
@@ -7234,8 +7313,20 @@
       <c r="BG63" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BL63" s="14">
+        <v>1</v>
+      </c>
+      <c r="BM63" s="3"/>
+      <c r="CD63" s="3"/>
+      <c r="CE63" s="3"/>
+      <c r="CF63" s="3"/>
+      <c r="CG63" s="3"/>
+      <c r="CH63" s="3"/>
+      <c r="CI63" s="3"/>
+      <c r="CJ63" s="3"/>
+      <c r="CK63" s="3"/>
+    </row>
+    <row r="64" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>2</v>
       </c>
@@ -7359,8 +7450,30 @@
       <c r="BH64" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BL64" s="14">
+        <v>2</v>
+      </c>
+      <c r="BM64" s="3"/>
+      <c r="BN64" s="3"/>
+      <c r="BO64" s="3"/>
+      <c r="BT64" s="3"/>
+      <c r="BU64" s="3"/>
+      <c r="BV64" s="3"/>
+      <c r="BW64" s="3"/>
+      <c r="BX64" s="3"/>
+      <c r="BY64" s="3"/>
+      <c r="BZ64" s="3"/>
+      <c r="CD64" s="3"/>
+      <c r="CE64" s="3"/>
+      <c r="CF64" s="3"/>
+      <c r="CG64" s="3"/>
+      <c r="CH64" s="3"/>
+      <c r="CI64" s="3"/>
+      <c r="CJ64" s="3"/>
+      <c r="CK64" s="3"/>
+      <c r="CL64" s="3"/>
+    </row>
+    <row r="65" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>4</v>
       </c>
@@ -7522,8 +7635,37 @@
       <c r="BH65" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BL65" s="14">
+        <v>3</v>
+      </c>
+      <c r="BM65" s="3"/>
+      <c r="BN65" s="3"/>
+      <c r="BO65" s="3"/>
+      <c r="BP65" s="3"/>
+      <c r="BQ65" s="3"/>
+      <c r="BR65" s="3"/>
+      <c r="BS65" s="3"/>
+      <c r="BT65" s="3"/>
+      <c r="BU65" s="3"/>
+      <c r="BV65" s="3"/>
+      <c r="BW65" s="3"/>
+      <c r="BX65" s="3"/>
+      <c r="BY65" s="3"/>
+      <c r="BZ65" s="3"/>
+      <c r="CA65" s="3"/>
+      <c r="CB65" s="3"/>
+      <c r="CC65" s="3"/>
+      <c r="CD65" s="3"/>
+      <c r="CE65" s="3"/>
+      <c r="CF65" s="3"/>
+      <c r="CG65" s="3"/>
+      <c r="CH65" s="3"/>
+      <c r="CI65" s="3"/>
+      <c r="CJ65" s="3"/>
+      <c r="CK65" s="3"/>
+      <c r="CL65" s="3"/>
+    </row>
+    <row r="66" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>8</v>
       </c>
@@ -7683,8 +7825,36 @@
       <c r="BH66" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BL66" s="14">
+        <v>4</v>
+      </c>
+      <c r="BN66" s="3"/>
+      <c r="BO66" s="3"/>
+      <c r="BP66" s="3"/>
+      <c r="BQ66" s="3"/>
+      <c r="BR66" s="3"/>
+      <c r="BS66" s="3"/>
+      <c r="BT66" s="3"/>
+      <c r="BU66" s="3"/>
+      <c r="BV66" s="3"/>
+      <c r="BW66" s="3"/>
+      <c r="BX66" s="3"/>
+      <c r="BY66" s="3"/>
+      <c r="BZ66" s="3"/>
+      <c r="CA66" s="3"/>
+      <c r="CB66" s="3"/>
+      <c r="CC66" s="3"/>
+      <c r="CD66" s="3"/>
+      <c r="CE66" s="3"/>
+      <c r="CF66" s="3"/>
+      <c r="CG66" s="3"/>
+      <c r="CH66" s="3"/>
+      <c r="CI66" s="3"/>
+      <c r="CJ66" s="3"/>
+      <c r="CK66" s="3"/>
+      <c r="CL66" s="3"/>
+    </row>
+    <row r="67" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>16</v>
       </c>
@@ -7838,8 +8008,24 @@
       <c r="BH67" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BL67" s="14">
+        <v>5</v>
+      </c>
+      <c r="BM67" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC67" s="3"/>
+      <c r="CD67" s="3"/>
+      <c r="CE67" s="3"/>
+      <c r="CF67" s="3"/>
+      <c r="CG67" s="3"/>
+      <c r="CH67" s="3"/>
+      <c r="CI67" s="3"/>
+      <c r="CJ67" s="3"/>
+      <c r="CK67" s="3"/>
+      <c r="CL67" s="3"/>
+    </row>
+    <row r="68" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>32</v>
       </c>
@@ -7987,8 +8173,63 @@
       <c r="BH68" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BL68" s="14">
+        <v>6</v>
+      </c>
+      <c r="BM68" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN68" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO68" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT68" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU68" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV68" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW68" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX68" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY68" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ68" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD68" s="3"/>
+      <c r="CE68" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF68" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG68" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH68" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI68" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ68" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK68" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>64</v>
       </c>
@@ -8106,8 +8347,86 @@
       <c r="BD69" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BL69" s="14">
+        <v>7</v>
+      </c>
+      <c r="BM69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL69" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>128</v>
       </c>
@@ -8221,8 +8540,82 @@
       <c r="BF70" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BL70" s="14">
+        <v>8</v>
+      </c>
+      <c r="BN70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF70" s="3"/>
+      <c r="CG70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH70" s="3"/>
+      <c r="CI70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL70" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>1</v>
       </c>
@@ -8275,8 +8668,81 @@
         <v>0</v>
       </c>
       <c r="AW71" s="3"/>
-    </row>
-    <row r="72" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BL71" s="14">
+        <v>9</v>
+      </c>
+      <c r="BO71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG71" s="3"/>
+      <c r="CH71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK71" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL71" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>2</v>
       </c>
@@ -8325,8 +8791,76 @@
         <v>0</v>
       </c>
       <c r="AX72" s="3"/>
-    </row>
-    <row r="73" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BL72" s="14">
+        <v>10</v>
+      </c>
+      <c r="BP72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF72" s="3"/>
+      <c r="CG72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH72" s="3"/>
+      <c r="CI72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK72" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL72" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>4</v>
       </c>
@@ -8362,8 +8896,77 @@
       <c r="AT73" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BL73" s="14">
+        <v>11</v>
+      </c>
+      <c r="BQ73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK73" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL73" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>8</v>
       </c>
@@ -8382,8 +8985,60 @@
       </c>
       <c r="AQ74" s="3"/>
       <c r="AR74" s="3"/>
-    </row>
-    <row r="75" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BL74" s="14">
+        <v>12</v>
+      </c>
+      <c r="BR74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB74" s="3"/>
+      <c r="CC74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG74" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH74" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>16</v>
       </c>
@@ -8407,8 +9062,60 @@
       </c>
       <c r="AQ75" s="3"/>
       <c r="AR75" s="3"/>
-    </row>
-    <row r="76" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BL75" s="14">
+        <v>13</v>
+      </c>
+      <c r="BP75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA75" s="3"/>
+      <c r="CD75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ75" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>32</v>
       </c>
@@ -8418,8 +9125,11 @@
       <c r="AH76" s="14">
         <v>14</v>
       </c>
-    </row>
-    <row r="77" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BL76" s="14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>64</v>
       </c>
@@ -8429,8 +9139,11 @@
       <c r="AH77" s="14">
         <v>15</v>
       </c>
-    </row>
-    <row r="78" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BL77" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>128</v>
       </c>
@@ -8440,8 +9153,11 @@
       <c r="AH78" s="14">
         <v>16</v>
       </c>
-    </row>
-    <row r="79" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BL78" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D79" s="4" t="str">
         <f t="shared" ref="D79:AC79" si="21">"0x"&amp;DEC2HEX((SUMIF(D63:D70,"&lt;&gt;",$A63:$A70)),2)&amp;","</f>
         <v>0x07,</v>
@@ -8650,110 +9366,214 @@
         <f t="shared" si="22"/>
         <v>0x3E,</v>
       </c>
-    </row>
-    <row r="80" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BM79" s="4" t="str">
+        <f>"0x"&amp;DEC2HEX((SUMIF(BM63:BM70,"&lt;&gt;",$A63:$A70)),2)&amp;","</f>
+        <v>0x70,</v>
+      </c>
+      <c r="BN79" s="4" t="str">
+        <f t="shared" ref="BN79:CL79" si="23">"0x"&amp;DEC2HEX((SUMIF(BN63:BN70,"&lt;&gt;",$A63:$A70)),2)&amp;","</f>
+        <v>0xE0,</v>
+      </c>
+      <c r="BO79" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>0xE0,</v>
+      </c>
+      <c r="BP79" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>0xC0,</v>
+      </c>
+      <c r="BQ79" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>0xC0,</v>
+      </c>
+      <c r="BR79" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>0xC0,</v>
+      </c>
+      <c r="BS79" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>0xC0,</v>
+      </c>
+      <c r="BT79" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>0xE0,</v>
+      </c>
+      <c r="BU79" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>0xE0,</v>
+      </c>
+      <c r="BV79" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>0xE0,</v>
+      </c>
+      <c r="BW79" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>0xE0,</v>
+      </c>
+      <c r="BX79" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>0xE0,</v>
+      </c>
+      <c r="BY79" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>0xE0,</v>
+      </c>
+      <c r="BZ79" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>0xE0,</v>
+      </c>
+      <c r="CA79" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>0xC0,</v>
+      </c>
+      <c r="CB79" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>0xC0,</v>
+      </c>
+      <c r="CC79" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>0x80,</v>
+      </c>
+      <c r="CD79" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>0xC0,</v>
+      </c>
+      <c r="CE79" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>0xE0,</v>
+      </c>
+      <c r="CF79" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>0x60,</v>
+      </c>
+      <c r="CG79" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>0xE0,</v>
+      </c>
+      <c r="CH79" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>0x60,</v>
+      </c>
+      <c r="CI79" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>0xE0,</v>
+      </c>
+      <c r="CJ79" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>0xE0,</v>
+      </c>
+      <c r="CK79" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>0xE0,</v>
+      </c>
+      <c r="CL79" s="4" t="str">
+        <f t="shared" si="23"/>
+        <v>0xC0,</v>
+      </c>
+    </row>
+    <row r="80" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D80" s="4" t="str">
-        <f t="shared" ref="D80:AC80" si="23">"0x"&amp;DEC2HEX((SUMIF(D71:D78,"&lt;&gt;",$A71:$A78)),2)&amp;","</f>
+        <f t="shared" ref="D80:AC80" si="24">"0x"&amp;DEC2HEX((SUMIF(D71:D78,"&lt;&gt;",$A71:$A78)),2)&amp;","</f>
         <v>0x00,</v>
       </c>
       <c r="E80" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0x00,</v>
       </c>
       <c r="F80" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0x00,</v>
       </c>
       <c r="G80" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0x00,</v>
       </c>
       <c r="H80" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0x00,</v>
       </c>
       <c r="I80" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0x06,</v>
       </c>
       <c r="J80" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0x05,</v>
       </c>
       <c r="K80" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0x01,</v>
       </c>
       <c r="L80" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0x1F,</v>
       </c>
       <c r="M80" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0x17,</v>
       </c>
       <c r="N80" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0x03,</v>
       </c>
       <c r="O80" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0x01,</v>
       </c>
       <c r="P80" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0x00,</v>
       </c>
       <c r="Q80" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0x03,</v>
       </c>
       <c r="R80" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0x02,</v>
       </c>
       <c r="S80" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0x00,</v>
       </c>
       <c r="T80" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0x00,</v>
       </c>
       <c r="U80" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0x00,</v>
       </c>
       <c r="V80" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0x00,</v>
       </c>
       <c r="W80" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0x00,</v>
       </c>
       <c r="X80" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0x00,</v>
       </c>
       <c r="Y80" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0x00,</v>
       </c>
       <c r="Z80" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0x00,</v>
       </c>
       <c r="AA80" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0x00,</v>
       </c>
       <c r="AB80" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0x00,</v>
       </c>
       <c r="AC80" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0x00,</v>
       </c>
       <c r="AI80" s="4" t="str">
@@ -8761,111 +9581,215 @@
         <v>0x00,</v>
       </c>
       <c r="AJ80" s="4" t="str">
-        <f t="shared" ref="AJ80:BH80" si="24">"0x"&amp;DEC2HEX((SUMIF(AJ71:AJ78,"&lt;&gt;",$A71:$A78)),2)&amp;","</f>
+        <f t="shared" ref="AJ80:BH80" si="25">"0x"&amp;DEC2HEX((SUMIF(AJ71:AJ78,"&lt;&gt;",$A71:$A78)),2)&amp;","</f>
         <v>0x00,</v>
       </c>
       <c r="AK80" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0x00,</v>
       </c>
       <c r="AL80" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0x00,</v>
       </c>
       <c r="AM80" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0x00,</v>
       </c>
       <c r="AN80" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0x1E,</v>
       </c>
       <c r="AO80" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0x17,</v>
       </c>
       <c r="AP80" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0x03,</v>
       </c>
       <c r="AQ80" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0x01,</v>
       </c>
       <c r="AR80" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0x01,</v>
       </c>
       <c r="AS80" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0x07,</v>
       </c>
       <c r="AT80" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0x05,</v>
       </c>
       <c r="AU80" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0x00,</v>
       </c>
       <c r="AV80" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0x03,</v>
       </c>
       <c r="AW80" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0x02,</v>
       </c>
       <c r="AX80" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0x00,</v>
       </c>
       <c r="AY80" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0x00,</v>
       </c>
       <c r="AZ80" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0x00,</v>
       </c>
       <c r="BA80" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0x00,</v>
       </c>
       <c r="BB80" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0x00,</v>
       </c>
       <c r="BC80" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0x00,</v>
       </c>
       <c r="BD80" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0x00,</v>
       </c>
       <c r="BE80" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0x00,</v>
       </c>
       <c r="BF80" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0x00,</v>
       </c>
       <c r="BG80" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0x00,</v>
       </c>
       <c r="BH80" s="4" t="str">
-        <f t="shared" si="24"/>
-        <v>0x00,</v>
-      </c>
-    </row>
-    <row r="81" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="25"/>
+        <v>0x00,</v>
+      </c>
+      <c r="BM80" s="4" t="str">
+        <f>"0x"&amp;DEC2HEX((SUMIF(BM71:BM78,"&lt;&gt;",$A71:$A78)),2)&amp;","</f>
+        <v>0x00,</v>
+      </c>
+      <c r="BN80" s="4" t="str">
+        <f t="shared" ref="BN80:CL80" si="26">"0x"&amp;DEC2HEX((SUMIF(BN71:BN78,"&lt;&gt;",$A71:$A78)),2)&amp;","</f>
+        <v>0x00,</v>
+      </c>
+      <c r="BO80" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>0x01,</v>
+      </c>
+      <c r="BP80" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>0x13,</v>
+      </c>
+      <c r="BQ80" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>0x17,</v>
+      </c>
+      <c r="BR80" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>0x0F,</v>
+      </c>
+      <c r="BS80" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>0x1F,</v>
+      </c>
+      <c r="BT80" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>0x1F,</v>
+      </c>
+      <c r="BU80" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>0x1F,</v>
+      </c>
+      <c r="BV80" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>0x1F,</v>
+      </c>
+      <c r="BW80" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>0x1F,</v>
+      </c>
+      <c r="BX80" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>0x1F,</v>
+      </c>
+      <c r="BY80" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>0x0F,</v>
+      </c>
+      <c r="BZ80" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>0x1F,</v>
+      </c>
+      <c r="CA80" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>0x0F,</v>
+      </c>
+      <c r="CB80" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>0x07,</v>
+      </c>
+      <c r="CC80" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>0x0F,</v>
+      </c>
+      <c r="CD80" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>0x1F,</v>
+      </c>
+      <c r="CE80" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>0x1F,</v>
+      </c>
+      <c r="CF80" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>0x1D,</v>
+      </c>
+      <c r="CG80" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>0x1E,</v>
+      </c>
+      <c r="CH80" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>0x1D,</v>
+      </c>
+      <c r="CI80" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>0x17,</v>
+      </c>
+      <c r="CJ80" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>0x17,</v>
+      </c>
+      <c r="CK80" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>0x07,</v>
+      </c>
+      <c r="CL80" s="4" t="str">
+        <f t="shared" si="26"/>
+        <v>0x07,</v>
+      </c>
+    </row>
+    <row r="81" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O81" s="16"/>
       <c r="AV81" s="16"/>
     </row>
-    <row r="83" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="14"/>
       <c r="D83" s="14">
         <v>1</v>
@@ -9024,8 +9948,87 @@
       <c r="BH83" s="14">
         <v>26</v>
       </c>
-    </row>
-    <row r="84" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BL83" s="14"/>
+      <c r="BM83" s="14">
+        <v>1</v>
+      </c>
+      <c r="BN83" s="14">
+        <v>2</v>
+      </c>
+      <c r="BO83" s="14">
+        <v>3</v>
+      </c>
+      <c r="BP83" s="14">
+        <v>4</v>
+      </c>
+      <c r="BQ83" s="14">
+        <v>5</v>
+      </c>
+      <c r="BR83" s="14">
+        <v>6</v>
+      </c>
+      <c r="BS83" s="14">
+        <v>7</v>
+      </c>
+      <c r="BT83" s="14">
+        <v>8</v>
+      </c>
+      <c r="BU83" s="14">
+        <v>9</v>
+      </c>
+      <c r="BV83" s="14">
+        <v>10</v>
+      </c>
+      <c r="BW83" s="14">
+        <v>11</v>
+      </c>
+      <c r="BX83" s="14">
+        <v>12</v>
+      </c>
+      <c r="BY83" s="14">
+        <v>13</v>
+      </c>
+      <c r="BZ83" s="14">
+        <v>14</v>
+      </c>
+      <c r="CA83" s="14">
+        <v>15</v>
+      </c>
+      <c r="CB83" s="14">
+        <v>16</v>
+      </c>
+      <c r="CC83" s="14">
+        <v>17</v>
+      </c>
+      <c r="CD83" s="14">
+        <v>18</v>
+      </c>
+      <c r="CE83" s="14">
+        <v>19</v>
+      </c>
+      <c r="CF83" s="14">
+        <v>20</v>
+      </c>
+      <c r="CG83" s="14">
+        <v>21</v>
+      </c>
+      <c r="CH83" s="14">
+        <v>22</v>
+      </c>
+      <c r="CI83" s="14">
+        <v>23</v>
+      </c>
+      <c r="CJ83" s="14">
+        <v>24</v>
+      </c>
+      <c r="CK83" s="14">
+        <v>25</v>
+      </c>
+      <c r="CL83" s="14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>1</v>
       </c>
@@ -9085,8 +10088,20 @@
       <c r="BG84" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BL84" s="14">
+        <v>1</v>
+      </c>
+      <c r="BM84" s="3"/>
+      <c r="CD84" s="3"/>
+      <c r="CE84" s="3"/>
+      <c r="CF84" s="3"/>
+      <c r="CG84" s="3"/>
+      <c r="CH84" s="3"/>
+      <c r="CI84" s="3"/>
+      <c r="CJ84" s="3"/>
+      <c r="CK84" s="3"/>
+    </row>
+    <row r="85" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>2</v>
       </c>
@@ -9210,8 +10225,30 @@
       <c r="BH85" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BL85" s="14">
+        <v>2</v>
+      </c>
+      <c r="BM85" s="3"/>
+      <c r="BN85" s="3"/>
+      <c r="BO85" s="3"/>
+      <c r="BT85" s="3"/>
+      <c r="BU85" s="3"/>
+      <c r="BV85" s="3"/>
+      <c r="BW85" s="3"/>
+      <c r="BX85" s="3"/>
+      <c r="BY85" s="3"/>
+      <c r="BZ85" s="3"/>
+      <c r="CD85" s="3"/>
+      <c r="CE85" s="3"/>
+      <c r="CF85" s="3"/>
+      <c r="CG85" s="3"/>
+      <c r="CH85" s="3"/>
+      <c r="CI85" s="3"/>
+      <c r="CJ85" s="3"/>
+      <c r="CK85" s="3"/>
+      <c r="CL85" s="3"/>
+    </row>
+    <row r="86" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>4</v>
       </c>
@@ -9377,8 +10414,37 @@
       <c r="BH86" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BL86" s="14">
+        <v>3</v>
+      </c>
+      <c r="BM86" s="3"/>
+      <c r="BN86" s="3"/>
+      <c r="BO86" s="3"/>
+      <c r="BP86" s="3"/>
+      <c r="BQ86" s="3"/>
+      <c r="BR86" s="3"/>
+      <c r="BS86" s="3"/>
+      <c r="BT86" s="3"/>
+      <c r="BU86" s="3"/>
+      <c r="BV86" s="3"/>
+      <c r="BW86" s="3"/>
+      <c r="BX86" s="3"/>
+      <c r="BY86" s="3"/>
+      <c r="BZ86" s="3"/>
+      <c r="CA86" s="3"/>
+      <c r="CB86" s="3"/>
+      <c r="CC86" s="3"/>
+      <c r="CD86" s="3"/>
+      <c r="CE86" s="3"/>
+      <c r="CF86" s="3"/>
+      <c r="CG86" s="3"/>
+      <c r="CH86" s="3"/>
+      <c r="CI86" s="3"/>
+      <c r="CJ86" s="3"/>
+      <c r="CK86" s="3"/>
+      <c r="CL86" s="3"/>
+    </row>
+    <row r="87" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>8</v>
       </c>
@@ -9538,8 +10604,36 @@
       <c r="BH87" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BL87" s="14">
+        <v>4</v>
+      </c>
+      <c r="BN87" s="3"/>
+      <c r="BO87" s="3"/>
+      <c r="BP87" s="3"/>
+      <c r="BQ87" s="3"/>
+      <c r="BR87" s="3"/>
+      <c r="BS87" s="3"/>
+      <c r="BT87" s="3"/>
+      <c r="BU87" s="3"/>
+      <c r="BV87" s="3"/>
+      <c r="BW87" s="3"/>
+      <c r="BX87" s="3"/>
+      <c r="BY87" s="3"/>
+      <c r="BZ87" s="3"/>
+      <c r="CA87" s="3"/>
+      <c r="CB87" s="3"/>
+      <c r="CC87" s="3"/>
+      <c r="CD87" s="3"/>
+      <c r="CE87" s="3"/>
+      <c r="CF87" s="3"/>
+      <c r="CG87" s="3"/>
+      <c r="CH87" s="3"/>
+      <c r="CI87" s="3"/>
+      <c r="CJ87" s="3"/>
+      <c r="CK87" s="3"/>
+      <c r="CL87" s="3"/>
+    </row>
+    <row r="88" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>16</v>
       </c>
@@ -9693,8 +10787,24 @@
       <c r="BH88" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BL88" s="14">
+        <v>5</v>
+      </c>
+      <c r="BM88" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC88" s="3"/>
+      <c r="CD88" s="3"/>
+      <c r="CE88" s="3"/>
+      <c r="CF88" s="3"/>
+      <c r="CG88" s="3"/>
+      <c r="CH88" s="3"/>
+      <c r="CI88" s="3"/>
+      <c r="CJ88" s="3"/>
+      <c r="CK88" s="3"/>
+      <c r="CL88" s="3"/>
+    </row>
+    <row r="89" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>32</v>
       </c>
@@ -9842,8 +10952,63 @@
       <c r="BH89" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BL89" s="14">
+        <v>6</v>
+      </c>
+      <c r="BM89" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN89" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO89" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT89" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU89" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV89" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW89" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX89" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY89" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ89" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD89" s="3"/>
+      <c r="CE89" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF89" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG89" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH89" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI89" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ89" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK89" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>64</v>
       </c>
@@ -9961,8 +11126,86 @@
       <c r="BD90" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BL90" s="14">
+        <v>7</v>
+      </c>
+      <c r="BM90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK90" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL90" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>128</v>
       </c>
@@ -10076,8 +11319,86 @@
       <c r="BF91" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BL91" s="14">
+        <v>8</v>
+      </c>
+      <c r="BN91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL91" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>1</v>
       </c>
@@ -10130,8 +11451,83 @@
         <v>0</v>
       </c>
       <c r="AW92" s="3"/>
-    </row>
-    <row r="93" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BL92" s="14">
+        <v>9</v>
+      </c>
+      <c r="BO92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL92" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>2</v>
       </c>
@@ -10180,8 +11576,80 @@
         <v>0</v>
       </c>
       <c r="AX93" s="3"/>
-    </row>
-    <row r="94" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BL93" s="14">
+        <v>10</v>
+      </c>
+      <c r="BP93" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ93" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR93" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS93" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT93" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU93" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV93" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW93" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX93" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY93" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ93" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA93" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB93" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC93" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD93" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE93" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF93" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG93" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH93" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI93" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ93" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK93" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL93" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>4</v>
       </c>
@@ -10217,8 +11685,77 @@
       <c r="AT94" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BL94" s="14">
+        <v>11</v>
+      </c>
+      <c r="BQ94" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR94" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS94" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT94" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU94" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV94" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW94" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX94" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY94" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ94" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA94" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB94" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC94" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD94" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE94" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF94" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG94" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH94" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI94" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ94" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK94" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL94" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>8</v>
       </c>
@@ -10237,8 +11774,60 @@
       </c>
       <c r="AQ95" s="3"/>
       <c r="AR95" s="3"/>
-    </row>
-    <row r="96" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BL95" s="14">
+        <v>12</v>
+      </c>
+      <c r="BR95" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS95" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT95" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU95" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV95" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW95" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX95" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY95" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ95" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA95" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB95" s="3"/>
+      <c r="CC95" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD95" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE95" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF95" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG95" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH95" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>16</v>
       </c>
@@ -10262,8 +11851,60 @@
       </c>
       <c r="AQ96" s="3"/>
       <c r="AR96" s="3"/>
-    </row>
-    <row r="97" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BL96" s="14">
+        <v>13</v>
+      </c>
+      <c r="BP96" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ96" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS96" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT96" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU96" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV96" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW96" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX96" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ96" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA96" s="3"/>
+      <c r="CD96" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE96" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF96" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG96" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH96" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI96" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ96" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>32</v>
       </c>
@@ -10273,8 +11914,11 @@
       <c r="AH97" s="14">
         <v>14</v>
       </c>
-    </row>
-    <row r="98" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BL97" s="14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>64</v>
       </c>
@@ -10284,8 +11928,11 @@
       <c r="AH98" s="14">
         <v>15</v>
       </c>
-    </row>
-    <row r="99" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BL98" s="14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>128</v>
       </c>
@@ -10295,110 +11942,113 @@
       <c r="AH99" s="14">
         <v>16</v>
       </c>
-    </row>
-    <row r="100" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BL99" s="14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D100" s="4" t="str">
-        <f t="shared" ref="D100:AC100" si="25">"0x"&amp;DEC2HEX((SUMIF(D84:D91,"&lt;&gt;",$A84:$A91)),2)&amp;","</f>
+        <f t="shared" ref="D100:AC100" si="27">"0x"&amp;DEC2HEX((SUMIF(D84:D91,"&lt;&gt;",$A84:$A91)),2)&amp;","</f>
         <v>0x07,</v>
       </c>
       <c r="E100" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0x0E,</v>
       </c>
       <c r="F100" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0x1E,</v>
       </c>
       <c r="G100" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0x3C,</v>
       </c>
       <c r="H100" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0x7C,</v>
       </c>
       <c r="I100" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0xFC,</v>
       </c>
       <c r="J100" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0xFC,</v>
       </c>
       <c r="K100" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0xFE,</v>
       </c>
       <c r="L100" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0xFE,</v>
       </c>
       <c r="M100" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0xFE,</v>
       </c>
       <c r="N100" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0xFE,</v>
       </c>
       <c r="O100" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0xFE,</v>
       </c>
       <c r="P100" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0xFE,</v>
       </c>
       <c r="Q100" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0xFE,</v>
       </c>
       <c r="R100" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0xFC,</v>
       </c>
       <c r="S100" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0x7C,</v>
       </c>
       <c r="T100" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0x7C,</v>
       </c>
       <c r="U100" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0xFE,</v>
       </c>
       <c r="V100" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0xFF,</v>
       </c>
       <c r="W100" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0xFF,</v>
       </c>
       <c r="X100" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0xFF,</v>
       </c>
       <c r="Y100" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0xFF,</v>
       </c>
       <c r="Z100" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0xBF,</v>
       </c>
       <c r="AA100" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0xBF,</v>
       </c>
       <c r="AB100" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0x3F,</v>
       </c>
       <c r="AC100" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>0x3E,</v>
       </c>
       <c r="AI100" s="4" t="str">
@@ -10406,209 +12056,313 @@
         <v>0x07,</v>
       </c>
       <c r="AJ100" s="4" t="str">
-        <f t="shared" ref="AJ100:BH100" si="26">"0x"&amp;DEC2HEX((SUMIF(AJ84:AJ91,"&lt;&gt;",$A84:$A91)),2)&amp;","</f>
+        <f t="shared" ref="AJ100:BH100" si="28">"0x"&amp;DEC2HEX((SUMIF(AJ84:AJ91,"&lt;&gt;",$A84:$A91)),2)&amp;","</f>
         <v>0x0E,</v>
       </c>
       <c r="AK100" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0x1E,</v>
       </c>
       <c r="AL100" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0x3C,</v>
       </c>
       <c r="AM100" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0x7C,</v>
       </c>
       <c r="AN100" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0xFC,</v>
       </c>
       <c r="AO100" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0xFC,</v>
       </c>
       <c r="AP100" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0xFE,</v>
       </c>
       <c r="AQ100" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0xFE,</v>
       </c>
       <c r="AR100" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0xFE,</v>
       </c>
       <c r="AS100" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0xFE,</v>
       </c>
       <c r="AT100" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0xFE,</v>
       </c>
       <c r="AU100" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0xFE,</v>
       </c>
       <c r="AV100" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0xFE,</v>
       </c>
       <c r="AW100" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0xFC,</v>
       </c>
       <c r="AX100" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0x7C,</v>
       </c>
       <c r="AY100" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0x7C,</v>
       </c>
       <c r="AZ100" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0xFE,</v>
       </c>
       <c r="BA100" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0xFF,</v>
       </c>
       <c r="BB100" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0xFF,</v>
       </c>
       <c r="BC100" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0xFF,</v>
       </c>
       <c r="BD100" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0xFF,</v>
       </c>
       <c r="BE100" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0xBF,</v>
       </c>
       <c r="BF100" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0xBF,</v>
       </c>
       <c r="BG100" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0x3F,</v>
       </c>
       <c r="BH100" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0x3E,</v>
       </c>
-    </row>
-    <row r="101" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BM100" s="4" t="str">
+        <f>"0x"&amp;DEC2HEX((SUMIF(BM84:BM91,"&lt;&gt;",$A84:$A91)),2)&amp;","</f>
+        <v>0x70,</v>
+      </c>
+      <c r="BN100" s="4" t="str">
+        <f t="shared" ref="BN100:CL100" si="29">"0x"&amp;DEC2HEX((SUMIF(BN84:BN91,"&lt;&gt;",$A84:$A91)),2)&amp;","</f>
+        <v>0xE0,</v>
+      </c>
+      <c r="BO100" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>0xE0,</v>
+      </c>
+      <c r="BP100" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>0xC0,</v>
+      </c>
+      <c r="BQ100" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>0xC0,</v>
+      </c>
+      <c r="BR100" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>0xC0,</v>
+      </c>
+      <c r="BS100" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>0xC0,</v>
+      </c>
+      <c r="BT100" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>0xE0,</v>
+      </c>
+      <c r="BU100" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>0xE0,</v>
+      </c>
+      <c r="BV100" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>0xE0,</v>
+      </c>
+      <c r="BW100" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>0xE0,</v>
+      </c>
+      <c r="BX100" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>0xE0,</v>
+      </c>
+      <c r="BY100" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>0xE0,</v>
+      </c>
+      <c r="BZ100" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>0xE0,</v>
+      </c>
+      <c r="CA100" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>0xC0,</v>
+      </c>
+      <c r="CB100" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>0xC0,</v>
+      </c>
+      <c r="CC100" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>0x80,</v>
+      </c>
+      <c r="CD100" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>0xC0,</v>
+      </c>
+      <c r="CE100" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>0xE0,</v>
+      </c>
+      <c r="CF100" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>0xE0,</v>
+      </c>
+      <c r="CG100" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>0xE0,</v>
+      </c>
+      <c r="CH100" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>0xE0,</v>
+      </c>
+      <c r="CI100" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>0xE0,</v>
+      </c>
+      <c r="CJ100" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>0xE0,</v>
+      </c>
+      <c r="CK100" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>0xE0,</v>
+      </c>
+      <c r="CL100" s="4" t="str">
+        <f t="shared" si="29"/>
+        <v>0xC0,</v>
+      </c>
+    </row>
+    <row r="101" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D101" s="4" t="str">
-        <f t="shared" ref="D101:AC101" si="27">"0x"&amp;DEC2HEX((SUMIF(D92:D99,"&lt;&gt;",$A92:$A99)),2)&amp;","</f>
+        <f t="shared" ref="D101:AC101" si="30">"0x"&amp;DEC2HEX((SUMIF(D92:D99,"&lt;&gt;",$A92:$A99)),2)&amp;","</f>
         <v>0x00,</v>
       </c>
       <c r="E101" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0x00,</v>
       </c>
       <c r="F101" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0x00,</v>
       </c>
       <c r="G101" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0x00,</v>
       </c>
       <c r="H101" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0x00,</v>
       </c>
       <c r="I101" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0x06,</v>
       </c>
       <c r="J101" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0x05,</v>
       </c>
       <c r="K101" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0x01,</v>
       </c>
       <c r="L101" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0x1F,</v>
       </c>
       <c r="M101" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0x17,</v>
       </c>
       <c r="N101" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0x03,</v>
       </c>
       <c r="O101" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0x01,</v>
       </c>
       <c r="P101" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0x00,</v>
       </c>
       <c r="Q101" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0x03,</v>
       </c>
       <c r="R101" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0x02,</v>
       </c>
       <c r="S101" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0x00,</v>
       </c>
       <c r="T101" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0x00,</v>
       </c>
       <c r="U101" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0x00,</v>
       </c>
       <c r="V101" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0x00,</v>
       </c>
       <c r="W101" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0x00,</v>
       </c>
       <c r="X101" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0x00,</v>
       </c>
       <c r="Y101" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0x00,</v>
       </c>
       <c r="Z101" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0x00,</v>
       </c>
       <c r="AA101" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0x00,</v>
       </c>
       <c r="AB101" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0x00,</v>
       </c>
       <c r="AC101" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="30"/>
         <v>0x00,</v>
       </c>
       <c r="AI101" s="4" t="str">
@@ -10616,115 +12370,219 @@
         <v>0x00,</v>
       </c>
       <c r="AJ101" s="4" t="str">
-        <f t="shared" ref="AJ101:BH101" si="28">"0x"&amp;DEC2HEX((SUMIF(AJ92:AJ99,"&lt;&gt;",$A92:$A99)),2)&amp;","</f>
+        <f t="shared" ref="AJ101:BH101" si="31">"0x"&amp;DEC2HEX((SUMIF(AJ92:AJ99,"&lt;&gt;",$A92:$A99)),2)&amp;","</f>
         <v>0x00,</v>
       </c>
       <c r="AK101" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0x00,</v>
       </c>
       <c r="AL101" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0x00,</v>
       </c>
       <c r="AM101" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0x00,</v>
       </c>
       <c r="AN101" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0x1E,</v>
       </c>
       <c r="AO101" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0x17,</v>
       </c>
       <c r="AP101" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0x03,</v>
       </c>
       <c r="AQ101" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0x01,</v>
       </c>
       <c r="AR101" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0x01,</v>
       </c>
       <c r="AS101" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0x07,</v>
       </c>
       <c r="AT101" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0x05,</v>
       </c>
       <c r="AU101" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0x00,</v>
       </c>
       <c r="AV101" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0x03,</v>
       </c>
       <c r="AW101" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0x02,</v>
       </c>
       <c r="AX101" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0x00,</v>
       </c>
       <c r="AY101" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0x00,</v>
       </c>
       <c r="AZ101" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0x00,</v>
       </c>
       <c r="BA101" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0x00,</v>
       </c>
       <c r="BB101" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0x00,</v>
       </c>
       <c r="BC101" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0x00,</v>
       </c>
       <c r="BD101" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0x00,</v>
       </c>
       <c r="BE101" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0x00,</v>
       </c>
       <c r="BF101" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0x00,</v>
       </c>
       <c r="BG101" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0x00,</v>
       </c>
       <c r="BH101" s="4" t="str">
-        <f t="shared" si="28"/>
-        <v>0x00,</v>
-      </c>
-    </row>
-    <row r="102" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="31"/>
+        <v>0x00,</v>
+      </c>
+      <c r="BM101" s="4" t="str">
+        <f>"0x"&amp;DEC2HEX((SUMIF(BM92:BM99,"&lt;&gt;",$A92:$A99)),2)&amp;","</f>
+        <v>0x00,</v>
+      </c>
+      <c r="BN101" s="4" t="str">
+        <f t="shared" ref="BN101:CL101" si="32">"0x"&amp;DEC2HEX((SUMIF(BN92:BN99,"&lt;&gt;",$A92:$A99)),2)&amp;","</f>
+        <v>0x00,</v>
+      </c>
+      <c r="BO101" s="4" t="str">
+        <f t="shared" si="32"/>
+        <v>0x01,</v>
+      </c>
+      <c r="BP101" s="4" t="str">
+        <f t="shared" si="32"/>
+        <v>0x13,</v>
+      </c>
+      <c r="BQ101" s="4" t="str">
+        <f t="shared" si="32"/>
+        <v>0x17,</v>
+      </c>
+      <c r="BR101" s="4" t="str">
+        <f t="shared" si="32"/>
+        <v>0x0F,</v>
+      </c>
+      <c r="BS101" s="4" t="str">
+        <f t="shared" si="32"/>
+        <v>0x1F,</v>
+      </c>
+      <c r="BT101" s="4" t="str">
+        <f t="shared" si="32"/>
+        <v>0x1F,</v>
+      </c>
+      <c r="BU101" s="4" t="str">
+        <f t="shared" si="32"/>
+        <v>0x1F,</v>
+      </c>
+      <c r="BV101" s="4" t="str">
+        <f t="shared" si="32"/>
+        <v>0x1F,</v>
+      </c>
+      <c r="BW101" s="4" t="str">
+        <f t="shared" si="32"/>
+        <v>0x1F,</v>
+      </c>
+      <c r="BX101" s="4" t="str">
+        <f t="shared" si="32"/>
+        <v>0x1F,</v>
+      </c>
+      <c r="BY101" s="4" t="str">
+        <f t="shared" si="32"/>
+        <v>0x0F,</v>
+      </c>
+      <c r="BZ101" s="4" t="str">
+        <f t="shared" si="32"/>
+        <v>0x1F,</v>
+      </c>
+      <c r="CA101" s="4" t="str">
+        <f t="shared" si="32"/>
+        <v>0x0F,</v>
+      </c>
+      <c r="CB101" s="4" t="str">
+        <f t="shared" si="32"/>
+        <v>0x07,</v>
+      </c>
+      <c r="CC101" s="4" t="str">
+        <f t="shared" si="32"/>
+        <v>0x0F,</v>
+      </c>
+      <c r="CD101" s="4" t="str">
+        <f t="shared" si="32"/>
+        <v>0x1F,</v>
+      </c>
+      <c r="CE101" s="4" t="str">
+        <f t="shared" si="32"/>
+        <v>0x1F,</v>
+      </c>
+      <c r="CF101" s="4" t="str">
+        <f t="shared" si="32"/>
+        <v>0x1F,</v>
+      </c>
+      <c r="CG101" s="4" t="str">
+        <f t="shared" si="32"/>
+        <v>0x1F,</v>
+      </c>
+      <c r="CH101" s="4" t="str">
+        <f t="shared" si="32"/>
+        <v>0x1F,</v>
+      </c>
+      <c r="CI101" s="4" t="str">
+        <f t="shared" si="32"/>
+        <v>0x17,</v>
+      </c>
+      <c r="CJ101" s="4" t="str">
+        <f t="shared" si="32"/>
+        <v>0x17,</v>
+      </c>
+      <c r="CK101" s="4" t="str">
+        <f t="shared" si="32"/>
+        <v>0x07,</v>
+      </c>
+      <c r="CL101" s="4" t="str">
+        <f t="shared" si="32"/>
+        <v>0x07,</v>
+      </c>
+    </row>
+    <row r="102" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O102" s="3"/>
       <c r="AV102" s="3"/>
     </row>
-    <row r="103" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O103" s="3"/>
       <c r="AV103" s="3"/>
     </row>
-    <row r="104" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C104" s="14"/>
       <c r="D104" s="14">
         <v>1</v>
@@ -10860,7 +12718,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>1</v>
       </c>
@@ -10879,7 +12737,7 @@
       </c>
       <c r="AR105" s="3"/>
     </row>
-    <row r="106" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>2</v>
       </c>
@@ -10908,7 +12766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>4</v>
       </c>
@@ -10943,7 +12801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>8</v>
       </c>
@@ -10993,7 +12851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>16</v>
       </c>
@@ -11052,7 +12910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>32</v>
       </c>
@@ -11149,7 +13007,7 @@
       </c>
       <c r="AW110" s="3"/>
     </row>
-    <row r="111" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>64</v>
       </c>
@@ -11214,7 +13072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:60" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>128</v>
       </c>
@@ -11698,175 +13556,175 @@
         <v>0x20,</v>
       </c>
       <c r="E121" s="4" t="str">
-        <f t="shared" ref="E121:Y121" si="29">"0x"&amp;DEC2HEX((SUMIF(E105:E112,"&lt;&gt;",$A105:$A112)),2)&amp;","</f>
+        <f t="shared" ref="E121:Y121" si="33">"0x"&amp;DEC2HEX((SUMIF(E105:E112,"&lt;&gt;",$A105:$A112)),2)&amp;","</f>
         <v>0x30,</v>
       </c>
       <c r="F121" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0x38,</v>
       </c>
       <c r="G121" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0x3C,</v>
       </c>
       <c r="H121" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0x3E,</v>
       </c>
       <c r="I121" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0x3E,</v>
       </c>
       <c r="J121" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0x78,</v>
       </c>
       <c r="K121" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0xE0,</v>
       </c>
       <c r="L121" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0xE0,</v>
       </c>
       <c r="M121" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0xE0,</v>
       </c>
       <c r="N121" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0xE0,</v>
       </c>
       <c r="O121" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0xE0,</v>
       </c>
       <c r="P121" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0xE0,</v>
       </c>
       <c r="Q121" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0xE0,</v>
       </c>
       <c r="R121" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0xC0,</v>
       </c>
       <c r="S121" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0x80,</v>
       </c>
       <c r="T121" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0x80,</v>
       </c>
       <c r="U121" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0x80,</v>
       </c>
       <c r="V121" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0x80,</v>
       </c>
       <c r="W121" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0x80,</v>
       </c>
       <c r="X121" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0x80,</v>
       </c>
       <c r="Y121" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0x80,</v>
       </c>
       <c r="AI121" s="4" t="str">
-        <f t="shared" ref="AI121:BD121" si="30">"0x"&amp;DEC2HEX((SUMIF(AI105:AI112,"&lt;&gt;",$A105:$A112)),2)&amp;","</f>
+        <f t="shared" ref="AI121:BD121" si="34">"0x"&amp;DEC2HEX((SUMIF(AI105:AI112,"&lt;&gt;",$A105:$A112)),2)&amp;","</f>
         <v>0x20,</v>
       </c>
       <c r="AJ121" s="4" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0x30,</v>
       </c>
       <c r="AK121" s="4" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0x38,</v>
       </c>
       <c r="AL121" s="4" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0x3C,</v>
       </c>
       <c r="AM121" s="4" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0x3E,</v>
       </c>
       <c r="AN121" s="4" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0x3E,</v>
       </c>
       <c r="AO121" s="4" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0x78,</v>
       </c>
       <c r="AP121" s="4" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0xE0,</v>
       </c>
       <c r="AQ121" s="4" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0xFF,</v>
       </c>
       <c r="AR121" s="4" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0xFE,</v>
       </c>
       <c r="AS121" s="4" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0xF8,</v>
       </c>
       <c r="AT121" s="4" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0xF0,</v>
       </c>
       <c r="AU121" s="4" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0xE0,</v>
       </c>
       <c r="AV121" s="4" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0xE0,</v>
       </c>
       <c r="AW121" s="4" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0xC0,</v>
       </c>
       <c r="AX121" s="4" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0x80,</v>
       </c>
       <c r="AY121" s="4" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0x80,</v>
       </c>
       <c r="AZ121" s="4" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0x80,</v>
       </c>
       <c r="BA121" s="4" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0x80,</v>
       </c>
       <c r="BB121" s="4" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0x80,</v>
       </c>
       <c r="BC121" s="4" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0x80,</v>
       </c>
       <c r="BD121" s="4" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0x80,</v>
       </c>
     </row>
@@ -11876,175 +13734,175 @@
         <v>0x00,</v>
       </c>
       <c r="E122" s="4" t="str">
-        <f t="shared" ref="E122:Y122" si="31">"0x"&amp;DEC2HEX((SUMIF(E113:E120,"&lt;&gt;",$A113:$A120)),2)&amp;","</f>
+        <f t="shared" ref="E122:Y122" si="35">"0x"&amp;DEC2HEX((SUMIF(E113:E120,"&lt;&gt;",$A113:$A120)),2)&amp;","</f>
         <v>0x00,</v>
       </c>
       <c r="F122" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0x00,</v>
       </c>
       <c r="G122" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0x00,</v>
       </c>
       <c r="H122" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0x00,</v>
       </c>
       <c r="I122" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0x00,</v>
       </c>
       <c r="J122" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0x00,</v>
       </c>
       <c r="K122" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0x00,</v>
       </c>
       <c r="L122" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0xFF,</v>
       </c>
       <c r="M122" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0x7F,</v>
       </c>
       <c r="N122" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0x1F,</v>
       </c>
       <c r="O122" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0x0F,</v>
       </c>
       <c r="P122" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0x07,</v>
       </c>
       <c r="Q122" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0x07,</v>
       </c>
       <c r="R122" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0x07,</v>
       </c>
       <c r="S122" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0x07,</v>
       </c>
       <c r="T122" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0x07,</v>
       </c>
       <c r="U122" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0x07,</v>
       </c>
       <c r="V122" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0x07,</v>
       </c>
       <c r="W122" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0x02,</v>
       </c>
       <c r="X122" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0x02,</v>
       </c>
       <c r="Y122" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0x00,</v>
       </c>
       <c r="AI122" s="4" t="str">
-        <f t="shared" ref="AI122:BD122" si="32">"0x"&amp;DEC2HEX((SUMIF(AI113:AI120,"&lt;&gt;",$A113:$A120)),2)&amp;","</f>
+        <f t="shared" ref="AI122:BD122" si="36">"0x"&amp;DEC2HEX((SUMIF(AI113:AI120,"&lt;&gt;",$A113:$A120)),2)&amp;","</f>
         <v>0x00,</v>
       </c>
       <c r="AJ122" s="4" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0x00,</v>
       </c>
       <c r="AK122" s="4" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0x00,</v>
       </c>
       <c r="AL122" s="4" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0x00,</v>
       </c>
       <c r="AM122" s="4" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0x00,</v>
       </c>
       <c r="AN122" s="4" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0x00,</v>
       </c>
       <c r="AO122" s="4" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0x00,</v>
       </c>
       <c r="AP122" s="4" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0x00,</v>
       </c>
       <c r="AQ122" s="4" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0x03,</v>
       </c>
       <c r="AR122" s="4" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0x07,</v>
       </c>
       <c r="AS122" s="4" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0x07,</v>
       </c>
       <c r="AT122" s="4" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0x07,</v>
       </c>
       <c r="AU122" s="4" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0x07,</v>
       </c>
       <c r="AV122" s="4" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0x07,</v>
       </c>
       <c r="AW122" s="4" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0x07,</v>
       </c>
       <c r="AX122" s="4" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0x07,</v>
       </c>
       <c r="AY122" s="4" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0x07,</v>
       </c>
       <c r="AZ122" s="4" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0x07,</v>
       </c>
       <c r="BA122" s="4" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0x07,</v>
       </c>
       <c r="BB122" s="4" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0x02,</v>
       </c>
       <c r="BC122" s="4" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0x02,</v>
       </c>
       <c r="BD122" s="4" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0x00,</v>
       </c>
     </row>
@@ -14593,43 +16451,43 @@
         <v>0x00,</v>
       </c>
       <c r="E151" s="4" t="str">
-        <f t="shared" ref="E151:N151" si="33">"0x"&amp;DEC2HEX((SUMIF(E127:E134,"&lt;&gt;",$A127:$A134)),2)&amp;","</f>
+        <f t="shared" ref="E151:N151" si="37">"0x"&amp;DEC2HEX((SUMIF(E127:E134,"&lt;&gt;",$A127:$A134)),2)&amp;","</f>
         <v>0x80,</v>
       </c>
       <c r="F151" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0x00,</v>
       </c>
       <c r="G151" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0x00,</v>
       </c>
       <c r="H151" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0xF8,</v>
       </c>
       <c r="I151" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0xFC,</v>
       </c>
       <c r="J151" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0xF8,</v>
       </c>
       <c r="K151" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0x00,</v>
       </c>
       <c r="L151" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0xE0,</v>
       </c>
       <c r="M151" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0xF0,</v>
       </c>
       <c r="N151" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0xE0,</v>
       </c>
       <c r="P151" s="3"/>
@@ -14638,91 +16496,91 @@
         <v>0x00,</v>
       </c>
       <c r="T151" s="4" t="str">
-        <f t="shared" ref="T151:AO151" si="34">"0x"&amp;DEC2HEX((SUMIF(T127:T134,"&lt;&gt;",$A127:$A134)),2)&amp;","</f>
+        <f t="shared" ref="T151:AO151" si="38">"0x"&amp;DEC2HEX((SUMIF(T127:T134,"&lt;&gt;",$A127:$A134)),2)&amp;","</f>
         <v>0x80,</v>
       </c>
       <c r="U151" s="4" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0x00,</v>
       </c>
       <c r="V151" s="4" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0x00,</v>
       </c>
       <c r="W151" s="4" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0xF8,</v>
       </c>
       <c r="X151" s="4" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0xFC,</v>
       </c>
       <c r="Y151" s="4" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0xF8,</v>
       </c>
       <c r="Z151" s="4" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0x00,</v>
       </c>
       <c r="AA151" s="4" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0xE0,</v>
       </c>
       <c r="AB151" s="4" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0xF0,</v>
       </c>
       <c r="AC151" s="4" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0xE0,</v>
       </c>
       <c r="AD151" s="4" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0x00,</v>
       </c>
       <c r="AE151" s="4" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0xF8,</v>
       </c>
       <c r="AF151" s="4" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0xFC,</v>
       </c>
       <c r="AG151" s="4" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0xF8,</v>
       </c>
       <c r="AH151" s="4" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0x00,</v>
       </c>
       <c r="AI151" s="4" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0xFE,</v>
       </c>
       <c r="AJ151" s="4" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0xFF,</v>
       </c>
       <c r="AK151" s="4" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0xFE,</v>
       </c>
       <c r="AL151" s="4" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0x00,</v>
       </c>
       <c r="AM151" s="4" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0x80,</v>
       </c>
       <c r="AN151" s="4" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0xC0,</v>
       </c>
       <c r="AO151" s="4" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0x80,</v>
       </c>
       <c r="AT151" s="4" t="str">
@@ -14730,139 +16588,139 @@
         <v>0xF8,</v>
       </c>
       <c r="AU151" s="4" t="str">
-        <f t="shared" ref="AU151:CB151" si="35">"0x"&amp;DEC2HEX((SUMIF(AU127:AU134,"&lt;&gt;",$A127:$A134)),2)&amp;","</f>
+        <f t="shared" ref="AU151:CB151" si="39">"0x"&amp;DEC2HEX((SUMIF(AU127:AU134,"&lt;&gt;",$A127:$A134)),2)&amp;","</f>
         <v>0xFC,</v>
       </c>
       <c r="AV151" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0xF8,</v>
       </c>
       <c r="AW151" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0x00,</v>
       </c>
       <c r="AX151" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0xFE,</v>
       </c>
       <c r="AY151" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0xFF,</v>
       </c>
       <c r="AZ151" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0xFE,</v>
       </c>
       <c r="BA151" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0x00,</v>
       </c>
       <c r="BB151" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0x80,</v>
       </c>
       <c r="BC151" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0xC0,</v>
       </c>
       <c r="BD151" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0x80,</v>
       </c>
       <c r="BE151" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0x00,</v>
       </c>
       <c r="BF151" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0x00,</v>
       </c>
       <c r="BG151" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0x00,</v>
       </c>
       <c r="BH151" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0x00,</v>
       </c>
       <c r="BI151" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0x00,</v>
       </c>
       <c r="BJ151" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0x80,</v>
       </c>
       <c r="BK151" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0xC0,</v>
       </c>
       <c r="BL151" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0x80,</v>
       </c>
       <c r="BM151" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0x00,</v>
       </c>
       <c r="BN151" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0x00,</v>
       </c>
       <c r="BO151" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0x00,</v>
       </c>
       <c r="BP151" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0x00,</v>
       </c>
       <c r="BQ151" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0x00,</v>
       </c>
       <c r="BR151" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0x00,</v>
       </c>
       <c r="BS151" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0x80,</v>
       </c>
       <c r="BT151" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0x00,</v>
       </c>
       <c r="BU151" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0x00,</v>
       </c>
       <c r="BV151" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0xF8,</v>
       </c>
       <c r="BW151" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0xFC,</v>
       </c>
       <c r="BX151" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0xF8,</v>
       </c>
       <c r="BY151" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0x00,</v>
       </c>
       <c r="BZ151" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0xE0,</v>
       </c>
       <c r="CA151" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0xF0,</v>
       </c>
       <c r="CB151" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0xE0,</v>
       </c>
       <c r="CC151" s="3"/>
@@ -14876,43 +16734,43 @@
         <v>0x3F,</v>
       </c>
       <c r="E152" s="4" t="str">
-        <f t="shared" ref="E152:N152" si="36">"0x"&amp;DEC2HEX((SUMIF(E135:E142,"&lt;&gt;",$A135:$A142)),2)&amp;","</f>
+        <f t="shared" ref="E152:N152" si="40">"0x"&amp;DEC2HEX((SUMIF(E135:E142,"&lt;&gt;",$A135:$A142)),2)&amp;","</f>
         <v>0x7F,</v>
       </c>
       <c r="F152" s="4" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0xFF,</v>
       </c>
       <c r="G152" s="4" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0xE0,</v>
       </c>
       <c r="H152" s="4" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0xFF,</v>
       </c>
       <c r="I152" s="4" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0xFF,</v>
       </c>
       <c r="J152" s="4" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0xFF,</v>
       </c>
       <c r="K152" s="4" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0x1C,</v>
       </c>
       <c r="L152" s="4" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0x1F,</v>
       </c>
       <c r="M152" s="4" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0x0F,</v>
       </c>
       <c r="N152" s="4" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0x07,</v>
       </c>
       <c r="P152" s="3"/>
@@ -14921,91 +16779,91 @@
         <v>0x3F,</v>
       </c>
       <c r="T152" s="4" t="str">
-        <f t="shared" ref="T152:AO152" si="37">"0x"&amp;DEC2HEX((SUMIF(T135:T142,"&lt;&gt;",$A135:$A142)),2)&amp;","</f>
+        <f t="shared" ref="T152:AO152" si="41">"0x"&amp;DEC2HEX((SUMIF(T135:T142,"&lt;&gt;",$A135:$A142)),2)&amp;","</f>
         <v>0x7F,</v>
       </c>
       <c r="U152" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0xFF,</v>
       </c>
       <c r="V152" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0xE0,</v>
       </c>
       <c r="W152" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0xFF,</v>
       </c>
       <c r="X152" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0xFF,</v>
       </c>
       <c r="Y152" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0xFF,</v>
       </c>
       <c r="Z152" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0x1C,</v>
       </c>
       <c r="AA152" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0x1F,</v>
       </c>
       <c r="AB152" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0x0F,</v>
       </c>
       <c r="AC152" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0x07,</v>
       </c>
       <c r="AD152" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0x00,</v>
       </c>
       <c r="AE152" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0x01,</v>
       </c>
       <c r="AF152" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0x03,</v>
       </c>
       <c r="AG152" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0x07,</v>
       </c>
       <c r="AH152" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0x07,</v>
       </c>
       <c r="AI152" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0xFF,</v>
       </c>
       <c r="AJ152" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0xFF,</v>
       </c>
       <c r="AK152" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0xFF,</v>
       </c>
       <c r="AL152" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0x70,</v>
       </c>
       <c r="AM152" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0x7F,</v>
       </c>
       <c r="AN152" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0x3F,</v>
       </c>
       <c r="AO152" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0x1F,</v>
       </c>
       <c r="AT152" s="4" t="str">
@@ -15013,139 +16871,139 @@
         <v>0x01,</v>
       </c>
       <c r="AU152" s="4" t="str">
-        <f t="shared" ref="AU152:CB152" si="38">"0x"&amp;DEC2HEX((SUMIF(AU135:AU142,"&lt;&gt;",$A135:$A142)),2)&amp;","</f>
+        <f t="shared" ref="AU152:CB152" si="42">"0x"&amp;DEC2HEX((SUMIF(AU135:AU142,"&lt;&gt;",$A135:$A142)),2)&amp;","</f>
         <v>0x03,</v>
       </c>
       <c r="AV152" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0x07,</v>
       </c>
       <c r="AW152" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0x07,</v>
       </c>
       <c r="AX152" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0xFF,</v>
       </c>
       <c r="AY152" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0xFF,</v>
       </c>
       <c r="AZ152" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0xFF,</v>
       </c>
       <c r="BA152" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0x70,</v>
       </c>
       <c r="BB152" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0x7F,</v>
       </c>
       <c r="BC152" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0x3F,</v>
       </c>
       <c r="BD152" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0x1F,</v>
       </c>
       <c r="BE152" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0x00,</v>
       </c>
       <c r="BF152" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0xF8,</v>
       </c>
       <c r="BG152" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0xFC,</v>
       </c>
       <c r="BH152" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0xF8,</v>
       </c>
       <c r="BI152" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0x80,</v>
       </c>
       <c r="BJ152" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0xFF,</v>
       </c>
       <c r="BK152" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0xFF,</v>
       </c>
       <c r="BL152" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0xFF,</v>
       </c>
       <c r="BM152" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0xC0,</v>
       </c>
       <c r="BN152" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0xFC,</v>
       </c>
       <c r="BO152" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0xFE,</v>
       </c>
       <c r="BP152" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0x7C,</v>
       </c>
       <c r="BQ152" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0x00,</v>
       </c>
       <c r="BR152" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0x3F,</v>
       </c>
       <c r="BS152" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0x7F,</v>
       </c>
       <c r="BT152" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0xFF,</v>
       </c>
       <c r="BU152" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0xE0,</v>
       </c>
       <c r="BV152" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0xFF,</v>
       </c>
       <c r="BW152" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0xFF,</v>
       </c>
       <c r="BX152" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0xFF,</v>
       </c>
       <c r="BY152" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0x1C,</v>
       </c>
       <c r="BZ152" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0x1F,</v>
       </c>
       <c r="CA152" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0x0F,</v>
       </c>
       <c r="CB152" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0x07,</v>
       </c>
       <c r="CC152" s="3"/>
@@ -15159,43 +17017,43 @@
         <v>0x00,</v>
       </c>
       <c r="E153" s="4" t="str">
-        <f t="shared" ref="E153:N153" si="39">"0x"&amp;DEC2HEX((SUMIF(E143:E150,"&lt;&gt;",$A143:$A150)),2)&amp;","</f>
+        <f t="shared" ref="E153:N153" si="43">"0x"&amp;DEC2HEX((SUMIF(E143:E150,"&lt;&gt;",$A143:$A150)),2)&amp;","</f>
         <v>0x00,</v>
       </c>
       <c r="F153" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0x00,</v>
       </c>
       <c r="G153" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0x00,</v>
       </c>
       <c r="H153" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0x3F,</v>
       </c>
       <c r="I153" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0x3F,</v>
       </c>
       <c r="J153" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0x3F,</v>
       </c>
       <c r="K153" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0x00,</v>
       </c>
       <c r="L153" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0x00,</v>
       </c>
       <c r="M153" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0x00,</v>
       </c>
       <c r="N153" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0x00,</v>
       </c>
       <c r="P153" s="3"/>
@@ -15204,91 +17062,91 @@
         <v>0x00,</v>
       </c>
       <c r="T153" s="4" t="str">
-        <f t="shared" ref="T153:AO153" si="40">"0x"&amp;DEC2HEX((SUMIF(T143:T150,"&lt;&gt;",$A143:$A150)),2)&amp;","</f>
+        <f t="shared" ref="T153:AO153" si="44">"0x"&amp;DEC2HEX((SUMIF(T143:T150,"&lt;&gt;",$A143:$A150)),2)&amp;","</f>
         <v>0x00,</v>
       </c>
       <c r="U153" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0x00,</v>
       </c>
       <c r="V153" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0x00,</v>
       </c>
       <c r="W153" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0x3F,</v>
       </c>
       <c r="X153" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0x3F,</v>
       </c>
       <c r="Y153" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0x3F,</v>
       </c>
       <c r="Z153" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0x00,</v>
       </c>
       <c r="AA153" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0x00,</v>
       </c>
       <c r="AB153" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0x00,</v>
       </c>
       <c r="AC153" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0x00,</v>
       </c>
       <c r="AD153" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0x00,</v>
       </c>
       <c r="AE153" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0x00,</v>
       </c>
       <c r="AF153" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0x00,</v>
       </c>
       <c r="AG153" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0x00,</v>
       </c>
       <c r="AH153" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0x00,</v>
       </c>
       <c r="AI153" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0x3F,</v>
       </c>
       <c r="AJ153" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0x3F,</v>
       </c>
       <c r="AK153" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0x3F,</v>
       </c>
       <c r="AL153" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0x00,</v>
       </c>
       <c r="AM153" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0x00,</v>
       </c>
       <c r="AN153" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0x00,</v>
       </c>
       <c r="AO153" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0x00,</v>
       </c>
       <c r="AT153" s="4" t="str">
@@ -15296,139 +17154,139 @@
         <v>0x00,</v>
       </c>
       <c r="AU153" s="4" t="str">
-        <f t="shared" ref="AU153:CB153" si="41">"0x"&amp;DEC2HEX((SUMIF(AU143:AU150,"&lt;&gt;",$A143:$A150)),2)&amp;","</f>
+        <f t="shared" ref="AU153:CB153" si="45">"0x"&amp;DEC2HEX((SUMIF(AU143:AU150,"&lt;&gt;",$A143:$A150)),2)&amp;","</f>
         <v>0x00,</v>
       </c>
       <c r="AV153" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0x00,</v>
       </c>
       <c r="AW153" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0x00,</v>
       </c>
       <c r="AX153" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0x3F,</v>
       </c>
       <c r="AY153" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0x3F,</v>
       </c>
       <c r="AZ153" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0x3F,</v>
       </c>
       <c r="BA153" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0x00,</v>
       </c>
       <c r="BB153" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0x00,</v>
       </c>
       <c r="BC153" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0x00,</v>
       </c>
       <c r="BD153" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0x00,</v>
       </c>
       <c r="BE153" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0x00,</v>
       </c>
       <c r="BF153" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0x00,</v>
       </c>
       <c r="BG153" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0x01,</v>
       </c>
       <c r="BH153" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0x03,</v>
       </c>
       <c r="BI153" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0x03,</v>
       </c>
       <c r="BJ153" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0x3F,</v>
       </c>
       <c r="BK153" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0x3F,</v>
       </c>
       <c r="BL153" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0x3F,</v>
       </c>
       <c r="BM153" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0x01,</v>
       </c>
       <c r="BN153" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0x01,</v>
       </c>
       <c r="BO153" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0x00,</v>
       </c>
       <c r="BP153" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0x00,</v>
       </c>
       <c r="BQ153" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0x00,</v>
       </c>
       <c r="BR153" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0x00,</v>
       </c>
       <c r="BS153" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0x00,</v>
       </c>
       <c r="BT153" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0x00,</v>
       </c>
       <c r="BU153" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0x00,</v>
       </c>
       <c r="BV153" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0x3F,</v>
       </c>
       <c r="BW153" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0x3F,</v>
       </c>
       <c r="BX153" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0x3F,</v>
       </c>
       <c r="BY153" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0x00,</v>
       </c>
       <c r="BZ153" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0x00,</v>
       </c>
       <c r="CA153" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0x00,</v>
       </c>
       <c r="CB153" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0x00,</v>
       </c>
       <c r="CC153" s="3"/>
@@ -15944,127 +17802,127 @@
         <v>0x14,</v>
       </c>
       <c r="E167" s="4" t="str">
-        <f t="shared" ref="E167:AI167" si="42">"0x"&amp;DEC2HEX((SUMIF(E159:E166,"&lt;&gt;",$A159:$A166)),2)&amp;","</f>
+        <f t="shared" ref="E167:AI167" si="46">"0x"&amp;DEC2HEX((SUMIF(E159:E166,"&lt;&gt;",$A159:$A166)),2)&amp;","</f>
         <v>0x14,</v>
       </c>
       <c r="F167" s="4" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0x04,</v>
       </c>
       <c r="G167" s="4" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0x04,</v>
       </c>
       <c r="H167" s="4" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0x44,</v>
       </c>
       <c r="I167" s="4" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0x44,</v>
       </c>
       <c r="J167" s="4" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0x44,</v>
       </c>
       <c r="K167" s="4" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0x04,</v>
       </c>
       <c r="L167" s="4" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0x04,</v>
       </c>
       <c r="M167" s="4" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0x04,</v>
       </c>
       <c r="N167" s="4" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0x04,</v>
       </c>
       <c r="O167" s="4" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0x04,</v>
       </c>
       <c r="P167" s="4" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0x24,</v>
       </c>
       <c r="Q167" s="4" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0x04,</v>
       </c>
       <c r="R167" s="4" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0x04,</v>
       </c>
       <c r="S167" s="4" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0x04,</v>
       </c>
       <c r="T167" s="4" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0x04,</v>
       </c>
       <c r="U167" s="4" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0x14,</v>
       </c>
       <c r="V167" s="4" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0x14,</v>
       </c>
       <c r="W167" s="4" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0x04,</v>
       </c>
       <c r="X167" s="4" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0x04,</v>
       </c>
       <c r="Y167" s="4" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0x04,</v>
       </c>
       <c r="Z167" s="4" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0x44,</v>
       </c>
       <c r="AA167" s="4" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0x44,</v>
       </c>
       <c r="AB167" s="4" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0x04,</v>
       </c>
       <c r="AC167" s="4" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0x04,</v>
       </c>
       <c r="AD167" s="4" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0x04,</v>
       </c>
       <c r="AE167" s="4" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0x04,</v>
       </c>
       <c r="AF167" s="4" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0x24,</v>
       </c>
       <c r="AG167" s="4" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0x04,</v>
       </c>
       <c r="AH167" s="4" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0x04,</v>
       </c>
       <c r="AI167" s="4" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0x04,</v>
       </c>
     </row>
@@ -16400,131 +18258,131 @@
     </row>
     <row r="179" spans="1:35" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D179" s="4" t="str">
-        <f t="shared" ref="D179" si="43">"0x"&amp;DEC2HEX((SUMIF(D171:D178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
+        <f t="shared" ref="D179" si="47">"0x"&amp;DEC2HEX((SUMIF(D171:D178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
         <v>0x04,</v>
       </c>
       <c r="E179" s="4" t="str">
-        <f t="shared" ref="E179" si="44">"0x"&amp;DEC2HEX((SUMIF(E171:E178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
+        <f t="shared" ref="E179" si="48">"0x"&amp;DEC2HEX((SUMIF(E171:E178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
         <v>0x24,</v>
       </c>
       <c r="F179" s="4" t="str">
-        <f t="shared" ref="F179" si="45">"0x"&amp;DEC2HEX((SUMIF(F171:F178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
+        <f t="shared" ref="F179" si="49">"0x"&amp;DEC2HEX((SUMIF(F171:F178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
         <v>0x24,</v>
       </c>
       <c r="G179" s="4" t="str">
-        <f t="shared" ref="G179" si="46">"0x"&amp;DEC2HEX((SUMIF(G171:G178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
+        <f t="shared" ref="G179" si="50">"0x"&amp;DEC2HEX((SUMIF(G171:G178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
         <v>0x04,</v>
       </c>
       <c r="H179" s="4" t="str">
-        <f t="shared" ref="H179" si="47">"0x"&amp;DEC2HEX((SUMIF(H171:H178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
+        <f t="shared" ref="H179" si="51">"0x"&amp;DEC2HEX((SUMIF(H171:H178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
         <v>0x04,</v>
       </c>
       <c r="I179" s="4" t="str">
-        <f t="shared" ref="I179" si="48">"0x"&amp;DEC2HEX((SUMIF(I171:I178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
+        <f t="shared" ref="I179" si="52">"0x"&amp;DEC2HEX((SUMIF(I171:I178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
         <v>0x04,</v>
       </c>
       <c r="J179" s="4" t="str">
-        <f t="shared" ref="J179" si="49">"0x"&amp;DEC2HEX((SUMIF(J171:J178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
+        <f t="shared" ref="J179" si="53">"0x"&amp;DEC2HEX((SUMIF(J171:J178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
         <v>0x44,</v>
       </c>
       <c r="K179" s="4" t="str">
-        <f t="shared" ref="K179" si="50">"0x"&amp;DEC2HEX((SUMIF(K171:K178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
+        <f t="shared" ref="K179" si="54">"0x"&amp;DEC2HEX((SUMIF(K171:K178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
         <v>0x04,</v>
       </c>
       <c r="L179" s="4" t="str">
-        <f t="shared" ref="L179" si="51">"0x"&amp;DEC2HEX((SUMIF(L171:L178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
+        <f t="shared" ref="L179" si="55">"0x"&amp;DEC2HEX((SUMIF(L171:L178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
         <v>0x04,</v>
       </c>
       <c r="M179" s="4" t="str">
-        <f t="shared" ref="M179" si="52">"0x"&amp;DEC2HEX((SUMIF(M171:M178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
+        <f t="shared" ref="M179" si="56">"0x"&amp;DEC2HEX((SUMIF(M171:M178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
         <v>0x04,</v>
       </c>
       <c r="N179" s="4" t="str">
-        <f t="shared" ref="N179" si="53">"0x"&amp;DEC2HEX((SUMIF(N171:N178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
+        <f t="shared" ref="N179" si="57">"0x"&amp;DEC2HEX((SUMIF(N171:N178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
         <v>0x14,</v>
       </c>
       <c r="O179" s="4" t="str">
-        <f t="shared" ref="O179" si="54">"0x"&amp;DEC2HEX((SUMIF(O171:O178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
+        <f t="shared" ref="O179" si="58">"0x"&amp;DEC2HEX((SUMIF(O171:O178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
         <v>0x04,</v>
       </c>
       <c r="P179" s="4" t="str">
-        <f t="shared" ref="P179" si="55">"0x"&amp;DEC2HEX((SUMIF(P171:P178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
+        <f t="shared" ref="P179" si="59">"0x"&amp;DEC2HEX((SUMIF(P171:P178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
         <v>0x22,</v>
       </c>
       <c r="Q179" s="4" t="str">
-        <f t="shared" ref="Q179" si="56">"0x"&amp;DEC2HEX((SUMIF(Q171:Q178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
+        <f t="shared" ref="Q179" si="60">"0x"&amp;DEC2HEX((SUMIF(Q171:Q178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
         <v>0x02,</v>
       </c>
       <c r="R179" s="4" t="str">
-        <f t="shared" ref="R179" si="57">"0x"&amp;DEC2HEX((SUMIF(R171:R178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
+        <f t="shared" ref="R179" si="61">"0x"&amp;DEC2HEX((SUMIF(R171:R178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
         <v>0x01,</v>
       </c>
       <c r="S179" s="4" t="str">
-        <f t="shared" ref="S179" si="58">"0x"&amp;DEC2HEX((SUMIF(S171:S178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
+        <f t="shared" ref="S179" si="62">"0x"&amp;DEC2HEX((SUMIF(S171:S178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
         <v>0x01,</v>
       </c>
       <c r="T179" s="4" t="str">
-        <f t="shared" ref="T179" si="59">"0x"&amp;DEC2HEX((SUMIF(T171:T178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
+        <f t="shared" ref="T179" si="63">"0x"&amp;DEC2HEX((SUMIF(T171:T178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
         <v>0x09,</v>
       </c>
       <c r="U179" s="4" t="str">
-        <f t="shared" ref="U179" si="60">"0x"&amp;DEC2HEX((SUMIF(U171:U178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
+        <f t="shared" ref="U179" si="64">"0x"&amp;DEC2HEX((SUMIF(U171:U178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
         <v>0x81,</v>
       </c>
       <c r="V179" s="4" t="str">
-        <f t="shared" ref="V179" si="61">"0x"&amp;DEC2HEX((SUMIF(V171:V178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
+        <f t="shared" ref="V179" si="65">"0x"&amp;DEC2HEX((SUMIF(V171:V178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
         <v>0x82,</v>
       </c>
       <c r="W179" s="4" t="str">
-        <f t="shared" ref="W179" si="62">"0x"&amp;DEC2HEX((SUMIF(W171:W178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
+        <f t="shared" ref="W179" si="66">"0x"&amp;DEC2HEX((SUMIF(W171:W178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
         <v>0x02,</v>
       </c>
       <c r="X179" s="4" t="str">
-        <f t="shared" ref="X179" si="63">"0x"&amp;DEC2HEX((SUMIF(X171:X178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
+        <f t="shared" ref="X179" si="67">"0x"&amp;DEC2HEX((SUMIF(X171:X178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
         <v>0x04,</v>
       </c>
       <c r="Y179" s="4" t="str">
-        <f t="shared" ref="Y179" si="64">"0x"&amp;DEC2HEX((SUMIF(Y171:Y178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
+        <f t="shared" ref="Y179" si="68">"0x"&amp;DEC2HEX((SUMIF(Y171:Y178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
         <v>0x04,</v>
       </c>
       <c r="Z179" s="4" t="str">
-        <f t="shared" ref="Z179" si="65">"0x"&amp;DEC2HEX((SUMIF(Z171:Z178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
+        <f t="shared" ref="Z179" si="69">"0x"&amp;DEC2HEX((SUMIF(Z171:Z178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
         <v>0x04,</v>
       </c>
       <c r="AA179" s="4" t="str">
-        <f t="shared" ref="AA179" si="66">"0x"&amp;DEC2HEX((SUMIF(AA171:AA178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
+        <f t="shared" ref="AA179" si="70">"0x"&amp;DEC2HEX((SUMIF(AA171:AA178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
         <v>0x14,</v>
       </c>
       <c r="AB179" s="4" t="str">
-        <f t="shared" ref="AB179" si="67">"0x"&amp;DEC2HEX((SUMIF(AB171:AB178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
+        <f t="shared" ref="AB179" si="71">"0x"&amp;DEC2HEX((SUMIF(AB171:AB178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
         <v>0x04,</v>
       </c>
       <c r="AC179" s="4" t="str">
-        <f t="shared" ref="AC179" si="68">"0x"&amp;DEC2HEX((SUMIF(AC171:AC178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
+        <f t="shared" ref="AC179" si="72">"0x"&amp;DEC2HEX((SUMIF(AC171:AC178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
         <v>0x04,</v>
       </c>
       <c r="AD179" s="4" t="str">
-        <f t="shared" ref="AD179" si="69">"0x"&amp;DEC2HEX((SUMIF(AD171:AD178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
+        <f t="shared" ref="AD179" si="73">"0x"&amp;DEC2HEX((SUMIF(AD171:AD178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
         <v>0x04,</v>
       </c>
       <c r="AE179" s="4" t="str">
-        <f t="shared" ref="AE179" si="70">"0x"&amp;DEC2HEX((SUMIF(AE171:AE178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
+        <f t="shared" ref="AE179" si="74">"0x"&amp;DEC2HEX((SUMIF(AE171:AE178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
         <v>0x44,</v>
       </c>
       <c r="AF179" s="4" t="str">
-        <f t="shared" ref="AF179" si="71">"0x"&amp;DEC2HEX((SUMIF(AF171:AF178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
+        <f t="shared" ref="AF179" si="75">"0x"&amp;DEC2HEX((SUMIF(AF171:AF178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
         <v>0x44,</v>
       </c>
       <c r="AG179" s="4" t="str">
-        <f t="shared" ref="AG179" si="72">"0x"&amp;DEC2HEX((SUMIF(AG171:AG178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
+        <f t="shared" ref="AG179" si="76">"0x"&amp;DEC2HEX((SUMIF(AG171:AG178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
         <v>0x04,</v>
       </c>
       <c r="AH179" s="4" t="str">
-        <f t="shared" ref="AH179:AI179" si="73">"0x"&amp;DEC2HEX((SUMIF(AH171:AH178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
+        <f t="shared" ref="AH179:AI179" si="77">"0x"&amp;DEC2HEX((SUMIF(AH171:AH178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
         <v>0x04,</v>
       </c>
       <c r="AI179" s="4" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>0x04,</v>
       </c>
     </row>
@@ -16867,131 +18725,131 @@
     </row>
     <row r="191" spans="1:35" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D191" s="4" t="str">
-        <f t="shared" ref="D191" si="74">"0x"&amp;DEC2HEX((SUMIF(D183:D190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
+        <f t="shared" ref="D191" si="78">"0x"&amp;DEC2HEX((SUMIF(D183:D190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
         <v>0x84,</v>
       </c>
       <c r="E191" s="4" t="str">
-        <f t="shared" ref="E191" si="75">"0x"&amp;DEC2HEX((SUMIF(E183:E190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
+        <f t="shared" ref="E191" si="79">"0x"&amp;DEC2HEX((SUMIF(E183:E190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
         <v>0x84,</v>
       </c>
       <c r="F191" s="4" t="str">
-        <f t="shared" ref="F191" si="76">"0x"&amp;DEC2HEX((SUMIF(F183:F190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
+        <f t="shared" ref="F191" si="80">"0x"&amp;DEC2HEX((SUMIF(F183:F190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
         <v>0x04,</v>
       </c>
       <c r="G191" s="4" t="str">
-        <f t="shared" ref="G191" si="77">"0x"&amp;DEC2HEX((SUMIF(G183:G190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
+        <f t="shared" ref="G191" si="81">"0x"&amp;DEC2HEX((SUMIF(G183:G190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
         <v>0x04,</v>
       </c>
       <c r="H191" s="4" t="str">
-        <f t="shared" ref="H191" si="78">"0x"&amp;DEC2HEX((SUMIF(H183:H190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
+        <f t="shared" ref="H191" si="82">"0x"&amp;DEC2HEX((SUMIF(H183:H190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
         <v>0x04,</v>
       </c>
       <c r="I191" s="4" t="str">
-        <f t="shared" ref="I191" si="79">"0x"&amp;DEC2HEX((SUMIF(I183:I190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
+        <f t="shared" ref="I191" si="83">"0x"&amp;DEC2HEX((SUMIF(I183:I190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
         <v>0x14,</v>
       </c>
       <c r="J191" s="4" t="str">
-        <f t="shared" ref="J191" si="80">"0x"&amp;DEC2HEX((SUMIF(J183:J190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
+        <f t="shared" ref="J191" si="84">"0x"&amp;DEC2HEX((SUMIF(J183:J190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
         <v>0x04,</v>
       </c>
       <c r="K191" s="4" t="str">
-        <f t="shared" ref="K191" si="81">"0x"&amp;DEC2HEX((SUMIF(K183:K190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
+        <f t="shared" ref="K191" si="85">"0x"&amp;DEC2HEX((SUMIF(K183:K190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
         <v>0x14,</v>
       </c>
       <c r="L191" s="4" t="str">
-        <f t="shared" ref="L191" si="82">"0x"&amp;DEC2HEX((SUMIF(L183:L190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
+        <f t="shared" ref="L191" si="86">"0x"&amp;DEC2HEX((SUMIF(L183:L190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
         <v>0x04,</v>
       </c>
       <c r="M191" s="4" t="str">
-        <f t="shared" ref="M191" si="83">"0x"&amp;DEC2HEX((SUMIF(M183:M190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
+        <f t="shared" ref="M191" si="87">"0x"&amp;DEC2HEX((SUMIF(M183:M190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
         <v>0x44,</v>
       </c>
       <c r="N191" s="4" t="str">
-        <f t="shared" ref="N191" si="84">"0x"&amp;DEC2HEX((SUMIF(N183:N190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
+        <f t="shared" ref="N191" si="88">"0x"&amp;DEC2HEX((SUMIF(N183:N190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
         <v>0x04,</v>
       </c>
       <c r="O191" s="4" t="str">
-        <f t="shared" ref="O191" si="85">"0x"&amp;DEC2HEX((SUMIF(O183:O190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
+        <f t="shared" ref="O191" si="89">"0x"&amp;DEC2HEX((SUMIF(O183:O190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
         <v>0x04,</v>
       </c>
       <c r="P191" s="4" t="str">
-        <f t="shared" ref="P191" si="86">"0x"&amp;DEC2HEX((SUMIF(P183:P190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
+        <f t="shared" ref="P191" si="90">"0x"&amp;DEC2HEX((SUMIF(P183:P190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
         <v>0x08,</v>
       </c>
       <c r="Q191" s="4" t="str">
-        <f t="shared" ref="Q191" si="87">"0x"&amp;DEC2HEX((SUMIF(Q183:Q190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
+        <f t="shared" ref="Q191" si="91">"0x"&amp;DEC2HEX((SUMIF(Q183:Q190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
         <v>0x08,</v>
       </c>
       <c r="R191" s="4" t="str">
-        <f t="shared" ref="R191" si="88">"0x"&amp;DEC2HEX((SUMIF(R183:R190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
+        <f t="shared" ref="R191" si="92">"0x"&amp;DEC2HEX((SUMIF(R183:R190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
         <v>0x90,</v>
       </c>
       <c r="S191" s="4" t="str">
-        <f t="shared" ref="S191" si="89">"0x"&amp;DEC2HEX((SUMIF(S183:S190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
+        <f t="shared" ref="S191" si="93">"0x"&amp;DEC2HEX((SUMIF(S183:S190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
         <v>0x90,</v>
       </c>
       <c r="T191" s="4" t="str">
-        <f t="shared" ref="T191" si="90">"0x"&amp;DEC2HEX((SUMIF(T183:T190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
+        <f t="shared" ref="T191" si="94">"0x"&amp;DEC2HEX((SUMIF(T183:T190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
         <v>0x10,</v>
       </c>
       <c r="U191" s="4" t="str">
-        <f t="shared" ref="U191" si="91">"0x"&amp;DEC2HEX((SUMIF(U183:U190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
+        <f t="shared" ref="U191" si="95">"0x"&amp;DEC2HEX((SUMIF(U183:U190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
         <v>0x10,</v>
       </c>
       <c r="V191" s="4" t="str">
-        <f t="shared" ref="V191" si="92">"0x"&amp;DEC2HEX((SUMIF(V183:V190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
+        <f t="shared" ref="V191" si="96">"0x"&amp;DEC2HEX((SUMIF(V183:V190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
         <v>0x10,</v>
       </c>
       <c r="W191" s="4" t="str">
-        <f t="shared" ref="W191" si="93">"0x"&amp;DEC2HEX((SUMIF(W183:W190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
+        <f t="shared" ref="W191" si="97">"0x"&amp;DEC2HEX((SUMIF(W183:W190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
         <v>0x08,</v>
       </c>
       <c r="X191" s="4" t="str">
-        <f t="shared" ref="X191" si="94">"0x"&amp;DEC2HEX((SUMIF(X183:X190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
+        <f t="shared" ref="X191" si="98">"0x"&amp;DEC2HEX((SUMIF(X183:X190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
         <v>0x08,</v>
       </c>
       <c r="Y191" s="4" t="str">
-        <f t="shared" ref="Y191" si="95">"0x"&amp;DEC2HEX((SUMIF(Y183:Y190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
+        <f t="shared" ref="Y191" si="99">"0x"&amp;DEC2HEX((SUMIF(Y183:Y190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
         <v>0x04,</v>
       </c>
       <c r="Z191" s="4" t="str">
-        <f t="shared" ref="Z191" si="96">"0x"&amp;DEC2HEX((SUMIF(Z183:Z190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
+        <f t="shared" ref="Z191" si="100">"0x"&amp;DEC2HEX((SUMIF(Z183:Z190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
         <v>0x44,</v>
       </c>
       <c r="AA191" s="4" t="str">
-        <f t="shared" ref="AA191" si="97">"0x"&amp;DEC2HEX((SUMIF(AA183:AA190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
+        <f t="shared" ref="AA191" si="101">"0x"&amp;DEC2HEX((SUMIF(AA183:AA190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
         <v>0x44,</v>
       </c>
       <c r="AB191" s="4" t="str">
-        <f t="shared" ref="AB191" si="98">"0x"&amp;DEC2HEX((SUMIF(AB183:AB190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
+        <f t="shared" ref="AB191" si="102">"0x"&amp;DEC2HEX((SUMIF(AB183:AB190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
         <v>0x04,</v>
       </c>
       <c r="AC191" s="4" t="str">
-        <f t="shared" ref="AC191" si="99">"0x"&amp;DEC2HEX((SUMIF(AC183:AC190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
+        <f t="shared" ref="AC191" si="103">"0x"&amp;DEC2HEX((SUMIF(AC183:AC190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
         <v>0x04,</v>
       </c>
       <c r="AD191" s="4" t="str">
-        <f t="shared" ref="AD191" si="100">"0x"&amp;DEC2HEX((SUMIF(AD183:AD190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
+        <f t="shared" ref="AD191" si="104">"0x"&amp;DEC2HEX((SUMIF(AD183:AD190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
         <v>0x04,</v>
       </c>
       <c r="AE191" s="4" t="str">
-        <f t="shared" ref="AE191" si="101">"0x"&amp;DEC2HEX((SUMIF(AE183:AE190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
+        <f t="shared" ref="AE191" si="105">"0x"&amp;DEC2HEX((SUMIF(AE183:AE190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
         <v>0x14,</v>
       </c>
       <c r="AF191" s="4" t="str">
-        <f t="shared" ref="AF191" si="102">"0x"&amp;DEC2HEX((SUMIF(AF183:AF190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
+        <f t="shared" ref="AF191" si="106">"0x"&amp;DEC2HEX((SUMIF(AF183:AF190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
         <v>0x04,</v>
       </c>
       <c r="AG191" s="4" t="str">
-        <f t="shared" ref="AG191" si="103">"0x"&amp;DEC2HEX((SUMIF(AG183:AG190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
+        <f t="shared" ref="AG191" si="107">"0x"&amp;DEC2HEX((SUMIF(AG183:AG190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
         <v>0x24,</v>
       </c>
       <c r="AH191" s="4" t="str">
-        <f t="shared" ref="AH191" si="104">"0x"&amp;DEC2HEX((SUMIF(AH183:AH190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
+        <f t="shared" ref="AH191" si="108">"0x"&amp;DEC2HEX((SUMIF(AH183:AH190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
         <v>0x04,</v>
       </c>
       <c r="AI191" s="4" t="str">
-        <f t="shared" ref="AI191" si="105">"0x"&amp;DEC2HEX((SUMIF(AI183:AI190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
+        <f t="shared" ref="AI191" si="109">"0x"&amp;DEC2HEX((SUMIF(AI183:AI190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
         <v>0x04,</v>
       </c>
     </row>

--- a/Artwork/Artwork.xlsx
+++ b/Artwork/Artwork.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -45,7 +45,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -133,6 +133,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF1F4E78"/>
+      <name val="Wingdings 2"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -160,7 +176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -206,6 +222,54 @@
       </top>
       <bottom style="thin">
         <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -340,7 +404,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -382,6 +446,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="128">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -788,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:CL419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I51" workbookViewId="0">
-      <selection activeCell="CP94" sqref="CP94"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="N153" sqref="D151:N153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1812,99 +1888,143 @@
       <c r="C10" s="14">
         <v>8</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="R10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="S10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
       <c r="X10" s="14">
         <v>8</v>
       </c>
-      <c r="AH10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="Y10" s="18"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AD10" s="18"/>
+      <c r="AE10" s="18"/>
+      <c r="AF10" s="18"/>
+      <c r="AG10" s="18"/>
+      <c r="AH10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="18"/>
+      <c r="AP10" s="18"/>
       <c r="AS10" s="14">
         <v>8</v>
       </c>
-      <c r="BC10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI10" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="AT10" s="18"/>
+      <c r="AU10" s="18"/>
+      <c r="AV10" s="18"/>
+      <c r="AW10" s="18"/>
+      <c r="AX10" s="18"/>
+      <c r="AY10" s="18"/>
+      <c r="AZ10" s="18"/>
+      <c r="BA10" s="18"/>
+      <c r="BB10" s="18"/>
+      <c r="BC10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="18"/>
+      <c r="BK10" s="18"/>
       <c r="BN10" s="14">
         <v>8</v>
       </c>
-      <c r="BX10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CC10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD10" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="BO10" s="18"/>
+      <c r="BP10" s="18"/>
+      <c r="BQ10" s="18"/>
+      <c r="BR10" s="18"/>
+      <c r="BS10" s="18"/>
+      <c r="BT10" s="18"/>
+      <c r="BU10" s="18"/>
+      <c r="BV10" s="18"/>
+      <c r="BW10" s="18"/>
+      <c r="BX10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD10" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE10" s="18"/>
+      <c r="CF10" s="18"/>
     </row>
     <row r="11" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -1913,85 +2033,85 @@
       <c r="C11" s="14">
         <v>9</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3" t="s">
+      <c r="D11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" s="17" t="s">
         <v>0</v>
       </c>
       <c r="X11" s="14">
         <v>9</v>
       </c>
-      <c r="Y11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="3" t="s">
+      <c r="Y11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="17" t="s">
         <v>0</v>
       </c>
       <c r="AS11" s="14">
         <v>9</v>
       </c>
-      <c r="AT11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF11" s="3" t="s">
+      <c r="AT11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF11" s="17" t="s">
         <v>0</v>
       </c>
       <c r="BN11" s="14">
         <v>9</v>
       </c>
-      <c r="BO11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA11" s="3" t="s">
+      <c r="BO11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ11" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA11" s="17" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2908,123 +3028,159 @@
       <c r="C18" s="14">
         <v>16</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
       <c r="X18" s="14">
         <v>16</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="18"/>
+      <c r="AK18" s="18"/>
+      <c r="AL18" s="18"/>
+      <c r="AM18" s="18"/>
+      <c r="AN18" s="18"/>
+      <c r="AO18" s="18"/>
+      <c r="AP18" s="18"/>
       <c r="AS18" s="14">
         <v>16</v>
       </c>
-      <c r="AV18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD18" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="AT18" s="18"/>
+      <c r="AU18" s="18"/>
+      <c r="AV18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE18" s="18"/>
+      <c r="BF18" s="18"/>
+      <c r="BG18" s="18"/>
+      <c r="BH18" s="18"/>
+      <c r="BI18" s="18"/>
+      <c r="BJ18" s="18"/>
+      <c r="BK18" s="18"/>
       <c r="BN18" s="14">
         <v>16</v>
       </c>
-      <c r="BQ18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY18" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="BO18" s="18"/>
+      <c r="BP18" s="18"/>
+      <c r="BQ18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY18" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ18" s="18"/>
+      <c r="CA18" s="18"/>
+      <c r="CB18" s="18"/>
+      <c r="CC18" s="18"/>
+      <c r="CD18" s="18"/>
+      <c r="CE18" s="18"/>
+      <c r="CF18" s="18"/>
     </row>
     <row r="19" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -3033,97 +3189,97 @@
       <c r="C19" s="14">
         <v>17</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M19" s="3" t="s">
+      <c r="G19" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19" s="17" t="s">
         <v>0</v>
       </c>
       <c r="X19" s="14">
         <v>17</v>
       </c>
-      <c r="AB19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="3" t="s">
+      <c r="AB19" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="17" t="s">
         <v>0</v>
       </c>
       <c r="AS19" s="14">
         <v>17</v>
       </c>
-      <c r="AW19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC19" s="3" t="s">
+      <c r="AW19" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="17" t="s">
         <v>0</v>
       </c>
       <c r="BN19" s="14">
         <v>17</v>
       </c>
-      <c r="BR19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX19" s="3" t="s">
+      <c r="BR19" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS19" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT19" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU19" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV19" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW19" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX19" s="17" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5143,75 +5299,108 @@
       <c r="C40" s="14">
         <v>8</v>
       </c>
-      <c r="M40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="S40" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="N40" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="O40" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P40" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="R40" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="S40" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="T40" s="18"/>
+      <c r="U40" s="18"/>
       <c r="X40" s="14">
         <v>8</v>
       </c>
-      <c r="AH40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN40" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="Y40" s="18"/>
+      <c r="Z40" s="18"/>
+      <c r="AA40" s="18"/>
+      <c r="AB40" s="18"/>
+      <c r="AC40" s="18"/>
+      <c r="AD40" s="18"/>
+      <c r="AE40" s="18"/>
+      <c r="AF40" s="18"/>
+      <c r="AG40" s="18"/>
+      <c r="AH40" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN40" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO40" s="18"/>
+      <c r="AP40" s="18"/>
       <c r="AS40" s="14">
         <v>8</v>
       </c>
-      <c r="BC40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI40" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="AT40" s="18"/>
+      <c r="AU40" s="18"/>
+      <c r="AV40" s="18"/>
+      <c r="AW40" s="18"/>
+      <c r="AX40" s="18"/>
+      <c r="AY40" s="18"/>
+      <c r="AZ40" s="18"/>
+      <c r="BA40" s="18"/>
+      <c r="BB40" s="18"/>
+      <c r="BC40" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD40" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE40" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF40" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG40" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH40" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI40" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ40" s="18"/>
+      <c r="BK40" s="18"/>
     </row>
     <row r="41" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
@@ -5220,64 +5409,64 @@
       <c r="C41" s="14">
         <v>9</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3" t="s">
+      <c r="D41" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="L41" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M41" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="N41" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="O41" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="P41" s="17" t="s">
         <v>0</v>
       </c>
       <c r="X41" s="14">
         <v>9</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG41" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH41" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI41" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ41" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK41" s="3" t="s">
+      <c r="Y41" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="17" t="s">
         <v>0</v>
       </c>
       <c r="AS41" s="14">
         <v>9</v>
       </c>
-      <c r="AT41" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB41" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC41" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD41" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE41" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF41" s="3" t="s">
+      <c r="AT41" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB41" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC41" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD41" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE41" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF41" s="17" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5975,93 +6164,120 @@
       <c r="C48" s="14">
         <v>16</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J48" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K48" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="L48" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="M48" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="N48" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="O48" s="18"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="18"/>
+      <c r="R48" s="18"/>
+      <c r="S48" s="18"/>
+      <c r="T48" s="18"/>
+      <c r="U48" s="18"/>
       <c r="X48" s="14">
         <v>16</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI48" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="Y48" s="18"/>
+      <c r="Z48" s="18"/>
+      <c r="AA48" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="18"/>
+      <c r="AK48" s="18"/>
+      <c r="AL48" s="18"/>
+      <c r="AM48" s="18"/>
+      <c r="AN48" s="18"/>
+      <c r="AO48" s="18"/>
+      <c r="AP48" s="18"/>
       <c r="AS48" s="14">
         <v>16</v>
       </c>
-      <c r="AV48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC48" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD48" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="AT48" s="18"/>
+      <c r="AU48" s="18"/>
+      <c r="AV48" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW48" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX48" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY48" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ48" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA48" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB48" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC48" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD48" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE48" s="18"/>
+      <c r="BF48" s="18"/>
+      <c r="BG48" s="18"/>
+      <c r="BH48" s="18"/>
+      <c r="BI48" s="18"/>
+      <c r="BJ48" s="18"/>
+      <c r="BK48" s="18"/>
     </row>
     <row r="49" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
@@ -6070,73 +6286,73 @@
       <c r="C49" s="14">
         <v>17</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3" t="s">
+      <c r="G49" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H49" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I49" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J49" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K49" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="L49" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M49" s="17" t="s">
         <v>0</v>
       </c>
       <c r="X49" s="14">
         <v>17</v>
       </c>
-      <c r="AB49" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD49" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE49" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF49" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG49" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH49" s="3" t="s">
+      <c r="AB49" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="17" t="s">
         <v>0</v>
       </c>
       <c r="AS49" s="14">
         <v>17</v>
       </c>
-      <c r="AW49" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX49" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY49" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ49" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA49" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB49" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC49" s="3" t="s">
+      <c r="AW49" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX49" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY49" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ49" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA49" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB49" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC49" s="17" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8433,185 +8649,202 @@
       <c r="C70" s="14">
         <v>8</v>
       </c>
-      <c r="I70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="S70" s="3"/>
-      <c r="U70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="X70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA70" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J70" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K70" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="L70" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="M70" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="N70" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="O70" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P70" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="R70" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="S70" s="19"/>
+      <c r="T70" s="18"/>
+      <c r="U70" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="V70" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="W70" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="X70" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="18"/>
+      <c r="AC70" s="18"/>
       <c r="AH70" s="14">
         <v>8</v>
       </c>
-      <c r="AN70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX70" s="3"/>
-      <c r="AZ70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF70" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="AI70" s="18"/>
+      <c r="AJ70" s="18"/>
+      <c r="AK70" s="18"/>
+      <c r="AL70" s="18"/>
+      <c r="AM70" s="18"/>
+      <c r="AN70" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO70" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP70" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ70" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR70" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS70" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT70" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU70" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV70" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW70" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX70" s="19"/>
+      <c r="AY70" s="18"/>
+      <c r="AZ70" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA70" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB70" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC70" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD70" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE70" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF70" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG70" s="18"/>
+      <c r="BH70" s="18"/>
       <c r="BL70" s="14">
         <v>8</v>
       </c>
-      <c r="BN70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CC70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CF70" s="3"/>
-      <c r="CG70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH70" s="3"/>
-      <c r="CI70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL70" s="3" t="s">
+      <c r="BM70" s="20"/>
+      <c r="BN70" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO70" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP70" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ70" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR70" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS70" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT70" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU70" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV70" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW70" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX70" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY70" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ70" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA70" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB70" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC70" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD70" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE70" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF70" s="21"/>
+      <c r="CG70" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH70" s="21"/>
+      <c r="CI70" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ70" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK70" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL70" s="21" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8622,52 +8855,52 @@
       <c r="C71" s="14">
         <v>9</v>
       </c>
-      <c r="J71" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M71" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N71" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O71" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="3" t="s">
+      <c r="J71" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K71" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="L71" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M71" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="N71" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="O71" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="17" t="s">
         <v>0</v>
       </c>
       <c r="AH71" s="14">
         <v>9</v>
       </c>
-      <c r="AO71" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP71" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ71" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR71" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS71" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT71" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV71" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW71" s="3"/>
+      <c r="AO71" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP71" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ71" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR71" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS71" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT71" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV71" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW71" s="17"/>
       <c r="BL71" s="14">
         <v>9</v>
       </c>
@@ -11212,189 +11445,206 @@
       <c r="C91" s="14">
         <v>8</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3"/>
-      <c r="U91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="X91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA91" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="L91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="M91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="N91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="O91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="R91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="S91" s="19"/>
+      <c r="T91" s="18"/>
+      <c r="U91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="V91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="W91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="X91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="18"/>
+      <c r="AC91" s="18"/>
       <c r="AH91" s="14">
         <v>8</v>
       </c>
-      <c r="AN91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX91" s="3"/>
-      <c r="AZ91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BF91" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="AI91" s="18"/>
+      <c r="AJ91" s="18"/>
+      <c r="AK91" s="18"/>
+      <c r="AL91" s="18"/>
+      <c r="AM91" s="18"/>
+      <c r="AN91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX91" s="19"/>
+      <c r="AY91" s="18"/>
+      <c r="AZ91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG91" s="18"/>
+      <c r="BH91" s="18"/>
       <c r="BL91" s="14">
         <v>8</v>
       </c>
-      <c r="BN91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CC91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CF91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CI91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK91" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL91" s="3" t="s">
+      <c r="BM91" s="22"/>
+      <c r="BN91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK91" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL91" s="19" t="s">
         <v>0</v>
       </c>
     </row>
@@ -11405,125 +11655,125 @@
       <c r="C92" s="14">
         <v>9</v>
       </c>
-      <c r="J92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q92" s="3" t="s">
+      <c r="J92" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="K92" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="L92" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M92" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="N92" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="O92" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="17" t="s">
         <v>0</v>
       </c>
       <c r="AH92" s="14">
         <v>9</v>
       </c>
-      <c r="AO92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AP92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW92" s="3"/>
+      <c r="AO92" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP92" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ92" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR92" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS92" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT92" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV92" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW92" s="17"/>
       <c r="BL92" s="14">
         <v>9</v>
       </c>
-      <c r="BO92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CC92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CF92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CI92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK92" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL92" s="3" t="s">
+      <c r="BO92" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP92" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ92" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR92" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS92" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT92" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU92" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV92" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW92" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX92" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY92" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ92" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA92" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB92" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC92" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD92" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE92" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF92" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG92" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH92" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI92" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ92" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK92" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL92" s="17" t="s">
         <v>0</v>
       </c>
     </row>
@@ -13079,98 +13329,112 @@
       <c r="C112" s="14">
         <v>8</v>
       </c>
-      <c r="K112" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L112" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M112" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N112" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O112" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P112" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q112" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R112" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="S112" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T112" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="U112" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V112" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W112" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="X112" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y112" s="3" t="s">
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
+      <c r="I112" s="18"/>
+      <c r="J112" s="18"/>
+      <c r="K112" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="L112" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="M112" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="N112" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="O112" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P112" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="R112" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="S112" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="T112" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="U112" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="V112" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="W112" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="X112" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y112" s="19" t="s">
         <v>0</v>
       </c>
       <c r="AB112" s="3"/>
       <c r="AH112" s="14">
         <v>8</v>
       </c>
-      <c r="AP112" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AQ112" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR112" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS112" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT112" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU112" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV112" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW112" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX112" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY112" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ112" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA112" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB112" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC112" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD112" s="3" t="s">
+      <c r="AI112" s="18"/>
+      <c r="AJ112" s="18"/>
+      <c r="AK112" s="18"/>
+      <c r="AL112" s="18"/>
+      <c r="AM112" s="18"/>
+      <c r="AN112" s="18"/>
+      <c r="AO112" s="18"/>
+      <c r="AP112" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ112" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR112" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS112" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT112" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU112" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV112" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW112" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX112" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY112" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ112" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA112" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB112" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC112" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD112" s="19" t="s">
         <v>0</v>
       </c>
     </row>
@@ -13181,82 +13445,82 @@
       <c r="C113" s="14">
         <v>9</v>
       </c>
-      <c r="L113" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M113" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N113" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O113" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P113" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q113" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R113" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="S113" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T113" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="U113" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V113" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W113" s="3"/>
-      <c r="X113" s="3"/>
-      <c r="Y113" s="3"/>
+      <c r="L113" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M113" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="N113" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="O113" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="P113" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="R113" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="S113" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="T113" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="U113" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="V113" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="W113" s="17"/>
+      <c r="X113" s="17"/>
+      <c r="Y113" s="17"/>
       <c r="AB113" s="3"/>
       <c r="AH113" s="14">
         <v>9</v>
       </c>
-      <c r="AQ113" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR113" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AS113" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AT113" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU113" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV113" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW113" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX113" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY113" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ113" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA113" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB113" s="3"/>
-      <c r="BC113" s="3"/>
-      <c r="BD113" s="3"/>
+      <c r="AQ113" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR113" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS113" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT113" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU113" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV113" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW113" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX113" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY113" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ113" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA113" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB113" s="17"/>
+      <c r="BC113" s="17"/>
+      <c r="BD113" s="17"/>
     </row>
     <row r="114" spans="1:80" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
@@ -14125,6 +14389,9 @@
       <c r="C127" s="14">
         <v>1</v>
       </c>
+      <c r="I127" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="R127" s="14">
         <v>1</v>
       </c>
@@ -14145,6 +14412,15 @@
       <c r="C128" s="14">
         <v>2</v>
       </c>
+      <c r="H128" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="R128" s="14">
         <v>2</v>
       </c>
@@ -14177,7 +14453,16 @@
       <c r="C129" s="14">
         <v>3</v>
       </c>
+      <c r="H129" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="I129" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M129" s="3" t="s">
         <v>0</v>
       </c>
       <c r="R129" s="14">
@@ -14236,6 +14521,15 @@
       <c r="J130" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="L130" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M130" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N130" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="R130" s="14">
         <v>4</v>
       </c>
@@ -14313,7 +14607,13 @@
       <c r="J131" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="L131" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="M131" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N131" s="3" t="s">
         <v>0</v>
       </c>
       <c r="R131" s="14">
@@ -14390,22 +14690,29 @@
       <c r="C132" s="14">
         <v>6</v>
       </c>
-      <c r="H132" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I132" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J132" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L132" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M132" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N132" s="3" t="s">
+      <c r="D132" s="18"/>
+      <c r="E132" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F132" s="18"/>
+      <c r="G132" s="18"/>
+      <c r="H132" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I132" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J132" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K132" s="18"/>
+      <c r="L132" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="M132" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="N132" s="19" t="s">
         <v>0</v>
       </c>
       <c r="R132" s="14">
@@ -14494,22 +14801,31 @@
       <c r="C133" s="14">
         <v>7</v>
       </c>
-      <c r="H133" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I133" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J133" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L133" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M133" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N133" s="3" t="s">
+      <c r="D133" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E133" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F133" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="H133" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I133" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J133" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="L133" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="M133" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="N133" s="17" t="s">
         <v>0</v>
       </c>
       <c r="R133" s="14">
@@ -14609,9 +14925,15 @@
       <c r="C134" s="14">
         <v>8</v>
       </c>
+      <c r="D134" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="E134" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="F134" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="H134" s="3" t="s">
         <v>0</v>
       </c>
@@ -14621,6 +14943,7 @@
       <c r="J134" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="K134" s="3"/>
       <c r="L134" s="3" t="s">
         <v>0</v>
       </c>
@@ -14633,114 +14956,135 @@
       <c r="R134" s="14">
         <v>8</v>
       </c>
-      <c r="T134" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W134" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="X134" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y134" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA134" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB134" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC134" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE134" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF134" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG134" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH134" s="3"/>
-      <c r="AI134" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ134" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK134" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM134" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN134" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO134" s="3" t="s">
+      <c r="S134" s="18"/>
+      <c r="T134" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="U134" s="18"/>
+      <c r="V134" s="18"/>
+      <c r="W134" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="X134" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y134" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z134" s="18"/>
+      <c r="AA134" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB134" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC134" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD134" s="18"/>
+      <c r="AE134" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF134" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG134" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH134" s="19"/>
+      <c r="AI134" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ134" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK134" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL134" s="18"/>
+      <c r="AM134" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN134" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO134" s="19" t="s">
         <v>0</v>
       </c>
       <c r="AS134" s="14">
         <v>8</v>
       </c>
-      <c r="AT134" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU134" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV134" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW134" s="3"/>
-      <c r="AX134" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY134" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ134" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB134" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC134" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD134" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ134" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK134" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL134" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS134" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV134" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW134" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX134" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ134" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA134" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB134" s="3" t="s">
+      <c r="AT134" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU134" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV134" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW134" s="19"/>
+      <c r="AX134" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY134" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ134" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA134" s="18"/>
+      <c r="BB134" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC134" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD134" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE134" s="18"/>
+      <c r="BF134" s="18"/>
+      <c r="BG134" s="18"/>
+      <c r="BH134" s="18"/>
+      <c r="BI134" s="18"/>
+      <c r="BJ134" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK134" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL134" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM134" s="18"/>
+      <c r="BN134" s="18"/>
+      <c r="BO134" s="18"/>
+      <c r="BP134" s="18"/>
+      <c r="BQ134" s="18"/>
+      <c r="BR134" s="18"/>
+      <c r="BS134" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT134" s="18"/>
+      <c r="BU134" s="18"/>
+      <c r="BV134" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW134" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX134" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY134" s="18"/>
+      <c r="BZ134" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA134" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB134" s="19" t="s">
         <v>0</v>
       </c>
     </row>
@@ -14769,6 +15113,9 @@
       <c r="J135" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="K135" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="L135" s="3" t="s">
         <v>0</v>
       </c>
@@ -14781,130 +15128,130 @@
       <c r="R135" s="14">
         <v>9</v>
       </c>
-      <c r="S135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="U135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="X135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO135" s="3" t="s">
+      <c r="S135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="T135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="U135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="W135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="X135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AM135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO135" s="17" t="s">
         <v>0</v>
       </c>
       <c r="AS135" s="14">
         <v>9</v>
       </c>
-      <c r="AT135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AV135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AW135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AX135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BC135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB135" s="3" t="s">
+      <c r="AT135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB135" s="17" t="s">
         <v>0</v>
       </c>
     </row>
@@ -14924,6 +15271,7 @@
       <c r="F136" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="G136" s="3"/>
       <c r="H136" s="3" t="s">
         <v>0</v>
       </c>
@@ -14933,16 +15281,16 @@
       <c r="J136" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K136" s="3"/>
+      <c r="K136" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="L136" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M136" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N136" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="N136" s="3"/>
       <c r="R136" s="14">
         <v>10</v>
       </c>
@@ -15088,6 +15436,7 @@
       <c r="F137" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="G137" s="3"/>
       <c r="H137" s="3" t="s">
         <v>0</v>
       </c>
@@ -15101,12 +15450,6 @@
         <v>0</v>
       </c>
       <c r="L137" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M137" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N137" s="3" t="s">
         <v>0</v>
       </c>
       <c r="R137" s="14">
@@ -15261,7 +15604,9 @@
       <c r="F138" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G138" s="3"/>
+      <c r="G138" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="H138" s="3" t="s">
         <v>0</v>
       </c>
@@ -15271,16 +15616,6 @@
       <c r="J138" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K138" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L138" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M138" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N138" s="3"/>
       <c r="R138" s="14">
         <v>12</v>
       </c>
@@ -15427,16 +15762,15 @@
       <c r="C139" s="14">
         <v>13</v>
       </c>
-      <c r="D139" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="E139" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G139" s="3"/>
+      <c r="G139" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="H139" s="3" t="s">
         <v>0</v>
       </c>
@@ -15444,12 +15778,6 @@
         <v>0</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K139" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L139" s="3" t="s">
         <v>0</v>
       </c>
       <c r="R139" s="14">
@@ -15592,27 +15920,27 @@
       <c r="C140" s="14">
         <v>14</v>
       </c>
-      <c r="D140" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H140" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I140" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J140" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="D140" s="18"/>
+      <c r="E140" s="18"/>
+      <c r="F140" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="G140" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="H140" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I140" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="J140" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="K140" s="18"/>
+      <c r="L140" s="18"/>
+      <c r="M140" s="18"/>
+      <c r="N140" s="18"/>
       <c r="R140" s="14">
         <v>14</v>
       </c>
@@ -15741,22 +16069,13 @@
       <c r="C141" s="14">
         <v>15</v>
       </c>
-      <c r="E141" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G141" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H141" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I141" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J141" s="3" t="s">
+      <c r="H141" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I141" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="J141" s="17" t="s">
         <v>0</v>
       </c>
       <c r="R141" s="14">
@@ -15871,12 +16190,6 @@
       <c r="C142" s="14">
         <v>16</v>
       </c>
-      <c r="F142" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G142" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="H142" s="3" t="s">
         <v>0</v>
       </c>
@@ -15889,89 +16202,119 @@
       <c r="R142" s="14">
         <v>16</v>
       </c>
-      <c r="U142" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V142" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W142" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="X142" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y142" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI142" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ142" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK142" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="S142" s="18"/>
+      <c r="T142" s="18"/>
+      <c r="U142" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="V142" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="W142" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="X142" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y142" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z142" s="18"/>
+      <c r="AA142" s="18"/>
+      <c r="AB142" s="18"/>
+      <c r="AC142" s="18"/>
+      <c r="AD142" s="18"/>
+      <c r="AE142" s="18"/>
+      <c r="AF142" s="18"/>
+      <c r="AG142" s="18"/>
+      <c r="AH142" s="18"/>
+      <c r="AI142" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ142" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK142" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL142" s="18"/>
+      <c r="AM142" s="18"/>
+      <c r="AN142" s="18"/>
+      <c r="AO142" s="18"/>
       <c r="AS142" s="14">
         <v>16</v>
       </c>
-      <c r="AX142" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY142" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ142" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE142" s="3"/>
-      <c r="BF142" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG142" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH142" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI142" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ142" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK142" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL142" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BM142" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN142" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BO142" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP142" s="3"/>
-      <c r="BT142" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU142" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV142" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW142" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX142" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="AT142" s="18"/>
+      <c r="AU142" s="18"/>
+      <c r="AV142" s="18"/>
+      <c r="AW142" s="18"/>
+      <c r="AX142" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY142" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ142" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA142" s="18"/>
+      <c r="BB142" s="18"/>
+      <c r="BC142" s="18"/>
+      <c r="BD142" s="18"/>
+      <c r="BE142" s="19"/>
+      <c r="BF142" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG142" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH142" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI142" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ142" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK142" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL142" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM142" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN142" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO142" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP142" s="19"/>
+      <c r="BQ142" s="18"/>
+      <c r="BR142" s="18"/>
+      <c r="BS142" s="18"/>
+      <c r="BT142" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU142" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV142" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW142" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX142" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY142" s="18"/>
+      <c r="BZ142" s="18"/>
+      <c r="CA142" s="18"/>
+      <c r="CB142" s="18"/>
     </row>
     <row r="143" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
@@ -15992,67 +16335,67 @@
       <c r="R143" s="14">
         <v>17</v>
       </c>
-      <c r="W143" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="X143" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y143" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AI143" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ143" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK143" s="3" t="s">
+      <c r="W143" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="X143" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y143" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI143" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ143" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK143" s="17" t="s">
         <v>0</v>
       </c>
       <c r="AS143" s="14">
         <v>17</v>
       </c>
-      <c r="AX143" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AY143" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ143" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BG143" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH143" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BI143" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ143" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK143" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL143" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BM143" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN143" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV143" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW143" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX143" s="3" t="s">
+      <c r="AX143" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY143" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ143" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG143" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH143" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI143" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ143" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK143" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL143" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM143" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN143" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV143" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW143" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX143" s="17" t="s">
         <v>0</v>
       </c>
     </row>
@@ -16276,15 +16619,9 @@
       <c r="C147" s="14">
         <v>21</v>
       </c>
-      <c r="H147" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I147" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J147" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="H147" s="3"/>
+      <c r="I147" s="3"/>
+      <c r="J147" s="3"/>
       <c r="R147" s="14">
         <v>21</v>
       </c>
@@ -16346,15 +16683,9 @@
       <c r="C148" s="14">
         <v>22</v>
       </c>
-      <c r="H148" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I148" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J148" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3"/>
+      <c r="J148" s="3"/>
       <c r="R148" s="14">
         <v>22</v>
       </c>
@@ -16448,15 +16779,15 @@
     <row r="151" spans="1:88" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D151" s="4" t="str">
         <f>"0x"&amp;DEC2HEX((SUMIF(D127:D134,"&lt;&gt;",$A127:$A134)),2)&amp;","</f>
-        <v>0x00,</v>
+        <v>0xC0,</v>
       </c>
       <c r="E151" s="4" t="str">
         <f t="shared" ref="E151:N151" si="37">"0x"&amp;DEC2HEX((SUMIF(E127:E134,"&lt;&gt;",$A127:$A134)),2)&amp;","</f>
-        <v>0x80,</v>
+        <v>0xE0,</v>
       </c>
       <c r="F151" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>0x00,</v>
+        <v>0xC0,</v>
       </c>
       <c r="G151" s="4" t="str">
         <f t="shared" si="37"/>
@@ -16464,15 +16795,15 @@
       </c>
       <c r="H151" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>0xF8,</v>
+        <v>0xFE,</v>
       </c>
       <c r="I151" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>0xFC,</v>
+        <v>0xFF,</v>
       </c>
       <c r="J151" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>0xF8,</v>
+        <v>0xFE,</v>
       </c>
       <c r="K151" s="4" t="str">
         <f t="shared" si="37"/>
@@ -16480,15 +16811,15 @@
       </c>
       <c r="L151" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>0xE0,</v>
+        <v>0xF8,</v>
       </c>
       <c r="M151" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>0xF0,</v>
+        <v>0xFC,</v>
       </c>
       <c r="N151" s="4" t="str">
         <f t="shared" si="37"/>
-        <v>0xE0,</v>
+        <v>0xF8,</v>
       </c>
       <c r="P151" s="3"/>
       <c r="S151" s="4" t="str">
@@ -16731,19 +17062,19 @@
     <row r="152" spans="1:88" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D152" s="4" t="str">
         <f>"0x"&amp;DEC2HEX((SUMIF(D135:D142,"&lt;&gt;",$A135:$A142)),2)&amp;","</f>
-        <v>0x3F,</v>
+        <v>0x0F,</v>
       </c>
       <c r="E152" s="4" t="str">
         <f t="shared" ref="E152:N152" si="40">"0x"&amp;DEC2HEX((SUMIF(E135:E142,"&lt;&gt;",$A135:$A142)),2)&amp;","</f>
-        <v>0x7F,</v>
+        <v>0x1F,</v>
       </c>
       <c r="F152" s="4" t="str">
         <f t="shared" si="40"/>
-        <v>0xFF,</v>
+        <v>0x3F,</v>
       </c>
       <c r="G152" s="4" t="str">
         <f t="shared" si="40"/>
-        <v>0xE0,</v>
+        <v>0x38,</v>
       </c>
       <c r="H152" s="4" t="str">
         <f t="shared" si="40"/>
@@ -16759,19 +17090,19 @@
       </c>
       <c r="K152" s="4" t="str">
         <f t="shared" si="40"/>
-        <v>0x1C,</v>
+        <v>0x07,</v>
       </c>
       <c r="L152" s="4" t="str">
         <f t="shared" si="40"/>
-        <v>0x1F,</v>
+        <v>0x07,</v>
       </c>
       <c r="M152" s="4" t="str">
         <f t="shared" si="40"/>
-        <v>0x0F,</v>
+        <v>0x03,</v>
       </c>
       <c r="N152" s="4" t="str">
         <f t="shared" si="40"/>
-        <v>0x07,</v>
+        <v>0x01,</v>
       </c>
       <c r="P152" s="3"/>
       <c r="S152" s="4" t="str">
@@ -17030,15 +17361,15 @@
       </c>
       <c r="H153" s="4" t="str">
         <f t="shared" si="43"/>
-        <v>0x3F,</v>
+        <v>0x0F,</v>
       </c>
       <c r="I153" s="4" t="str">
         <f t="shared" si="43"/>
-        <v>0x3F,</v>
+        <v>0x0F,</v>
       </c>
       <c r="J153" s="4" t="str">
         <f t="shared" si="43"/>
-        <v>0x3F,</v>
+        <v>0x0F,</v>
       </c>
       <c r="K153" s="4" t="str">
         <f t="shared" si="43"/>

--- a/Artwork/Artwork.xlsx
+++ b/Artwork/Artwork.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3650" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3801" uniqueCount="1">
   <si>
     <t>¢</t>
   </si>
@@ -45,7 +45,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -145,6 +145,13 @@
       <u/>
       <sz val="12"/>
       <color rgb="FF1F4E78"/>
+      <name val="Wingdings 2"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Wingdings 2"/>
       <family val="1"/>
       <charset val="2"/>
@@ -274,7 +281,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="128">
+  <cellStyleXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -403,8 +410,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -458,8 +473,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="128">
+  <cellStyles count="136">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -523,6 +544,10 @@
     <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -586,6 +611,10 @@
     <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -864,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:CL419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="N153" sqref="D151:N153"/>
+    <sheetView tabSelected="1" topLeftCell="M65" workbookViewId="0">
+      <selection activeCell="BP108" sqref="BP108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6286,6 +6315,10 @@
       <c r="C49" s="14">
         <v>17</v>
       </c>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="G49" s="17" t="s">
         <v>0</v>
       </c>
@@ -6307,9 +6340,17 @@
       <c r="M49" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="N49" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="O49" s="23"/>
       <c r="X49" s="14">
         <v>17</v>
       </c>
+      <c r="Z49" s="23"/>
+      <c r="AA49" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="AB49" s="17" t="s">
         <v>0</v>
       </c>
@@ -6331,9 +6372,17 @@
       <c r="AH49" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="AI49" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ49" s="23"/>
       <c r="AS49" s="14">
         <v>17</v>
       </c>
+      <c r="AU49" s="23"/>
+      <c r="AV49" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="AW49" s="17" t="s">
         <v>0</v>
       </c>
@@ -6355,6 +6404,10 @@
       <c r="BC49" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="BD49" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE49" s="23"/>
     </row>
     <row r="50" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
@@ -6363,6 +6416,9 @@
       <c r="C50" s="14">
         <v>18</v>
       </c>
+      <c r="G50" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="H50" s="3" t="s">
         <v>0</v>
       </c>
@@ -6372,30 +6428,51 @@
       <c r="J50" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="K50" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="L50" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N50" s="24" t="s">
         <v>0</v>
       </c>
       <c r="X50" s="14">
         <v>18</v>
       </c>
+      <c r="AB50" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="AC50" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AD50" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="AE50" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="AG50" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AH50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="23" t="s">
         <v>0</v>
       </c>
       <c r="AS50" s="14">
         <v>18</v>
       </c>
+      <c r="AW50" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="AX50" s="3" t="s">
         <v>0</v>
       </c>
@@ -6405,10 +6482,16 @@
       <c r="AZ50" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="BA50" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="BB50" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BC50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD50" s="23" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6419,34 +6502,76 @@
       <c r="C51" s="14">
         <v>19</v>
       </c>
+      <c r="G51" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="H51" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I51" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="J51" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="L51" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="M51" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N51" s="24" t="s">
         <v>0</v>
       </c>
       <c r="X51" s="14">
         <v>19</v>
       </c>
+      <c r="AB51" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="AC51" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="AD51" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="AH51" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="23" t="s">
         <v>0</v>
       </c>
       <c r="AS51" s="14">
         <v>19</v>
       </c>
+      <c r="AW51" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="AX51" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AY51" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="AZ51" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB51" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="BC51" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD51" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE51" s="23" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6457,36 +6582,82 @@
       <c r="C52" s="14">
         <v>20</v>
       </c>
+      <c r="G52" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="H52" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I52" s="3"/>
+      <c r="I52" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J52" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="L52" s="24" t="s">
+        <v>0</v>
+      </c>
       <c r="M52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N52" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="O52" s="23" t="s">
         <v>0</v>
       </c>
       <c r="X52" s="14">
         <v>20</v>
       </c>
+      <c r="AB52" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="AC52" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AD52" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="AE52" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="AH52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI52" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="23" t="s">
         <v>0</v>
       </c>
       <c r="AS52" s="14">
         <v>20</v>
       </c>
+      <c r="AW52" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="AX52" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AY52" s="3"/>
+      <c r="AY52" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ52" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB52" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="BC52" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BD52" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE52" s="23" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6497,38 +6668,84 @@
       <c r="C53" s="14">
         <v>21</v>
       </c>
+      <c r="G53" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="H53" s="3" t="s">
         <v>0</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="J53" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="L53" s="24" t="s">
+        <v>0</v>
+      </c>
       <c r="M53" s="3" t="s">
         <v>0</v>
       </c>
       <c r="N53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O53" s="24" t="s">
         <v>0</v>
       </c>
       <c r="X53" s="14">
         <v>21</v>
       </c>
+      <c r="AB53" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="AH53" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AI53" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ53" s="23" t="s">
         <v>0</v>
       </c>
       <c r="AS53" s="14">
         <v>21</v>
       </c>
+      <c r="AW53" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="AX53" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AY53" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BC53" s="3"/>
-      <c r="BD53" s="3"/>
+      <c r="AZ53" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB53" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC53" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD53" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE53" s="23" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
@@ -6537,11 +6754,59 @@
       <c r="C54" s="14">
         <v>22</v>
       </c>
+      <c r="G54" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="H54" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="I54" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J54" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="L54" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M54" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="N54" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="O54" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="X54" s="14">
         <v>22</v>
       </c>
+      <c r="AG54" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ54" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="AS54" s="14">
         <v>22</v>
+      </c>
+      <c r="AW54" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX54" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY54" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ54" s="23" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -7019,43 +7284,43 @@
       </c>
       <c r="F59" s="4" t="str">
         <f t="shared" si="18"/>
-        <v>0x00,</v>
+        <v>0x01,</v>
       </c>
       <c r="G59" s="4" t="str">
         <f t="shared" si="18"/>
-        <v>0x01,</v>
+        <v>0x3F,</v>
       </c>
       <c r="H59" s="4" t="str">
         <f t="shared" si="18"/>
-        <v>0x1F,</v>
+        <v>0x3F,</v>
       </c>
       <c r="I59" s="4" t="str">
         <f t="shared" si="18"/>
-        <v>0x17,</v>
+        <v>0x3F,</v>
       </c>
       <c r="J59" s="4" t="str">
         <f t="shared" si="18"/>
-        <v>0x03,</v>
+        <v>0x3F,</v>
       </c>
       <c r="K59" s="4" t="str">
         <f t="shared" si="18"/>
-        <v>0x01,</v>
+        <v>0x03,</v>
       </c>
       <c r="L59" s="4" t="str">
         <f t="shared" si="18"/>
-        <v>0x03,</v>
+        <v>0x3F,</v>
       </c>
       <c r="M59" s="4" t="str">
         <f t="shared" si="18"/>
-        <v>0x1F,</v>
+        <v>0x3F,</v>
       </c>
       <c r="N59" s="4" t="str">
         <f t="shared" si="18"/>
-        <v>0x10,</v>
+        <v>0x3F,</v>
       </c>
       <c r="O59" s="4" t="str">
         <f t="shared" si="18"/>
-        <v>0x00,</v>
+        <v>0x38,</v>
       </c>
       <c r="P59" s="4" t="str">
         <f t="shared" si="18"/>
@@ -7091,43 +7356,43 @@
       </c>
       <c r="AA59" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>0x00,</v>
+        <v>0x01,</v>
       </c>
       <c r="AB59" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>0x01,</v>
+        <v>0x1F,</v>
       </c>
       <c r="AC59" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>0x0F,</v>
+        <v>0x1F,</v>
       </c>
       <c r="AD59" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>0x0B,</v>
+        <v>0x1F,</v>
       </c>
       <c r="AE59" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>0x01,</v>
+        <v>0x1F,</v>
       </c>
       <c r="AF59" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>0x01,</v>
+        <v>0x03,</v>
       </c>
       <c r="AG59" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>0x03,</v>
+        <v>0x3F,</v>
       </c>
       <c r="AH59" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>0x1F,</v>
+        <v>0x3F,</v>
       </c>
       <c r="AI59" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>0x10,</v>
+        <v>0x3F,</v>
       </c>
       <c r="AJ59" s="4" t="str">
         <f t="shared" si="19"/>
-        <v>0x00,</v>
+        <v>0x38,</v>
       </c>
       <c r="AK59" s="4" t="str">
         <f t="shared" si="19"/>
@@ -7163,43 +7428,43 @@
       </c>
       <c r="AV59" s="4" t="str">
         <f t="shared" si="20"/>
-        <v>0x00,</v>
+        <v>0x01,</v>
       </c>
       <c r="AW59" s="4" t="str">
         <f t="shared" si="20"/>
-        <v>0x01,</v>
+        <v>0x3F,</v>
       </c>
       <c r="AX59" s="4" t="str">
         <f t="shared" si="20"/>
-        <v>0x1F,</v>
+        <v>0x3F,</v>
       </c>
       <c r="AY59" s="4" t="str">
         <f t="shared" si="20"/>
-        <v>0x17,</v>
+        <v>0x3F,</v>
       </c>
       <c r="AZ59" s="4" t="str">
         <f t="shared" si="20"/>
-        <v>0x03,</v>
+        <v>0x3F,</v>
       </c>
       <c r="BA59" s="4" t="str">
         <f t="shared" si="20"/>
-        <v>0x01,</v>
+        <v>0x03,</v>
       </c>
       <c r="BB59" s="4" t="str">
         <f t="shared" si="20"/>
-        <v>0x03,</v>
+        <v>0x1F,</v>
       </c>
       <c r="BC59" s="4" t="str">
         <f t="shared" si="20"/>
-        <v>0x0F,</v>
+        <v>0x1F,</v>
       </c>
       <c r="BD59" s="4" t="str">
         <f t="shared" si="20"/>
-        <v>0x08,</v>
+        <v>0x1F,</v>
       </c>
       <c r="BE59" s="4" t="str">
         <f t="shared" si="20"/>
-        <v>0x00,</v>
+        <v>0x1C,</v>
       </c>
       <c r="BF59" s="4" t="str">
         <f t="shared" si="20"/>
@@ -8855,6 +9120,8 @@
       <c r="C71" s="14">
         <v>9</v>
       </c>
+      <c r="H71" s="23"/>
+      <c r="I71" s="23"/>
       <c r="J71" s="17" t="s">
         <v>0</v>
       </c>
@@ -8873,12 +9140,23 @@
       <c r="O71" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="P71" s="23"/>
       <c r="Q71" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="R71" s="23"/>
+      <c r="U71" s="23"/>
+      <c r="V71" s="23"/>
+      <c r="W71" s="23"/>
+      <c r="X71" s="23"/>
+      <c r="Y71" s="23"/>
+      <c r="Z71" s="23"/>
+      <c r="AA71" s="23"/>
       <c r="AH71" s="14">
         <v>9</v>
       </c>
+      <c r="AM71" s="23"/>
+      <c r="AN71" s="23"/>
       <c r="AO71" s="17" t="s">
         <v>0</v>
       </c>
@@ -8897,13 +9175,22 @@
       <c r="AT71" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="AU71" s="23"/>
       <c r="AV71" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="AW71" s="17"/>
+      <c r="AW71" s="23"/>
+      <c r="AZ71" s="23"/>
+      <c r="BA71" s="23"/>
+      <c r="BB71" s="23"/>
+      <c r="BC71" s="23"/>
+      <c r="BD71" s="23"/>
+      <c r="BE71" s="23"/>
+      <c r="BF71" s="23"/>
       <c r="BL71" s="14">
         <v>9</v>
       </c>
+      <c r="BN71" s="23"/>
       <c r="BO71" s="3" t="s">
         <v>0</v>
       </c>
@@ -8982,9 +9269,12 @@
       <c r="C72" s="14">
         <v>10</v>
       </c>
+      <c r="H72" s="23"/>
       <c r="I72" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="J72" s="23"/>
+      <c r="K72" s="23"/>
       <c r="L72" s="3" t="s">
         <v>0</v>
       </c>
@@ -8994,15 +9284,19 @@
       <c r="N72" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="O72" s="23"/>
+      <c r="P72" s="23"/>
       <c r="Q72" s="3" t="s">
         <v>0</v>
       </c>
       <c r="R72" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="S72" s="23"/>
       <c r="AH72" s="14">
         <v>10</v>
       </c>
+      <c r="AM72" s="23"/>
       <c r="AN72" s="3" t="s">
         <v>0</v>
       </c>
@@ -9012,21 +9306,24 @@
       <c r="AP72" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AQ72" s="3"/>
-      <c r="AR72" s="3"/>
+      <c r="AQ72" s="23"/>
+      <c r="AR72" s="23"/>
       <c r="AS72" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="AT72" s="23"/>
+      <c r="AU72" s="23"/>
       <c r="AV72" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AW72" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AX72" s="3"/>
+      <c r="AX72" s="23"/>
       <c r="BL72" s="14">
         <v>10</v>
       </c>
+      <c r="BO72" s="23"/>
       <c r="BP72" s="3" t="s">
         <v>0</v>
       </c>
@@ -9100,38 +9397,52 @@
       <c r="C73" s="14">
         <v>11</v>
       </c>
+      <c r="H73" s="23"/>
       <c r="I73" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J73" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="K73" s="23"/>
       <c r="L73" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M73" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="N73" s="23"/>
+      <c r="P73" s="23"/>
+      <c r="Q73" s="23"/>
+      <c r="R73" s="23"/>
+      <c r="S73" s="23"/>
       <c r="AH73" s="14">
         <v>11</v>
       </c>
+      <c r="AM73" s="23"/>
       <c r="AN73" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AO73" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="AP73" s="23"/>
       <c r="AQ73" s="3"/>
-      <c r="AR73" s="3"/>
+      <c r="AR73" s="23"/>
       <c r="AS73" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AT73" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="AU73" s="23"/>
+      <c r="AV73" s="23"/>
+      <c r="AW73" s="23"/>
+      <c r="AX73" s="23"/>
       <c r="BL73" s="14">
         <v>11</v>
       </c>
+      <c r="BP73" s="23"/>
       <c r="BQ73" s="3" t="s">
         <v>0</v>
       </c>
@@ -9206,21 +9517,35 @@
       <c r="C74" s="14">
         <v>12</v>
       </c>
+      <c r="H74" s="23"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="23"/>
+      <c r="K74" s="23"/>
       <c r="L74" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
+      <c r="M74" s="23"/>
+      <c r="N74" s="23"/>
       <c r="AH74" s="14">
         <v>12</v>
       </c>
+      <c r="AM74" s="23"/>
       <c r="AN74" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="AO74" s="23"/>
+      <c r="AP74" s="23"/>
       <c r="AQ74" s="3"/>
-      <c r="AR74" s="3"/>
+      <c r="AR74" s="23"/>
+      <c r="AS74" s="23"/>
+      <c r="AT74" s="23"/>
+      <c r="AU74" s="23"/>
       <c r="BL74" s="14">
         <v>12</v>
       </c>
+      <c r="BO74" s="23"/>
+      <c r="BP74" s="23"/>
+      <c r="BQ74" s="23"/>
       <c r="BR74" s="3" t="s">
         <v>0</v>
       </c>
@@ -9251,7 +9576,7 @@
       <c r="CA74" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="CB74" s="3"/>
+      <c r="CB74" s="23"/>
       <c r="CC74" s="3" t="s">
         <v>0</v>
       </c>
@@ -9270,6 +9595,10 @@
       <c r="CH74" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="CI74" s="23"/>
+      <c r="CJ74" s="23"/>
+      <c r="CK74" s="23"/>
+      <c r="CL74" s="23"/>
     </row>
     <row r="75" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
@@ -9278,32 +9607,38 @@
       <c r="C75" s="14">
         <v>13</v>
       </c>
+      <c r="K75" s="23"/>
       <c r="L75" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M75" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="N75" s="23"/>
       <c r="AH75" s="14">
         <v>13</v>
       </c>
+      <c r="AM75" s="23"/>
       <c r="AN75" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AO75" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="AP75" s="23"/>
       <c r="AQ75" s="3"/>
       <c r="AR75" s="3"/>
       <c r="BL75" s="14">
         <v>13</v>
       </c>
+      <c r="BO75" s="23"/>
       <c r="BP75" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BQ75" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="BR75" s="23"/>
       <c r="BS75" s="3" t="s">
         <v>0</v>
       </c>
@@ -9322,10 +9657,12 @@
       <c r="BX75" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="BY75" s="23"/>
       <c r="BZ75" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="CA75" s="3"/>
+      <c r="CA75" s="23"/>
+      <c r="CC75" s="23"/>
       <c r="CD75" s="3" t="s">
         <v>0</v>
       </c>
@@ -9355,12 +9692,37 @@
       <c r="C76" s="14">
         <v>14</v>
       </c>
+      <c r="K76" s="23"/>
+      <c r="L76" s="23"/>
+      <c r="M76" s="23"/>
+      <c r="N76" s="23"/>
       <c r="AH76" s="14">
         <v>14</v>
       </c>
+      <c r="AM76" s="23"/>
+      <c r="AN76" s="23"/>
+      <c r="AO76" s="23"/>
+      <c r="AP76" s="23"/>
       <c r="BL76" s="14">
         <v>14</v>
       </c>
+      <c r="BO76" s="23"/>
+      <c r="BP76" s="23"/>
+      <c r="BQ76" s="23"/>
+      <c r="BS76" s="23"/>
+      <c r="BT76" s="23"/>
+      <c r="BU76" s="23"/>
+      <c r="BV76" s="23"/>
+      <c r="BW76" s="23"/>
+      <c r="BX76" s="23"/>
+      <c r="BZ76" s="23"/>
+      <c r="CD76" s="23"/>
+      <c r="CE76" s="23"/>
+      <c r="CF76" s="23"/>
+      <c r="CG76" s="23"/>
+      <c r="CH76" s="23"/>
+      <c r="CI76" s="23"/>
+      <c r="CJ76" s="23"/>
     </row>
     <row r="77" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
@@ -11623,19 +11985,19 @@
       <c r="CD91" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="CE91" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="CF91" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG91" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH91" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="CI91" s="19" t="s">
+      <c r="CE91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH91" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI91" s="3" t="s">
         <v>0</v>
       </c>
       <c r="CJ91" s="19" t="s">
@@ -11655,6 +12017,12 @@
       <c r="C92" s="14">
         <v>9</v>
       </c>
+      <c r="H92" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="I92" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="J92" s="17" t="s">
         <v>0</v>
       </c>
@@ -11673,12 +12041,51 @@
       <c r="O92" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="P92" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="Q92" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="R92" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="S92" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="T92" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="U92" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="V92" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="W92" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="X92" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="23" t="s">
         <v>0</v>
       </c>
       <c r="AH92" s="14">
         <v>9</v>
       </c>
+      <c r="AM92" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN92" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="AO92" s="17" t="s">
         <v>0</v>
       </c>
@@ -11697,83 +12104,118 @@
       <c r="AT92" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="AU92" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="AV92" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="AW92" s="17"/>
+      <c r="AW92" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX92" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AY92" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ92" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA92" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB92" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BC92" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD92" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE92" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF92" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="BL92" s="14">
         <v>9</v>
       </c>
-      <c r="BO92" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP92" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ92" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR92" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="BS92" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT92" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU92" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV92" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW92" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX92" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY92" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ92" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA92" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB92" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="CC92" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD92" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE92" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="CF92" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG92" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH92" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="CI92" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ92" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK92" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL92" s="17" t="s">
+      <c r="BN92" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK92" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL92" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -11784,9 +12226,18 @@
       <c r="C93" s="14">
         <v>10</v>
       </c>
+      <c r="H93" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="I93" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="J93" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="K93" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="L93" s="3" t="s">
         <v>0</v>
       </c>
@@ -11796,15 +12247,27 @@
       <c r="N93" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="O93" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="P93" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="Q93" s="3" t="s">
         <v>0</v>
       </c>
       <c r="R93" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S93" s="23" t="s">
         <v>0</v>
       </c>
       <c r="AH93" s="14">
         <v>10</v>
       </c>
+      <c r="AM93" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="AN93" s="3" t="s">
         <v>0</v>
       </c>
@@ -11814,20 +12277,35 @@
       <c r="AP93" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AQ93" s="3"/>
-      <c r="AR93" s="3"/>
+      <c r="AQ93" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AR93" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="AS93" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="AT93" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU93" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="AV93" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AW93" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AX93" s="3"/>
+      <c r="AX93" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="BL93" s="14">
         <v>10</v>
+      </c>
+      <c r="BO93" s="23" t="s">
+        <v>0</v>
       </c>
       <c r="BP93" s="3" t="s">
         <v>0</v>
@@ -11906,37 +12384,81 @@
       <c r="C94" s="14">
         <v>11</v>
       </c>
+      <c r="H94" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="I94" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="K94" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="L94" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N94" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="P94" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="R94" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="S94" s="23" t="s">
         <v>0</v>
       </c>
       <c r="AH94" s="14">
         <v>11</v>
       </c>
+      <c r="AM94" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="AN94" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AO94" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="AP94" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="AQ94" s="3"/>
-      <c r="AR94" s="3"/>
+      <c r="AR94" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="AS94" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AT94" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU94" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AV94" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AW94" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AX94" s="23" t="s">
         <v>0</v>
       </c>
       <c r="BL94" s="14">
         <v>11</v>
+      </c>
+      <c r="BP94" s="23" t="s">
+        <v>0</v>
       </c>
       <c r="BQ94" s="3" t="s">
         <v>0</v>
@@ -12012,21 +12534,67 @@
       <c r="C95" s="14">
         <v>12</v>
       </c>
+      <c r="H95" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="I95" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J95" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="K95" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="L95" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M95" s="3"/>
+      <c r="M95" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="N95" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="AH95" s="14">
         <v>12</v>
       </c>
+      <c r="AM95" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="AN95" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="AO95" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP95" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="AQ95" s="3"/>
-      <c r="AR95" s="3"/>
+      <c r="AR95" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS95" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT95" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU95" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="BL95" s="14">
         <v>12</v>
       </c>
+      <c r="BO95" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP95" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ95" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="BR95" s="3" t="s">
         <v>0</v>
       </c>
@@ -12057,7 +12625,9 @@
       <c r="CA95" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="CB95" s="3"/>
+      <c r="CB95" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="CC95" s="3" t="s">
         <v>0</v>
       </c>
@@ -12074,6 +12644,18 @@
         <v>0</v>
       </c>
       <c r="CH95" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI95" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ95" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK95" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL95" s="23" t="s">
         <v>0</v>
       </c>
     </row>
@@ -12084,19 +12666,31 @@
       <c r="C96" s="14">
         <v>13</v>
       </c>
+      <c r="K96" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="L96" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M96" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N96" s="23" t="s">
         <v>0</v>
       </c>
       <c r="AH96" s="14">
         <v>13</v>
       </c>
+      <c r="AM96" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="AN96" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AO96" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP96" s="23" t="s">
         <v>0</v>
       </c>
       <c r="AQ96" s="3"/>
@@ -12104,12 +12698,18 @@
       <c r="BL96" s="14">
         <v>13</v>
       </c>
+      <c r="BO96" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="BP96" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BQ96" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="BR96" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="BS96" s="3" t="s">
         <v>0</v>
       </c>
@@ -12128,10 +12728,18 @@
       <c r="BX96" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="BY96" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="BZ96" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="CA96" s="3"/>
+      <c r="CA96" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC96" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="CD96" s="3" t="s">
         <v>0</v>
       </c>
@@ -12161,11 +12769,86 @@
       <c r="C97" s="14">
         <v>14</v>
       </c>
+      <c r="K97" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="L97" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M97" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="N97" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="AH97" s="14">
         <v>14</v>
       </c>
+      <c r="AM97" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN97" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO97" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP97" s="23" t="s">
+        <v>0</v>
+      </c>
       <c r="BL97" s="14">
         <v>14</v>
+      </c>
+      <c r="BO97" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP97" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ97" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS97" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT97" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU97" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV97" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW97" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX97" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ97" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD97" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE97" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF97" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG97" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH97" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI97" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ97" s="23" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -12529,83 +13212,83 @@
       </c>
       <c r="H101" s="4" t="str">
         <f t="shared" si="30"/>
-        <v>0x00,</v>
+        <v>0x0F,</v>
       </c>
       <c r="I101" s="4" t="str">
         <f t="shared" si="30"/>
-        <v>0x06,</v>
+        <v>0x0F,</v>
       </c>
       <c r="J101" s="4" t="str">
         <f t="shared" si="30"/>
-        <v>0x05,</v>
+        <v>0x0F,</v>
       </c>
       <c r="K101" s="4" t="str">
         <f t="shared" si="30"/>
-        <v>0x01,</v>
+        <v>0x3F,</v>
       </c>
       <c r="L101" s="4" t="str">
         <f t="shared" si="30"/>
-        <v>0x1F,</v>
+        <v>0x3F,</v>
       </c>
       <c r="M101" s="4" t="str">
         <f t="shared" si="30"/>
-        <v>0x17,</v>
+        <v>0x3F,</v>
       </c>
       <c r="N101" s="4" t="str">
         <f t="shared" si="30"/>
-        <v>0x03,</v>
+        <v>0x3F,</v>
       </c>
       <c r="O101" s="4" t="str">
         <f t="shared" si="30"/>
-        <v>0x01,</v>
+        <v>0x03,</v>
       </c>
       <c r="P101" s="4" t="str">
         <f t="shared" si="30"/>
-        <v>0x00,</v>
+        <v>0x07,</v>
       </c>
       <c r="Q101" s="4" t="str">
         <f t="shared" si="30"/>
-        <v>0x03,</v>
+        <v>0x07,</v>
       </c>
       <c r="R101" s="4" t="str">
         <f t="shared" si="30"/>
-        <v>0x02,</v>
+        <v>0x07,</v>
       </c>
       <c r="S101" s="4" t="str">
         <f t="shared" si="30"/>
-        <v>0x00,</v>
+        <v>0x07,</v>
       </c>
       <c r="T101" s="4" t="str">
         <f t="shared" si="30"/>
-        <v>0x00,</v>
+        <v>0x01,</v>
       </c>
       <c r="U101" s="4" t="str">
         <f t="shared" si="30"/>
-        <v>0x00,</v>
+        <v>0x01,</v>
       </c>
       <c r="V101" s="4" t="str">
         <f t="shared" si="30"/>
-        <v>0x00,</v>
+        <v>0x01,</v>
       </c>
       <c r="W101" s="4" t="str">
         <f t="shared" si="30"/>
-        <v>0x00,</v>
+        <v>0x01,</v>
       </c>
       <c r="X101" s="4" t="str">
         <f t="shared" si="30"/>
-        <v>0x00,</v>
+        <v>0x01,</v>
       </c>
       <c r="Y101" s="4" t="str">
         <f t="shared" si="30"/>
-        <v>0x00,</v>
+        <v>0x01,</v>
       </c>
       <c r="Z101" s="4" t="str">
         <f t="shared" si="30"/>
-        <v>0x00,</v>
+        <v>0x01,</v>
       </c>
       <c r="AA101" s="4" t="str">
         <f t="shared" si="30"/>
-        <v>0x00,</v>
+        <v>0x01,</v>
       </c>
       <c r="AB101" s="4" t="str">
         <f t="shared" si="30"/>
@@ -12633,83 +13316,83 @@
       </c>
       <c r="AM101" s="4" t="str">
         <f t="shared" si="31"/>
-        <v>0x00,</v>
+        <v>0x3F,</v>
       </c>
       <c r="AN101" s="4" t="str">
         <f t="shared" si="31"/>
-        <v>0x1E,</v>
+        <v>0x3F,</v>
       </c>
       <c r="AO101" s="4" t="str">
         <f t="shared" si="31"/>
-        <v>0x17,</v>
+        <v>0x3F,</v>
       </c>
       <c r="AP101" s="4" t="str">
         <f t="shared" si="31"/>
-        <v>0x03,</v>
+        <v>0x3F,</v>
       </c>
       <c r="AQ101" s="4" t="str">
         <f t="shared" si="31"/>
-        <v>0x01,</v>
+        <v>0x03,</v>
       </c>
       <c r="AR101" s="4" t="str">
         <f t="shared" si="31"/>
-        <v>0x01,</v>
+        <v>0x0F,</v>
       </c>
       <c r="AS101" s="4" t="str">
         <f t="shared" si="31"/>
-        <v>0x07,</v>
+        <v>0x0F,</v>
       </c>
       <c r="AT101" s="4" t="str">
         <f t="shared" si="31"/>
-        <v>0x05,</v>
+        <v>0x0F,</v>
       </c>
       <c r="AU101" s="4" t="str">
         <f t="shared" si="31"/>
-        <v>0x00,</v>
+        <v>0x0F,</v>
       </c>
       <c r="AV101" s="4" t="str">
         <f t="shared" si="31"/>
-        <v>0x03,</v>
+        <v>0x07,</v>
       </c>
       <c r="AW101" s="4" t="str">
         <f t="shared" si="31"/>
-        <v>0x02,</v>
+        <v>0x07,</v>
       </c>
       <c r="AX101" s="4" t="str">
         <f t="shared" si="31"/>
-        <v>0x00,</v>
+        <v>0x07,</v>
       </c>
       <c r="AY101" s="4" t="str">
         <f t="shared" si="31"/>
-        <v>0x00,</v>
+        <v>0x01,</v>
       </c>
       <c r="AZ101" s="4" t="str">
         <f t="shared" si="31"/>
-        <v>0x00,</v>
+        <v>0x01,</v>
       </c>
       <c r="BA101" s="4" t="str">
         <f t="shared" si="31"/>
-        <v>0x00,</v>
+        <v>0x01,</v>
       </c>
       <c r="BB101" s="4" t="str">
         <f t="shared" si="31"/>
-        <v>0x00,</v>
+        <v>0x01,</v>
       </c>
       <c r="BC101" s="4" t="str">
         <f t="shared" si="31"/>
-        <v>0x00,</v>
+        <v>0x01,</v>
       </c>
       <c r="BD101" s="4" t="str">
         <f t="shared" si="31"/>
-        <v>0x00,</v>
+        <v>0x01,</v>
       </c>
       <c r="BE101" s="4" t="str">
         <f t="shared" si="31"/>
-        <v>0x00,</v>
+        <v>0x01,</v>
       </c>
       <c r="BF101" s="4" t="str">
         <f t="shared" si="31"/>
-        <v>0x00,</v>
+        <v>0x01,</v>
       </c>
       <c r="BG101" s="4" t="str">
         <f t="shared" si="31"/>
@@ -12725,103 +13408,103 @@
       </c>
       <c r="BN101" s="4" t="str">
         <f t="shared" ref="BN101:CL101" si="32">"0x"&amp;DEC2HEX((SUMIF(BN92:BN99,"&lt;&gt;",$A92:$A99)),2)&amp;","</f>
-        <v>0x00,</v>
+        <v>0x01,</v>
       </c>
       <c r="BO101" s="4" t="str">
         <f t="shared" si="32"/>
-        <v>0x01,</v>
+        <v>0x3B,</v>
       </c>
       <c r="BP101" s="4" t="str">
         <f t="shared" si="32"/>
-        <v>0x13,</v>
+        <v>0x3F,</v>
       </c>
       <c r="BQ101" s="4" t="str">
         <f t="shared" si="32"/>
-        <v>0x17,</v>
+        <v>0x3F,</v>
       </c>
       <c r="BR101" s="4" t="str">
         <f t="shared" si="32"/>
-        <v>0x0F,</v>
+        <v>0x1F,</v>
       </c>
       <c r="BS101" s="4" t="str">
         <f t="shared" si="32"/>
-        <v>0x1F,</v>
+        <v>0x3F,</v>
       </c>
       <c r="BT101" s="4" t="str">
         <f t="shared" si="32"/>
-        <v>0x1F,</v>
+        <v>0x3F,</v>
       </c>
       <c r="BU101" s="4" t="str">
         <f t="shared" si="32"/>
-        <v>0x1F,</v>
+        <v>0x3F,</v>
       </c>
       <c r="BV101" s="4" t="str">
         <f t="shared" si="32"/>
-        <v>0x1F,</v>
+        <v>0x3F,</v>
       </c>
       <c r="BW101" s="4" t="str">
         <f t="shared" si="32"/>
-        <v>0x1F,</v>
+        <v>0x3F,</v>
       </c>
       <c r="BX101" s="4" t="str">
         <f t="shared" si="32"/>
-        <v>0x1F,</v>
+        <v>0x3F,</v>
       </c>
       <c r="BY101" s="4" t="str">
         <f t="shared" si="32"/>
-        <v>0x0F,</v>
+        <v>0x1F,</v>
       </c>
       <c r="BZ101" s="4" t="str">
         <f t="shared" si="32"/>
-        <v>0x1F,</v>
+        <v>0x3F,</v>
       </c>
       <c r="CA101" s="4" t="str">
         <f t="shared" si="32"/>
-        <v>0x0F,</v>
+        <v>0x1F,</v>
       </c>
       <c r="CB101" s="4" t="str">
         <f t="shared" si="32"/>
-        <v>0x07,</v>
+        <v>0x0F,</v>
       </c>
       <c r="CC101" s="4" t="str">
         <f t="shared" si="32"/>
-        <v>0x0F,</v>
+        <v>0x1F,</v>
       </c>
       <c r="CD101" s="4" t="str">
         <f t="shared" si="32"/>
-        <v>0x1F,</v>
+        <v>0x3F,</v>
       </c>
       <c r="CE101" s="4" t="str">
         <f t="shared" si="32"/>
-        <v>0x1F,</v>
+        <v>0x3F,</v>
       </c>
       <c r="CF101" s="4" t="str">
         <f t="shared" si="32"/>
-        <v>0x1F,</v>
+        <v>0x3F,</v>
       </c>
       <c r="CG101" s="4" t="str">
         <f t="shared" si="32"/>
-        <v>0x1F,</v>
+        <v>0x3F,</v>
       </c>
       <c r="CH101" s="4" t="str">
         <f t="shared" si="32"/>
-        <v>0x1F,</v>
+        <v>0x3F,</v>
       </c>
       <c r="CI101" s="4" t="str">
         <f t="shared" si="32"/>
-        <v>0x17,</v>
+        <v>0x3F,</v>
       </c>
       <c r="CJ101" s="4" t="str">
         <f t="shared" si="32"/>
-        <v>0x17,</v>
+        <v>0x3F,</v>
       </c>
       <c r="CK101" s="4" t="str">
         <f t="shared" si="32"/>
-        <v>0x07,</v>
+        <v>0x0F,</v>
       </c>
       <c r="CL101" s="4" t="str">
         <f t="shared" si="32"/>
-        <v>0x07,</v>
+        <v>0x0F,</v>
       </c>
     </row>
     <row r="102" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -13064,9 +13747,7 @@
       <c r="G108" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H108" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="H108" s="3"/>
       <c r="I108" s="3" t="s">
         <v>0</v>
       </c>
@@ -13082,9 +13763,7 @@
       <c r="AL108" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AM108" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="AM108" s="3"/>
       <c r="AN108" s="3" t="s">
         <v>0</v>
       </c>
@@ -13463,9 +14142,7 @@
       <c r="Q113" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="R113" s="17" t="s">
-        <v>0</v>
-      </c>
+      <c r="R113" s="17"/>
       <c r="S113" s="17" t="s">
         <v>0</v>
       </c>
@@ -13544,9 +14221,7 @@
       <c r="P114" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Q114" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="Q114" s="3"/>
       <c r="R114" s="3" t="s">
         <v>0</v>
       </c>
@@ -13833,7 +14508,7 @@
       </c>
       <c r="H121" s="4" t="str">
         <f t="shared" si="33"/>
-        <v>0x3E,</v>
+        <v>0x36,</v>
       </c>
       <c r="I121" s="4" t="str">
         <f t="shared" si="33"/>
@@ -13921,7 +14596,7 @@
       </c>
       <c r="AM121" s="4" t="str">
         <f t="shared" si="34"/>
-        <v>0x3E,</v>
+        <v>0x36,</v>
       </c>
       <c r="AN121" s="4" t="str">
         <f t="shared" si="34"/>
@@ -14047,11 +14722,11 @@
       </c>
       <c r="Q122" s="4" t="str">
         <f t="shared" si="35"/>
-        <v>0x07,</v>
+        <v>0x05,</v>
       </c>
       <c r="R122" s="4" t="str">
         <f t="shared" si="35"/>
-        <v>0x07,</v>
+        <v>0x06,</v>
       </c>
       <c r="S122" s="4" t="str">
         <f t="shared" si="35"/>
@@ -14395,7 +15070,7 @@
       <c r="R127" s="14">
         <v>1</v>
       </c>
-      <c r="AJ127" s="3" t="s">
+      <c r="AH127" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AS127" s="14">
@@ -14424,13 +15099,13 @@
       <c r="R128" s="14">
         <v>2</v>
       </c>
+      <c r="AG128" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH128" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AI128" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ128" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK128" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AS128" s="14">
@@ -14471,16 +15146,16 @@
       <c r="X129" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AF129" s="3" t="s">
+      <c r="AD129" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG129" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH129" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AI129" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ129" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK129" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AS129" s="14">
@@ -14498,10 +15173,10 @@
       <c r="AZ129" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BJ129" s="3"/>
-      <c r="BK129" s="3"/>
-      <c r="BL129" s="3"/>
-      <c r="BW129" s="3" t="s">
+      <c r="BG129" s="3"/>
+      <c r="BH129" s="3"/>
+      <c r="BI129" s="3"/>
+      <c r="BR129" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -14542,22 +15217,22 @@
       <c r="Y130" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="AC130" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD130" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AE130" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AF130" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="AG130" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="AH130" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AI130" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ130" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK130" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AS130" s="14">
@@ -14581,13 +15256,13 @@
       <c r="AZ130" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BV130" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW130" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX130" s="3" t="s">
+      <c r="BQ130" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR130" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS130" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -14628,25 +15303,23 @@
       <c r="Y131" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AB131" s="3" t="s">
+      <c r="AB131" s="3"/>
+      <c r="AC131" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD131" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AE131" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AF131" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="AG131" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="AH131" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AI131" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ131" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK131" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AS131" s="14">
@@ -14670,18 +15343,19 @@
       <c r="AZ131" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="BQ131" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR131" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS131" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="BV131" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BW131" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX131" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA131" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="CA131" s="3"/>
     </row>
     <row r="132" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
@@ -14730,28 +15404,23 @@
       <c r="AA132" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AB132" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="AB132" s="3"/>
       <c r="AC132" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="AD132" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AE132" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AF132" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="AG132" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="AH132" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AI132" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ132" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK132" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AS132" s="14">
@@ -14775,24 +15444,29 @@
       <c r="AZ132" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="BQ132" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR132" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS132" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU132" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="BV132" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BW132" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BX132" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ132" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA132" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB132" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="BX132" s="3"/>
+      <c r="BY132" s="3"/>
+      <c r="BZ132" s="3"/>
+      <c r="CA132" s="3"/>
+      <c r="CB132" s="3"/>
     </row>
     <row r="133" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
@@ -14843,34 +15517,30 @@
       <c r="AA133" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AB133" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="AB133" s="3"/>
       <c r="AC133" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="AD133" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AE133" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AF133" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="AF133" s="3"/>
       <c r="AG133" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AH133" s="3"/>
+      <c r="AH133" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AI133" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AJ133" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK133" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN133" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="AL133" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN133" s="3"/>
       <c r="AS133" s="14">
         <v>7</v>
       </c>
@@ -14896,7 +15566,19 @@
       <c r="BC133" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BK133" s="3" t="s">
+      <c r="BH133" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ133" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR133" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS133" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BU133" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BV133" s="3" t="s">
@@ -14905,18 +15587,11 @@
       <c r="BW133" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BX133" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ133" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA133" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB133" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="BX133" s="3"/>
+      <c r="BY133" s="3"/>
+      <c r="BZ133" s="3"/>
+      <c r="CA133" s="3"/>
+      <c r="CB133" s="3"/>
     </row>
     <row r="134" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
@@ -14975,42 +15650,38 @@
       <c r="AA134" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="AB134" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="AB134" s="19"/>
       <c r="AC134" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="AD134" s="18"/>
+      <c r="AD134" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AE134" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="AF134" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="AF134" s="19"/>
       <c r="AG134" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="AH134" s="19"/>
+      <c r="AH134" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AI134" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="AJ134" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="AJ134" s="18"/>
       <c r="AK134" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="AL134" s="18"/>
+      <c r="AL134" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AM134" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="AN134" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO134" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="AN134" s="19"/>
+      <c r="AO134" s="19"/>
       <c r="AS134" s="14">
         <v>8</v>
       </c>
@@ -15037,56 +15708,56 @@
       <c r="BB134" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="BC134" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD134" s="19" t="s">
+      <c r="BC134" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD134" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BE134" s="18"/>
       <c r="BF134" s="18"/>
-      <c r="BG134" s="18"/>
-      <c r="BH134" s="18"/>
-      <c r="BI134" s="18"/>
-      <c r="BJ134" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK134" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL134" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="BG134" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH134" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI134" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ134" s="18"/>
+      <c r="BK134" s="18"/>
+      <c r="BL134" s="18"/>
       <c r="BM134" s="18"/>
-      <c r="BN134" s="18"/>
+      <c r="BN134" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BO134" s="18"/>
       <c r="BP134" s="18"/>
-      <c r="BQ134" s="18"/>
-      <c r="BR134" s="18"/>
+      <c r="BQ134" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR134" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BS134" s="19" t="s">
         <v>0</v>
       </c>
       <c r="BT134" s="18"/>
-      <c r="BU134" s="18"/>
+      <c r="BU134" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BV134" s="19" t="s">
         <v>0</v>
       </c>
       <c r="BW134" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="BX134" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY134" s="18"/>
-      <c r="BZ134" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA134" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB134" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="BX134" s="19"/>
+      <c r="BY134" s="19"/>
+      <c r="BZ134" s="19"/>
+      <c r="CA134" s="19"/>
+      <c r="CB134" s="19"/>
     </row>
     <row r="135" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
@@ -15149,12 +15820,13 @@
       <c r="AA135" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="AB135" s="17" t="s">
-        <v>0</v>
-      </c>
+      <c r="AB135" s="17"/>
       <c r="AC135" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="AD135" s="17" t="s">
+        <v>0</v>
+      </c>
       <c r="AE135" s="17" t="s">
         <v>0</v>
       </c>
@@ -15170,21 +15842,17 @@
       <c r="AI135" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="AJ135" s="17" t="s">
-        <v>0</v>
-      </c>
       <c r="AK135" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="AL135" s="17" t="s">
+        <v>0</v>
+      </c>
       <c r="AM135" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="AN135" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO135" s="17" t="s">
-        <v>0</v>
-      </c>
+      <c r="AN135" s="17"/>
+      <c r="AO135" s="17"/>
       <c r="AS135" s="14">
         <v>9</v>
       </c>
@@ -15212,19 +15880,31 @@
       <c r="BB135" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="BC135" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="BD135" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ135" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK135" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL135" s="17" t="s">
+      <c r="BC135" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD135" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BM135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO135" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ135" s="17" t="s">
         <v>0</v>
       </c>
       <c r="BR135" s="17" t="s">
@@ -15233,7 +15913,7 @@
       <c r="BS135" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="BT135" s="17" t="s">
+      <c r="BU135" s="17" t="s">
         <v>0</v>
       </c>
       <c r="BV135" s="17" t="s">
@@ -15242,18 +15922,11 @@
       <c r="BW135" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="BX135" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ135" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA135" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB135" s="17" t="s">
-        <v>0</v>
-      </c>
+      <c r="BX135" s="17"/>
+      <c r="BY135" s="17"/>
+      <c r="BZ135" s="17"/>
+      <c r="CA135" s="17"/>
+      <c r="CB135" s="17"/>
     </row>
     <row r="136" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
@@ -15319,7 +15992,11 @@
       <c r="AB136" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AC136" s="3" t="s">
+      <c r="AC136" s="3"/>
+      <c r="AD136" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE136" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AF136" s="3" t="s">
@@ -15334,21 +16011,17 @@
       <c r="AI136" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AJ136" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="AK136" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="AL136" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AM136" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AN136" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO136" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="AN136" s="3"/>
+      <c r="AO136" s="3"/>
       <c r="AS136" s="14">
         <v>10</v>
       </c>
@@ -15376,28 +16049,36 @@
       <c r="BC136" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BD136" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ136" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK136" s="3" t="s">
+      <c r="BG136" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH136" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI136" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BL136" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="BM136" s="3"/>
+      <c r="BN136" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="BO136" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="BQ136" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="BR136" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BS136" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BT136" s="3" t="s">
+      <c r="BT136" s="3"/>
+      <c r="BU136" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BV136" s="3" t="s">
@@ -15406,19 +16087,11 @@
       <c r="BW136" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BX136" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="BX136" s="3"/>
       <c r="BY136" s="3"/>
-      <c r="BZ136" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA136" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB136" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="BZ136" s="3"/>
+      <c r="CA136" s="3"/>
+      <c r="CB136" s="3"/>
     </row>
     <row r="137" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
@@ -15485,6 +16158,12 @@
       <c r="AC137" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="AE137" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF137" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AG137" s="3" t="s">
         <v>0</v>
       </c>
@@ -15494,21 +16173,17 @@
       <c r="AI137" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AJ137" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="AK137" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="AL137" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AM137" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AN137" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO137" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="AN137" s="3"/>
+      <c r="AO137" s="3"/>
       <c r="AS137" s="14">
         <v>11</v>
       </c>
@@ -15530,16 +16205,16 @@
       <c r="BB137" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BC137" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="BD137" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BG137" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BJ137" s="3" t="s">
+      <c r="BH137" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI137" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BK137" s="3" t="s">
@@ -15548,13 +16223,14 @@
       <c r="BL137" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BN137" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="BM137" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN137" s="3"/>
       <c r="BO137" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BP137" s="3" t="s">
+      <c r="BQ137" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BR137" s="3" t="s">
@@ -15566,27 +16242,20 @@
       <c r="BT137" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="BU137" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="BV137" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BW137" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BX137" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY137" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ137" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA137" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CB137" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="BX137" s="3"/>
+      <c r="BY137" s="3"/>
+      <c r="BZ137" s="3"/>
+      <c r="CA137" s="3"/>
+      <c r="CB137" s="3"/>
     </row>
     <row r="138" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
@@ -15648,29 +16317,30 @@
         <v>0</v>
       </c>
       <c r="AC138" s="3"/>
+      <c r="AD138" s="3"/>
       <c r="AE138" s="3"/>
       <c r="AF138" s="3"/>
-      <c r="AG138" s="3"/>
-      <c r="AH138" s="3"/>
+      <c r="AG138" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH138" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AI138" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AJ138" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="AJ138" s="3"/>
       <c r="AK138" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AL138" s="3"/>
+      <c r="AL138" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AM138" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AN138" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO138" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="AN138" s="3"/>
+      <c r="AO138" s="3"/>
       <c r="AS138" s="14">
         <v>12</v>
       </c>
@@ -15688,17 +16358,14 @@
         <v>0</v>
       </c>
       <c r="BA138" s="3"/>
-      <c r="BB138" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="BB138" s="3"/>
       <c r="BC138" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BD138" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BE138" s="3"/>
-      <c r="BF138" s="3" t="s">
+      <c r="BE138" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BG138" s="3" t="s">
@@ -15707,7 +16374,7 @@
       <c r="BH138" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BJ138" s="3" t="s">
+      <c r="BI138" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BK138" s="3" t="s">
@@ -15716,13 +16383,15 @@
       <c r="BL138" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BN138" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="BM138" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN138" s="3"/>
       <c r="BO138" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BP138" s="3" t="s">
+      <c r="BP138" s="3"/>
+      <c r="BQ138" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BR138" s="3" t="s">
@@ -15734,25 +16403,17 @@
       <c r="BT138" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BU138" s="3"/>
+      <c r="BU138" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="BV138" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BW138" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX138" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY138" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ138" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA138" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="BW138" s="3"/>
+      <c r="BX138" s="3"/>
+      <c r="BY138" s="3"/>
+      <c r="BZ138" s="3"/>
+      <c r="CA138" s="3"/>
       <c r="CB138" s="3"/>
     </row>
     <row r="139" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -15808,9 +16469,15 @@
       <c r="AA139" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="AD139" s="3"/>
+      <c r="AE139" s="3"/>
       <c r="AF139" s="3"/>
-      <c r="AG139" s="3"/>
-      <c r="AH139" s="3"/>
+      <c r="AG139" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH139" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AI139" s="3" t="s">
         <v>0</v>
       </c>
@@ -15826,12 +16493,8 @@
       <c r="AM139" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AN139" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO139" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="AN139" s="3"/>
+      <c r="AO139" s="3"/>
       <c r="AS139" s="14">
         <v>13</v>
       </c>
@@ -15850,17 +16513,14 @@
       <c r="BA139" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BB139" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="BB139" s="3"/>
       <c r="BC139" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BD139" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BE139" s="3"/>
-      <c r="BF139" s="3" t="s">
+      <c r="BE139" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BG139" s="3" t="s">
@@ -15869,7 +16529,7 @@
       <c r="BH139" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BJ139" s="3" t="s">
+      <c r="BI139" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BK139" s="3" t="s">
@@ -15878,13 +16538,15 @@
       <c r="BL139" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BN139" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="BM139" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN139" s="3"/>
       <c r="BO139" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BP139" s="3" t="s">
+      <c r="BP139" s="3"/>
+      <c r="BQ139" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BR139" s="3" t="s">
@@ -15896,22 +16558,11 @@
       <c r="BT139" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BU139" s="3"/>
-      <c r="BV139" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW139" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX139" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY139" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ139" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="BU139" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BX139" s="3"/>
+      <c r="BZ139" s="3"/>
     </row>
     <row r="140" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
@@ -15965,8 +16616,14 @@
       <c r="Y140" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AG140" s="3"/>
-      <c r="AH140" s="3"/>
+      <c r="AE140" s="3"/>
+      <c r="AF140" s="3"/>
+      <c r="AG140" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH140" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AI140" s="3" t="s">
         <v>0</v>
       </c>
@@ -15979,12 +16636,8 @@
       <c r="AL140" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AM140" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN140" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="AM140" s="3"/>
+      <c r="AN140" s="3"/>
       <c r="AO140" s="3"/>
       <c r="AS140" s="14">
         <v>14</v>
@@ -16003,62 +16656,50 @@
       <c r="BA140" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BB140" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="BB140" s="3"/>
       <c r="BC140" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BD140" s="3"/>
-      <c r="BE140" s="3"/>
-      <c r="BF140" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="BD140" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE140" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF140" s="3"/>
       <c r="BG140" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BH140" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BI140" s="3"/>
-      <c r="BJ140" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="BI140" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ140" s="3"/>
       <c r="BK140" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BL140" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BM140" s="3"/>
-      <c r="BN140" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="BM140" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN140" s="3"/>
       <c r="BO140" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BP140" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="BQ140" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="BR140" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BS140" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT140" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU140" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV140" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW140" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX140" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -16099,6 +16740,12 @@
       <c r="Y141" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="AG141" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH141" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AI141" s="3" t="s">
         <v>0</v>
       </c>
@@ -16106,12 +16753,6 @@
         <v>0</v>
       </c>
       <c r="AK141" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL141" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AM141" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AS141" s="14">
@@ -16129,20 +16770,26 @@
       <c r="BA141" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BB141" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE141" s="3"/>
-      <c r="BF141" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="BB141" s="3"/>
+      <c r="BC141" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD141" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE141" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF141" s="3"/>
       <c r="BG141" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BH141" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BI141" s="3"/>
+      <c r="BI141" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="BJ141" s="3" t="s">
         <v>0</v>
       </c>
@@ -16152,9 +16799,6 @@
       <c r="BL141" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BM141" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="BN141" s="3" t="s">
         <v>0</v>
       </c>
@@ -16164,22 +16808,13 @@
       <c r="BP141" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="BQ141" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR141" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="BS141" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT141" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU141" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV141" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW141" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX141" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -16226,17 +16861,17 @@
       <c r="AD142" s="18"/>
       <c r="AE142" s="18"/>
       <c r="AF142" s="18"/>
-      <c r="AG142" s="18"/>
-      <c r="AH142" s="18"/>
+      <c r="AG142" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH142" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="AI142" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="AJ142" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK142" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="AJ142" s="18"/>
+      <c r="AK142" s="18"/>
       <c r="AL142" s="18"/>
       <c r="AM142" s="18"/>
       <c r="AN142" s="18"/>
@@ -16259,9 +16894,15 @@
       </c>
       <c r="BA142" s="18"/>
       <c r="BB142" s="18"/>
-      <c r="BC142" s="18"/>
-      <c r="BD142" s="18"/>
-      <c r="BE142" s="19"/>
+      <c r="BC142" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD142" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE142" s="19" t="s">
+        <v>0</v>
+      </c>
       <c r="BF142" s="19" t="s">
         <v>0</v>
       </c>
@@ -16283,34 +16924,28 @@
       <c r="BL142" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="BM142" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN142" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="BM142" s="18"/>
+      <c r="BN142" s="18"/>
       <c r="BO142" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="BP142" s="19"/>
-      <c r="BQ142" s="18"/>
-      <c r="BR142" s="18"/>
-      <c r="BS142" s="18"/>
-      <c r="BT142" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU142" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV142" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW142" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX142" s="19" t="s">
-        <v>0</v>
-      </c>
+      <c r="BP142" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ142" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR142" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS142" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT142" s="18"/>
+      <c r="BU142" s="18"/>
+      <c r="BV142" s="18"/>
+      <c r="BW142" s="18"/>
+      <c r="BX142" s="18"/>
       <c r="BY142" s="18"/>
       <c r="BZ142" s="18"/>
       <c r="CA142" s="18"/>
@@ -16344,13 +16979,13 @@
       <c r="Y143" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="AG143" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH143" s="17" t="s">
+        <v>0</v>
+      </c>
       <c r="AI143" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ143" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK143" s="17" t="s">
         <v>0</v>
       </c>
       <c r="AS143" s="14">
@@ -16365,6 +17000,15 @@
       <c r="AZ143" s="17" t="s">
         <v>0</v>
       </c>
+      <c r="BD143" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BE143" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF143" s="17" t="s">
+        <v>0</v>
+      </c>
       <c r="BG143" s="17" t="s">
         <v>0</v>
       </c>
@@ -16380,22 +17024,13 @@
       <c r="BK143" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="BL143" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="BM143" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN143" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV143" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW143" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX143" s="17" t="s">
+      <c r="BQ143" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR143" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS143" s="17" t="s">
         <v>0</v>
       </c>
     </row>
@@ -16427,13 +17062,13 @@
       <c r="Y144" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="AG144" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH144" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AI144" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ144" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK144" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AS144" s="14">
@@ -16448,28 +17083,28 @@
       <c r="AZ144" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="BE144" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BF144" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG144" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="BH144" s="3" t="s">
         <v>0</v>
       </c>
       <c r="BI144" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BJ144" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK144" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL144" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV144" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW144" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX144" s="3" t="s">
+      <c r="BQ144" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR144" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS144" s="3" t="s">
         <v>0</v>
       </c>
       <c r="CC144" s="3"/>
@@ -16502,13 +17137,13 @@
       <c r="Y145" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="AG145" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH145" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AI145" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ145" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK145" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AS145" s="14">
@@ -16523,22 +17158,22 @@
       <c r="AZ145" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BJ145" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK145" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL145" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV145" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW145" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX145" s="3" t="s">
+      <c r="BG145" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH145" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI145" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ145" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR145" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS145" s="3" t="s">
         <v>0</v>
       </c>
       <c r="CC145" s="3"/>
@@ -16571,13 +17206,13 @@
       <c r="Y146" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="AG146" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH146" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AI146" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ146" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK146" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AS146" s="14">
@@ -16592,22 +17227,22 @@
       <c r="AZ146" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BJ146" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK146" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL146" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BV146" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW146" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX146" s="3" t="s">
+      <c r="BG146" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH146" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI146" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ146" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR146" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS146" s="3" t="s">
         <v>0</v>
       </c>
       <c r="CC146" s="3"/>
@@ -16634,13 +17269,13 @@
       <c r="Y147" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="AG147" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH147" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AI147" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ147" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK147" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AS147" s="14">
@@ -16655,23 +17290,22 @@
       <c r="AZ147" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BJ147" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK147" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL147" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ147" s="3"/>
-      <c r="BV147" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW147" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX147" s="3" t="s">
+      <c r="BG147" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH147" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI147" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ147" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR147" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS147" s="3" t="s">
         <v>0</v>
       </c>
       <c r="CC147" s="3"/>
@@ -16698,13 +17332,13 @@
       <c r="Y148" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="AG148" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH148" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AI148" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ148" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK148" s="3" t="s">
         <v>0</v>
       </c>
       <c r="AS148" s="14">
@@ -16719,23 +17353,22 @@
       <c r="AZ148" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="BJ148" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK148" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL148" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BQ148" s="3"/>
-      <c r="BV148" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BW148" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX148" s="3" t="s">
+      <c r="BG148" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BH148" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BI148" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ148" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR148" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS148" s="3" t="s">
         <v>0</v>
       </c>
       <c r="CC148" s="3"/>
@@ -16860,15 +17493,15 @@
       </c>
       <c r="AB151" s="4" t="str">
         <f t="shared" si="38"/>
-        <v>0xF0,</v>
+        <v>0x00,</v>
       </c>
       <c r="AC151" s="4" t="str">
         <f t="shared" si="38"/>
-        <v>0xE0,</v>
+        <v>0xF8,</v>
       </c>
       <c r="AD151" s="4" t="str">
         <f t="shared" si="38"/>
-        <v>0x00,</v>
+        <v>0xFC,</v>
       </c>
       <c r="AE151" s="4" t="str">
         <f t="shared" si="38"/>
@@ -16876,15 +17509,15 @@
       </c>
       <c r="AF151" s="4" t="str">
         <f t="shared" si="38"/>
-        <v>0xFC,</v>
+        <v>0x00,</v>
       </c>
       <c r="AG151" s="4" t="str">
         <f t="shared" si="38"/>
-        <v>0xF8,</v>
+        <v>0xFE,</v>
       </c>
       <c r="AH151" s="4" t="str">
         <f t="shared" si="38"/>
-        <v>0x00,</v>
+        <v>0xFF,</v>
       </c>
       <c r="AI151" s="4" t="str">
         <f t="shared" si="38"/>
@@ -16892,15 +17525,15 @@
       </c>
       <c r="AJ151" s="4" t="str">
         <f t="shared" si="38"/>
-        <v>0xFF,</v>
+        <v>0x00,</v>
       </c>
       <c r="AK151" s="4" t="str">
         <f t="shared" si="38"/>
-        <v>0xFE,</v>
+        <v>0x80,</v>
       </c>
       <c r="AL151" s="4" t="str">
         <f t="shared" si="38"/>
-        <v>0x00,</v>
+        <v>0xC0,</v>
       </c>
       <c r="AM151" s="4" t="str">
         <f t="shared" si="38"/>
@@ -16908,11 +17541,11 @@
       </c>
       <c r="AN151" s="4" t="str">
         <f t="shared" si="38"/>
-        <v>0xC0,</v>
+        <v>0x00,</v>
       </c>
       <c r="AO151" s="4" t="str">
         <f t="shared" si="38"/>
-        <v>0x80,</v>
+        <v>0x00,</v>
       </c>
       <c r="AT151" s="4" t="str">
         <f>"0x"&amp;DEC2HEX((SUMIF(AT127:AT134,"&lt;&gt;",$A127:$A134)),2)&amp;","</f>
@@ -16968,27 +17601,27 @@
       </c>
       <c r="BG151" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>0x00,</v>
+        <v>0x80,</v>
       </c>
       <c r="BH151" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>0x00,</v>
+        <v>0xC0,</v>
       </c>
       <c r="BI151" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>0x00,</v>
+        <v>0x80,</v>
       </c>
       <c r="BJ151" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>0x80,</v>
+        <v>0x00,</v>
       </c>
       <c r="BK151" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>0xC0,</v>
+        <v>0x00,</v>
       </c>
       <c r="BL151" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>0x80,</v>
+        <v>0x00,</v>
       </c>
       <c r="BM151" s="4" t="str">
         <f t="shared" si="39"/>
@@ -16996,7 +17629,7 @@
       </c>
       <c r="BN151" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>0x00,</v>
+        <v>0x80,</v>
       </c>
       <c r="BO151" s="4" t="str">
         <f t="shared" si="39"/>
@@ -17008,15 +17641,15 @@
       </c>
       <c r="BQ151" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>0x00,</v>
+        <v>0xF8,</v>
       </c>
       <c r="BR151" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>0x00,</v>
+        <v>0xFC,</v>
       </c>
       <c r="BS151" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>0x80,</v>
+        <v>0xF8,</v>
       </c>
       <c r="BT151" s="4" t="str">
         <f t="shared" si="39"/>
@@ -17024,19 +17657,19 @@
       </c>
       <c r="BU151" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>0x00,</v>
+        <v>0xE0,</v>
       </c>
       <c r="BV151" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>0xF8,</v>
+        <v>0xF0,</v>
       </c>
       <c r="BW151" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>0xFC,</v>
+        <v>0xE0,</v>
       </c>
       <c r="BX151" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>0xF8,</v>
+        <v>0x00,</v>
       </c>
       <c r="BY151" s="4" t="str">
         <f t="shared" si="39"/>
@@ -17044,15 +17677,15 @@
       </c>
       <c r="BZ151" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>0xE0,</v>
+        <v>0x00,</v>
       </c>
       <c r="CA151" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>0xF0,</v>
+        <v>0x00,</v>
       </c>
       <c r="CB151" s="4" t="str">
         <f t="shared" si="39"/>
-        <v>0xE0,</v>
+        <v>0x00,</v>
       </c>
       <c r="CC151" s="3"/>
       <c r="CE151" s="3"/>
@@ -17143,31 +17776,31 @@
       </c>
       <c r="AB152" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>0x0F,</v>
+        <v>0x0E,</v>
       </c>
       <c r="AC152" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>0x07,</v>
+        <v>0x05,</v>
       </c>
       <c r="AD152" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>0x00,</v>
+        <v>0x03,</v>
       </c>
       <c r="AE152" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>0x01,</v>
+        <v>0x07,</v>
       </c>
       <c r="AF152" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>0x03,</v>
+        <v>0x07,</v>
       </c>
       <c r="AG152" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>0x07,</v>
+        <v>0xFF,</v>
       </c>
       <c r="AH152" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>0x07,</v>
+        <v>0xFF,</v>
       </c>
       <c r="AI152" s="4" t="str">
         <f t="shared" si="41"/>
@@ -17175,27 +17808,27 @@
       </c>
       <c r="AJ152" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>0xFF,</v>
+        <v>0x70,</v>
       </c>
       <c r="AK152" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>0xFF,</v>
+        <v>0x7F,</v>
       </c>
       <c r="AL152" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>0x70,</v>
+        <v>0x3F,</v>
       </c>
       <c r="AM152" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>0x7F,</v>
+        <v>0x1F,</v>
       </c>
       <c r="AN152" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>0x3F,</v>
+        <v>0x00,</v>
       </c>
       <c r="AO152" s="4" t="str">
         <f t="shared" si="41"/>
-        <v>0x1F,</v>
+        <v>0x00,</v>
       </c>
       <c r="AT152" s="4" t="str">
         <f>"0x"&amp;DEC2HEX((SUMIF(AT135:AT142,"&lt;&gt;",$A135:$A142)),2)&amp;","</f>
@@ -17231,111 +17864,111 @@
       </c>
       <c r="BB152" s="4" t="str">
         <f t="shared" si="42"/>
-        <v>0x7F,</v>
+        <v>0x07,</v>
       </c>
       <c r="BC152" s="4" t="str">
         <f t="shared" si="42"/>
-        <v>0x3F,</v>
+        <v>0xFB,</v>
       </c>
       <c r="BD152" s="4" t="str">
         <f t="shared" si="42"/>
-        <v>0x1F,</v>
+        <v>0xFD,</v>
       </c>
       <c r="BE152" s="4" t="str">
         <f t="shared" si="42"/>
-        <v>0x00,</v>
+        <v>0xF8,</v>
       </c>
       <c r="BF152" s="4" t="str">
         <f t="shared" si="42"/>
-        <v>0xF8,</v>
+        <v>0x80,</v>
       </c>
       <c r="BG152" s="4" t="str">
         <f t="shared" si="42"/>
-        <v>0xFC,</v>
+        <v>0xFF,</v>
       </c>
       <c r="BH152" s="4" t="str">
         <f t="shared" si="42"/>
-        <v>0xF8,</v>
+        <v>0xFF,</v>
       </c>
       <c r="BI152" s="4" t="str">
         <f t="shared" si="42"/>
-        <v>0x80,</v>
+        <v>0xFF,</v>
       </c>
       <c r="BJ152" s="4" t="str">
         <f t="shared" si="42"/>
-        <v>0xFF,</v>
+        <v>0xC0,</v>
       </c>
       <c r="BK152" s="4" t="str">
         <f t="shared" si="42"/>
-        <v>0xFF,</v>
+        <v>0xFC,</v>
       </c>
       <c r="BL152" s="4" t="str">
         <f t="shared" si="42"/>
-        <v>0xFF,</v>
+        <v>0xFE,</v>
       </c>
       <c r="BM152" s="4" t="str">
         <f t="shared" si="42"/>
-        <v>0xC0,</v>
+        <v>0x3D,</v>
       </c>
       <c r="BN152" s="4" t="str">
         <f t="shared" si="42"/>
-        <v>0xFC,</v>
+        <v>0x43,</v>
       </c>
       <c r="BO152" s="4" t="str">
         <f t="shared" si="42"/>
-        <v>0xFE,</v>
+        <v>0xFF,</v>
       </c>
       <c r="BP152" s="4" t="str">
         <f t="shared" si="42"/>
-        <v>0x7C,</v>
+        <v>0xE0,</v>
       </c>
       <c r="BQ152" s="4" t="str">
         <f t="shared" si="42"/>
-        <v>0x00,</v>
+        <v>0xFF,</v>
       </c>
       <c r="BR152" s="4" t="str">
         <f t="shared" si="42"/>
-        <v>0x3F,</v>
+        <v>0xFF,</v>
       </c>
       <c r="BS152" s="4" t="str">
         <f t="shared" si="42"/>
-        <v>0x7F,</v>
+        <v>0xFF,</v>
       </c>
       <c r="BT152" s="4" t="str">
         <f t="shared" si="42"/>
-        <v>0xFF,</v>
+        <v>0x1C,</v>
       </c>
       <c r="BU152" s="4" t="str">
         <f t="shared" si="42"/>
-        <v>0xE0,</v>
+        <v>0x1F,</v>
       </c>
       <c r="BV152" s="4" t="str">
         <f t="shared" si="42"/>
-        <v>0xFF,</v>
+        <v>0x0F,</v>
       </c>
       <c r="BW152" s="4" t="str">
         <f t="shared" si="42"/>
-        <v>0xFF,</v>
+        <v>0x07,</v>
       </c>
       <c r="BX152" s="4" t="str">
         <f t="shared" si="42"/>
-        <v>0xFF,</v>
+        <v>0x00,</v>
       </c>
       <c r="BY152" s="4" t="str">
         <f t="shared" si="42"/>
-        <v>0x1C,</v>
+        <v>0x00,</v>
       </c>
       <c r="BZ152" s="4" t="str">
         <f t="shared" si="42"/>
-        <v>0x1F,</v>
+        <v>0x00,</v>
       </c>
       <c r="CA152" s="4" t="str">
         <f t="shared" si="42"/>
-        <v>0x0F,</v>
+        <v>0x00,</v>
       </c>
       <c r="CB152" s="4" t="str">
         <f t="shared" si="42"/>
-        <v>0x07,</v>
+        <v>0x00,</v>
       </c>
       <c r="CC152" s="3"/>
       <c r="CE152" s="3"/>
@@ -17446,11 +18079,11 @@
       </c>
       <c r="AG153" s="4" t="str">
         <f t="shared" si="44"/>
-        <v>0x00,</v>
+        <v>0x3F,</v>
       </c>
       <c r="AH153" s="4" t="str">
         <f t="shared" si="44"/>
-        <v>0x00,</v>
+        <v>0x3F,</v>
       </c>
       <c r="AI153" s="4" t="str">
         <f t="shared" si="44"/>
@@ -17458,11 +18091,11 @@
       </c>
       <c r="AJ153" s="4" t="str">
         <f t="shared" si="44"/>
-        <v>0x3F,</v>
+        <v>0x00,</v>
       </c>
       <c r="AK153" s="4" t="str">
         <f t="shared" si="44"/>
-        <v>0x3F,</v>
+        <v>0x00,</v>
       </c>
       <c r="AL153" s="4" t="str">
         <f t="shared" si="44"/>
@@ -17522,47 +18155,47 @@
       </c>
       <c r="BD153" s="4" t="str">
         <f t="shared" si="45"/>
-        <v>0x00,</v>
+        <v>0x01,</v>
       </c>
       <c r="BE153" s="4" t="str">
         <f t="shared" si="45"/>
-        <v>0x00,</v>
+        <v>0x03,</v>
       </c>
       <c r="BF153" s="4" t="str">
         <f t="shared" si="45"/>
-        <v>0x00,</v>
+        <v>0x03,</v>
       </c>
       <c r="BG153" s="4" t="str">
         <f t="shared" si="45"/>
-        <v>0x01,</v>
+        <v>0x3F,</v>
       </c>
       <c r="BH153" s="4" t="str">
         <f t="shared" si="45"/>
-        <v>0x03,</v>
+        <v>0x3F,</v>
       </c>
       <c r="BI153" s="4" t="str">
         <f t="shared" si="45"/>
-        <v>0x03,</v>
+        <v>0x3F,</v>
       </c>
       <c r="BJ153" s="4" t="str">
         <f t="shared" si="45"/>
-        <v>0x3F,</v>
+        <v>0x01,</v>
       </c>
       <c r="BK153" s="4" t="str">
         <f t="shared" si="45"/>
-        <v>0x3F,</v>
+        <v>0x01,</v>
       </c>
       <c r="BL153" s="4" t="str">
         <f t="shared" si="45"/>
-        <v>0x3F,</v>
+        <v>0x00,</v>
       </c>
       <c r="BM153" s="4" t="str">
         <f t="shared" si="45"/>
-        <v>0x01,</v>
+        <v>0x00,</v>
       </c>
       <c r="BN153" s="4" t="str">
         <f t="shared" si="45"/>
-        <v>0x01,</v>
+        <v>0x00,</v>
       </c>
       <c r="BO153" s="4" t="str">
         <f t="shared" si="45"/>
@@ -17574,15 +18207,15 @@
       </c>
       <c r="BQ153" s="4" t="str">
         <f t="shared" si="45"/>
-        <v>0x00,</v>
+        <v>0x3F,</v>
       </c>
       <c r="BR153" s="4" t="str">
         <f t="shared" si="45"/>
-        <v>0x00,</v>
+        <v>0x3F,</v>
       </c>
       <c r="BS153" s="4" t="str">
         <f t="shared" si="45"/>
-        <v>0x00,</v>
+        <v>0x3F,</v>
       </c>
       <c r="BT153" s="4" t="str">
         <f t="shared" si="45"/>
@@ -17594,15 +18227,15 @@
       </c>
       <c r="BV153" s="4" t="str">
         <f t="shared" si="45"/>
-        <v>0x3F,</v>
+        <v>0x00,</v>
       </c>
       <c r="BW153" s="4" t="str">
         <f t="shared" si="45"/>
-        <v>0x3F,</v>
+        <v>0x00,</v>
       </c>
       <c r="BX153" s="4" t="str">
         <f t="shared" si="45"/>
-        <v>0x3F,</v>
+        <v>0x00,</v>
       </c>
       <c r="BY153" s="4" t="str">
         <f t="shared" si="45"/>
@@ -18055,9 +18688,8 @@
       <c r="D163" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E163" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="E163" s="3"/>
+      <c r="H163" s="3"/>
       <c r="P163" s="3"/>
       <c r="Q163" s="3"/>
       <c r="R163" s="3"/>
@@ -18081,6 +18713,9 @@
       <c r="C164" s="14">
         <v>6</v>
       </c>
+      <c r="G164" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="P164" s="3" t="s">
         <v>0</v>
       </c>
@@ -18097,9 +18732,7 @@
       <c r="C165" s="14">
         <v>7</v>
       </c>
-      <c r="H165" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="H165" s="3"/>
       <c r="I165" s="3" t="s">
         <v>0</v>
       </c>
@@ -18134,7 +18767,7 @@
       </c>
       <c r="E167" s="4" t="str">
         <f t="shared" ref="E167:AI167" si="46">"0x"&amp;DEC2HEX((SUMIF(E159:E166,"&lt;&gt;",$A159:$A166)),2)&amp;","</f>
-        <v>0x14,</v>
+        <v>0x04,</v>
       </c>
       <c r="F167" s="4" t="str">
         <f t="shared" si="46"/>
@@ -18142,11 +18775,11 @@
       </c>
       <c r="G167" s="4" t="str">
         <f t="shared" si="46"/>
-        <v>0x04,</v>
+        <v>0x24,</v>
       </c>
       <c r="H167" s="4" t="str">
         <f t="shared" si="46"/>
-        <v>0x44,</v>
+        <v>0x04,</v>
       </c>
       <c r="I167" s="4" t="str">
         <f t="shared" si="46"/>

--- a/Artwork/Artwork.xlsx
+++ b/Artwork/Artwork.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonholmes/Documents/GitHub/Steve/Artwork/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon.holmes\Documents\GitHub\Steve\Artwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14800" yWindow="1560" windowWidth="31480" windowHeight="23240" tabRatio="500"/>
+    <workbookView xWindow="14805" yWindow="1560" windowWidth="31485" windowHeight="23235" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1 (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="Artwork" sheetId="1" r:id="rId1"/>
+    <sheet name="Jump Coords" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="LDMAX">#REF!</definedName>
@@ -23,10 +24,10 @@
     <definedName name="LS_LR_MIN">#REF!</definedName>
     <definedName name="lSMIN">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -624,6 +625,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -893,17 +897,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:CL419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M65" workbookViewId="0">
-      <selection activeCell="BP108" sqref="BP108"/>
+    <sheetView tabSelected="1" topLeftCell="I63" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="AG82" sqref="AG82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="2.83203125" style="1"/>
+    <col min="2" max="16384" width="2.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="14"/>
       <c r="D2" s="14">
         <v>1</v>
@@ -1125,7 +1129,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1230,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1355,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1468,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>8</v>
       </c>
@@ -1589,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>16</v>
       </c>
@@ -1708,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>32</v>
       </c>
@@ -1833,7 +1837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>64</v>
       </c>
@@ -1910,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>128</v>
       </c>
@@ -2055,7 +2059,7 @@
       <c r="CE10" s="18"/>
       <c r="CF10" s="18"/>
     </row>
-    <row r="11" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -2144,7 +2148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -2245,7 +2249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -2394,7 +2398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>8</v>
       </c>
@@ -2555,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>16</v>
       </c>
@@ -2728,7 +2732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>32</v>
       </c>
@@ -2901,7 +2905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>64</v>
       </c>
@@ -3050,7 +3054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>128</v>
       </c>
@@ -3211,7 +3215,7 @@
       <c r="CE18" s="18"/>
       <c r="CF18" s="18"/>
     </row>
-    <row r="19" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -3312,7 +3316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -3386,7 +3390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -3436,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>8</v>
       </c>
@@ -3486,7 +3490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>16</v>
       </c>
@@ -3541,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>32</v>
       </c>
@@ -3558,7 +3562,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>64</v>
       </c>
@@ -3575,7 +3579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>128</v>
       </c>
@@ -3592,7 +3596,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D27" s="4" t="str">
         <f>"0x"&amp;DEC2HEX((SUMIF(D3:D10,"&lt;&gt;",$A3:$A10)),2)&amp;","</f>
         <v>0x00,</v>
@@ -3882,7 +3886,7 @@
         <v>0x3E,</v>
       </c>
     </row>
-    <row r="28" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D28" s="4" t="str">
         <f>"0x"&amp;DEC2HEX((SUMIF(D11:D18,"&lt;&gt;",$A11:$A18)),2)&amp;","</f>
         <v>0x3F,</v>
@@ -4172,7 +4176,7 @@
         <v>0x00,</v>
       </c>
     </row>
-    <row r="29" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D29" s="4" t="str">
         <f t="shared" ref="D29:U29" si="8">"0x"&amp;DEC2HEX((SUMIF(D19:D26,"&lt;&gt;",$A19:$A26)),2)&amp;","</f>
         <v>0x00,</v>
@@ -4462,7 +4466,7 @@
         <v>0x00,</v>
       </c>
     </row>
-    <row r="30" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -4536,11 +4540,11 @@
       <c r="CE30" s="4"/>
       <c r="CF30" s="4"/>
     </row>
-    <row r="31" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O31" s="3"/>
       <c r="AV31" s="3"/>
     </row>
-    <row r="32" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="14"/>
       <c r="D32" s="14">
         <v>1</v>
@@ -4707,7 +4711,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -4787,7 +4791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -4882,7 +4886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>4</v>
       </c>
@@ -4977,7 +4981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>8</v>
       </c>
@@ -5072,7 +5076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>16</v>
       </c>
@@ -5167,7 +5171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>32</v>
       </c>
@@ -5262,7 +5266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>64</v>
       </c>
@@ -5321,7 +5325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>128</v>
       </c>
@@ -5431,7 +5435,7 @@
       <c r="BJ40" s="18"/>
       <c r="BK40" s="18"/>
     </row>
-    <row r="41" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1</v>
       </c>
@@ -5499,7 +5503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -5576,7 +5580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>4</v>
       </c>
@@ -5689,7 +5693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>8</v>
       </c>
@@ -5811,7 +5815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>16</v>
       </c>
@@ -5942,7 +5946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>32</v>
       </c>
@@ -6073,7 +6077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>64</v>
       </c>
@@ -6186,7 +6190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>128</v>
       </c>
@@ -6308,7 +6312,7 @@
       <c r="BJ48" s="18"/>
       <c r="BK48" s="18"/>
     </row>
-    <row r="49" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1</v>
       </c>
@@ -6409,7 +6413,7 @@
       </c>
       <c r="BE49" s="23"/>
     </row>
-    <row r="50" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2</v>
       </c>
@@ -6495,7 +6499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>4</v>
       </c>
@@ -6575,7 +6579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>8</v>
       </c>
@@ -6661,7 +6665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>16</v>
       </c>
@@ -6747,7 +6751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>32</v>
       </c>
@@ -6809,7 +6813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>64</v>
       </c>
@@ -6823,7 +6827,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>128</v>
       </c>
@@ -6837,7 +6841,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D57" s="4" t="str">
         <f>"0x"&amp;DEC2HEX((SUMIF(D33:D40,"&lt;&gt;",$A33:$A40)),2)&amp;","</f>
         <v>0x00,</v>
@@ -7055,7 +7059,7 @@
         <v>0x3E,</v>
       </c>
     </row>
-    <row r="58" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D58" s="4" t="str">
         <f>"0x"&amp;DEC2HEX((SUMIF(D41:D48,"&lt;&gt;",$A41:$A48)),2)&amp;","</f>
         <v>0x3F,</v>
@@ -7273,7 +7277,7 @@
         <v>0x00,</v>
       </c>
     </row>
-    <row r="59" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D59" s="4" t="str">
         <f>"0x"&amp;DEC2HEX((SUMIF(D49:D56,"&lt;&gt;",$A49:$A56)),2)&amp;","</f>
         <v>0x00,</v>
@@ -7491,11 +7495,11 @@
         <v>0x00,</v>
       </c>
     </row>
-    <row r="60" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O60" s="16"/>
       <c r="AV60" s="16"/>
     </row>
-    <row r="62" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C62" s="14"/>
       <c r="D62" s="14">
         <v>1</v>
@@ -7734,7 +7738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>1</v>
       </c>
@@ -7807,7 +7811,7 @@
       <c r="CJ63" s="3"/>
       <c r="CK63" s="3"/>
     </row>
-    <row r="64" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2</v>
       </c>
@@ -7954,7 +7958,7 @@
       <c r="CK64" s="3"/>
       <c r="CL64" s="3"/>
     </row>
-    <row r="65" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>4</v>
       </c>
@@ -8146,7 +8150,7 @@
       <c r="CK65" s="3"/>
       <c r="CL65" s="3"/>
     </row>
-    <row r="66" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>8</v>
       </c>
@@ -8335,7 +8339,7 @@
       <c r="CK66" s="3"/>
       <c r="CL66" s="3"/>
     </row>
-    <row r="67" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>16</v>
       </c>
@@ -8506,7 +8510,7 @@
       <c r="CK67" s="3"/>
       <c r="CL67" s="3"/>
     </row>
-    <row r="68" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>32</v>
       </c>
@@ -8710,7 +8714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>64</v>
       </c>
@@ -8907,7 +8911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>128</v>
       </c>
@@ -9113,7 +9117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1</v>
       </c>
@@ -9262,7 +9266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>2</v>
       </c>
@@ -9390,7 +9394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>4</v>
       </c>
@@ -9510,7 +9514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>8</v>
       </c>
@@ -9600,7 +9604,7 @@
       <c r="CK74" s="23"/>
       <c r="CL74" s="23"/>
     </row>
-    <row r="75" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>16</v>
       </c>
@@ -9685,7 +9689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>32</v>
       </c>
@@ -9724,7 +9728,7 @@
       <c r="CI76" s="23"/>
       <c r="CJ76" s="23"/>
     </row>
-    <row r="77" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>64</v>
       </c>
@@ -9738,7 +9742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>128</v>
       </c>
@@ -9752,7 +9756,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D79" s="4" t="str">
         <f t="shared" ref="D79:AC79" si="21">"0x"&amp;DEC2HEX((SUMIF(D63:D70,"&lt;&gt;",$A63:$A70)),2)&amp;","</f>
         <v>0x07,</v>
@@ -10066,7 +10070,7 @@
         <v>0xC0,</v>
       </c>
     </row>
-    <row r="80" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D80" s="4" t="str">
         <f t="shared" ref="D80:AC80" si="24">"0x"&amp;DEC2HEX((SUMIF(D71:D78,"&lt;&gt;",$A71:$A78)),2)&amp;","</f>
         <v>0x00,</v>
@@ -10380,11 +10384,11 @@
         <v>0x07,</v>
       </c>
     </row>
-    <row r="81" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O81" s="16"/>
       <c r="AV81" s="16"/>
     </row>
-    <row r="83" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C83" s="14"/>
       <c r="D83" s="14">
         <v>1</v>
@@ -10623,7 +10627,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>1</v>
       </c>
@@ -10696,7 +10700,7 @@
       <c r="CJ84" s="3"/>
       <c r="CK84" s="3"/>
     </row>
-    <row r="85" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>2</v>
       </c>
@@ -10843,7 +10847,7 @@
       <c r="CK85" s="3"/>
       <c r="CL85" s="3"/>
     </row>
-    <row r="86" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>4</v>
       </c>
@@ -11039,7 +11043,7 @@
       <c r="CK86" s="3"/>
       <c r="CL86" s="3"/>
     </row>
-    <row r="87" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>8</v>
       </c>
@@ -11228,7 +11232,7 @@
       <c r="CK87" s="3"/>
       <c r="CL87" s="3"/>
     </row>
-    <row r="88" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>16</v>
       </c>
@@ -11399,7 +11403,7 @@
       <c r="CK88" s="3"/>
       <c r="CL88" s="3"/>
     </row>
-    <row r="89" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>32</v>
       </c>
@@ -11603,7 +11607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>64</v>
       </c>
@@ -11800,7 +11804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>128</v>
       </c>
@@ -12010,7 +12014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>1</v>
       </c>
@@ -12219,7 +12223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>2</v>
       </c>
@@ -12377,7 +12381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>4</v>
       </c>
@@ -12527,7 +12531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>8</v>
       </c>
@@ -12659,7 +12663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>16</v>
       </c>
@@ -12762,7 +12766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>32</v>
       </c>
@@ -12851,7 +12855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>64</v>
       </c>
@@ -12865,7 +12869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>128</v>
       </c>
@@ -12879,7 +12883,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D100" s="4" t="str">
         <f t="shared" ref="D100:AC100" si="27">"0x"&amp;DEC2HEX((SUMIF(D84:D91,"&lt;&gt;",$A84:$A91)),2)&amp;","</f>
         <v>0x07,</v>
@@ -13193,7 +13197,7 @@
         <v>0xC0,</v>
       </c>
     </row>
-    <row r="101" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D101" s="4" t="str">
         <f t="shared" ref="D101:AC101" si="30">"0x"&amp;DEC2HEX((SUMIF(D92:D99,"&lt;&gt;",$A92:$A99)),2)&amp;","</f>
         <v>0x00,</v>
@@ -13507,15 +13511,15 @@
         <v>0x0F,</v>
       </c>
     </row>
-    <row r="102" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O102" s="3"/>
       <c r="AV102" s="3"/>
     </row>
-    <row r="103" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O103" s="3"/>
       <c r="AV103" s="3"/>
     </row>
-    <row r="104" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C104" s="14"/>
       <c r="D104" s="14">
         <v>1</v>
@@ -13651,7 +13655,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>1</v>
       </c>
@@ -13670,7 +13674,7 @@
       </c>
       <c r="AR105" s="3"/>
     </row>
-    <row r="106" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>2</v>
       </c>
@@ -13699,7 +13703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>4</v>
       </c>
@@ -13734,7 +13738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>8</v>
       </c>
@@ -13780,7 +13784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>16</v>
       </c>
@@ -13839,7 +13843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>32</v>
       </c>
@@ -13936,7 +13940,7 @@
       </c>
       <c r="AW110" s="3"/>
     </row>
-    <row r="111" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>64</v>
       </c>
@@ -14001,7 +14005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>128</v>
       </c>
@@ -14117,7 +14121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:80" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:80" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>1</v>
       </c>
@@ -14199,7 +14203,7 @@
       <c r="BC113" s="17"/>
       <c r="BD113" s="17"/>
     </row>
-    <row r="114" spans="1:80" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:80" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>2</v>
       </c>
@@ -14286,7 +14290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:80" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:80" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>4</v>
       </c>
@@ -14368,7 +14372,7 @@
       <c r="BC115" s="3"/>
       <c r="BD115" s="3"/>
     </row>
-    <row r="116" spans="1:80" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:80" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>8</v>
       </c>
@@ -14407,7 +14411,7 @@
       <c r="AY116" s="3"/>
       <c r="AZ116" s="3"/>
     </row>
-    <row r="117" spans="1:80" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:80" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>16</v>
       </c>
@@ -14432,7 +14436,7 @@
       <c r="AS117" s="3"/>
       <c r="AT117" s="3"/>
     </row>
-    <row r="118" spans="1:80" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:80" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>32</v>
       </c>
@@ -14453,7 +14457,7 @@
       <c r="AR118" s="3"/>
       <c r="AS118" s="3"/>
     </row>
-    <row r="119" spans="1:80" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:80" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>64</v>
       </c>
@@ -14472,7 +14476,7 @@
       <c r="AQ119" s="3"/>
       <c r="AR119" s="3"/>
     </row>
-    <row r="120" spans="1:80" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:80" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>128</v>
       </c>
@@ -14489,7 +14493,7 @@
       <c r="AQ120" s="3"/>
       <c r="AR120" s="3"/>
     </row>
-    <row r="121" spans="1:80" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:80" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D121" s="4" t="str">
         <f>"0x"&amp;DEC2HEX((SUMIF(D105:D112,"&lt;&gt;",$A105:$A112)),2)&amp;","</f>
         <v>0x20,</v>
@@ -14667,7 +14671,7 @@
         <v>0x80,</v>
       </c>
     </row>
-    <row r="122" spans="1:80" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:80" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D122" s="4" t="str">
         <f>"0x"&amp;DEC2HEX((SUMIF(D113:D120,"&lt;&gt;",$A113:$A120)),2)&amp;","</f>
         <v>0x00,</v>
@@ -14845,7 +14849,7 @@
         <v>0x00,</v>
       </c>
     </row>
-    <row r="126" spans="1:80" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:80" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C126" s="14"/>
       <c r="D126" s="14">
         <v>1</v>
@@ -15057,7 +15061,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="1:80" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:80" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>1</v>
       </c>
@@ -15080,7 +15084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:80" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:80" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>2</v>
       </c>
@@ -15121,7 +15125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>4</v>
       </c>
@@ -15180,7 +15184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>8</v>
       </c>
@@ -15266,7 +15270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>16</v>
       </c>
@@ -15357,7 +15361,7 @@
       </c>
       <c r="CA131" s="3"/>
     </row>
-    <row r="132" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>32</v>
       </c>
@@ -15468,7 +15472,7 @@
       <c r="CA132" s="3"/>
       <c r="CB132" s="3"/>
     </row>
-    <row r="133" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>64</v>
       </c>
@@ -15593,7 +15597,7 @@
       <c r="CA133" s="3"/>
       <c r="CB133" s="3"/>
     </row>
-    <row r="134" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>128</v>
       </c>
@@ -15759,7 +15763,7 @@
       <c r="CA134" s="19"/>
       <c r="CB134" s="19"/>
     </row>
-    <row r="135" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>1</v>
       </c>
@@ -15928,7 +15932,7 @@
       <c r="CA135" s="17"/>
       <c r="CB135" s="17"/>
     </row>
-    <row r="136" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>2</v>
       </c>
@@ -16093,7 +16097,7 @@
       <c r="CA136" s="3"/>
       <c r="CB136" s="3"/>
     </row>
-    <row r="137" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>4</v>
       </c>
@@ -16257,7 +16261,7 @@
       <c r="CA137" s="3"/>
       <c r="CB137" s="3"/>
     </row>
-    <row r="138" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>8</v>
       </c>
@@ -16416,7 +16420,7 @@
       <c r="CA138" s="3"/>
       <c r="CB138" s="3"/>
     </row>
-    <row r="139" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>16</v>
       </c>
@@ -16564,7 +16568,7 @@
       <c r="BX139" s="3"/>
       <c r="BZ139" s="3"/>
     </row>
-    <row r="140" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>32</v>
       </c>
@@ -16703,7 +16707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>64</v>
       </c>
@@ -16818,7 +16822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>128</v>
       </c>
@@ -16951,7 +16955,7 @@
       <c r="CA142" s="18"/>
       <c r="CB142" s="18"/>
     </row>
-    <row r="143" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>1</v>
       </c>
@@ -17034,7 +17038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>2</v>
       </c>
@@ -17109,7 +17113,7 @@
       </c>
       <c r="CC144" s="3"/>
     </row>
-    <row r="145" spans="1:88" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:88" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>4</v>
       </c>
@@ -17178,7 +17182,7 @@
       </c>
       <c r="CC145" s="3"/>
     </row>
-    <row r="146" spans="1:88" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:88" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>8</v>
       </c>
@@ -17247,7 +17251,7 @@
       </c>
       <c r="CC146" s="3"/>
     </row>
-    <row r="147" spans="1:88" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:88" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>16</v>
       </c>
@@ -17310,7 +17314,7 @@
       </c>
       <c r="CC147" s="3"/>
     </row>
-    <row r="148" spans="1:88" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:88" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>32</v>
       </c>
@@ -17373,7 +17377,7 @@
       </c>
       <c r="CC148" s="3"/>
     </row>
-    <row r="149" spans="1:88" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:88" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>64</v>
       </c>
@@ -17389,7 +17393,7 @@
       <c r="CC149" s="3"/>
       <c r="CF149" s="3"/>
     </row>
-    <row r="150" spans="1:88" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:88" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>128</v>
       </c>
@@ -17409,7 +17413,7 @@
       <c r="CF150" s="3"/>
       <c r="CG150" s="3"/>
     </row>
-    <row r="151" spans="1:88" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:88" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D151" s="4" t="str">
         <f>"0x"&amp;DEC2HEX((SUMIF(D127:D134,"&lt;&gt;",$A127:$A134)),2)&amp;","</f>
         <v>0xC0,</v>
@@ -17692,7 +17696,7 @@
       <c r="CF151" s="3"/>
       <c r="CG151" s="3"/>
     </row>
-    <row r="152" spans="1:88" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:88" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D152" s="4" t="str">
         <f>"0x"&amp;DEC2HEX((SUMIF(D135:D142,"&lt;&gt;",$A135:$A142)),2)&amp;","</f>
         <v>0x0F,</v>
@@ -17975,7 +17979,7 @@
       <c r="CF152" s="3"/>
       <c r="CG152" s="3"/>
     </row>
-    <row r="153" spans="1:88" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:88" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D153" s="4" t="str">
         <f>"0x"&amp;DEC2HEX((SUMIF(D143:D150,"&lt;&gt;",$A143:$A150)),2)&amp;","</f>
         <v>0x00,</v>
@@ -18258,7 +18262,7 @@
       <c r="CF153" s="3"/>
       <c r="CG153" s="3"/>
     </row>
-    <row r="154" spans="1:88" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:88" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M154" s="3"/>
       <c r="P154" s="3"/>
       <c r="Q154" s="3"/>
@@ -18289,7 +18293,7 @@
       <c r="CI154" s="8"/>
       <c r="CJ154" s="8"/>
     </row>
-    <row r="155" spans="1:88" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:88" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L155" s="3"/>
       <c r="M155" s="3"/>
       <c r="N155" s="3"/>
@@ -18323,7 +18327,7 @@
       <c r="CF155" s="3"/>
       <c r="CG155" s="3"/>
     </row>
-    <row r="156" spans="1:88" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:88" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L156" s="3"/>
       <c r="M156" s="3"/>
       <c r="N156" s="3"/>
@@ -18350,7 +18354,7 @@
       <c r="CD156" s="3"/>
       <c r="CE156" s="3"/>
     </row>
-    <row r="157" spans="1:88" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:88" s="8" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
@@ -18405,7 +18409,7 @@
       <c r="CI157" s="1"/>
       <c r="CJ157" s="1"/>
     </row>
-    <row r="158" spans="1:88" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:88" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C158" s="14"/>
       <c r="D158" s="14">
         <v>1</v>
@@ -18510,7 +18514,7 @@
       <c r="CB158" s="3"/>
       <c r="CC158" s="3"/>
     </row>
-    <row r="159" spans="1:88" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:88" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>1</v>
       </c>
@@ -18531,7 +18535,7 @@
       <c r="CB159" s="3"/>
       <c r="CC159" s="3"/>
     </row>
-    <row r="160" spans="1:88" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:88" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>2</v>
       </c>
@@ -18551,7 +18555,7 @@
       <c r="CB160" s="3"/>
       <c r="CC160" s="3"/>
     </row>
-    <row r="161" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>4</v>
       </c>
@@ -18661,7 +18665,7 @@
       <c r="CB161" s="3"/>
       <c r="CC161" s="3"/>
     </row>
-    <row r="162" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>8</v>
       </c>
@@ -18678,7 +18682,7 @@
       <c r="CB162" s="3"/>
       <c r="CC162" s="3"/>
     </row>
-    <row r="163" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>16</v>
       </c>
@@ -18706,7 +18710,7 @@
       <c r="CB163" s="3"/>
       <c r="CC163" s="3"/>
     </row>
-    <row r="164" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>32</v>
       </c>
@@ -18725,7 +18729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>64</v>
       </c>
@@ -18749,7 +18753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>128</v>
       </c>
@@ -18760,7 +18764,7 @@
       <c r="Q166" s="3"/>
       <c r="R166" s="3"/>
     </row>
-    <row r="167" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D167" s="4" t="str">
         <f>"0x"&amp;DEC2HEX((SUMIF(D159:D166,"&lt;&gt;",$A159:$A166)),2)&amp;","</f>
         <v>0x14,</v>
@@ -18890,12 +18894,12 @@
         <v>0x04,</v>
       </c>
     </row>
-    <row r="168" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P168" s="3"/>
       <c r="Q168" s="3"/>
       <c r="R168" s="3"/>
     </row>
-    <row r="170" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C170" s="14"/>
       <c r="D170" s="14">
         <v>1</v>
@@ -18994,7 +18998,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="171" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>1</v>
       </c>
@@ -19014,7 +19018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>2</v>
       </c>
@@ -19034,7 +19038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>4</v>
       </c>
@@ -19122,7 +19126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>8</v>
       </c>
@@ -19136,7 +19140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>16</v>
       </c>
@@ -19159,7 +19163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>32</v>
       </c>
@@ -19179,7 +19183,7 @@
       <c r="R176" s="3"/>
       <c r="AF176" s="3"/>
     </row>
-    <row r="177" spans="1:35" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>64</v>
       </c>
@@ -19203,7 +19207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:35" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>128</v>
       </c>
@@ -19220,7 +19224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:35" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D179" s="4" t="str">
         <f t="shared" ref="D179" si="47">"0x"&amp;DEC2HEX((SUMIF(D171:D178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
         <v>0x04,</v>
@@ -19350,7 +19354,7 @@
         <v>0x04,</v>
       </c>
     </row>
-    <row r="182" spans="1:35" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C182" s="14"/>
       <c r="D182" s="14">
         <v>1</v>
@@ -19449,7 +19453,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="183" spans="1:35" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>1</v>
       </c>
@@ -19461,7 +19465,7 @@
       <c r="T183" s="3"/>
       <c r="U183" s="3"/>
     </row>
-    <row r="184" spans="1:35" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>2</v>
       </c>
@@ -19473,7 +19477,7 @@
       <c r="V184" s="3"/>
       <c r="W184" s="3"/>
     </row>
-    <row r="185" spans="1:35" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>4</v>
       </c>
@@ -19559,7 +19563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:35" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>8</v>
       </c>
@@ -19581,7 +19585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:35" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>16</v>
       </c>
@@ -19621,7 +19625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:35" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>32</v>
       </c>
@@ -19638,7 +19642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:35" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>64</v>
       </c>
@@ -19663,7 +19667,7 @@
       <c r="AE189" s="3"/>
       <c r="AF189" s="3"/>
     </row>
-    <row r="190" spans="1:35" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>128</v>
       </c>
@@ -19687,7 +19691,7 @@
       <c r="U190" s="3"/>
       <c r="V190" s="3"/>
     </row>
-    <row r="191" spans="1:35" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D191" s="4" t="str">
         <f t="shared" ref="D191" si="78">"0x"&amp;DEC2HEX((SUMIF(D183:D190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
         <v>0x84,</v>
@@ -19817,25 +19821,25 @@
         <v>0x04,</v>
       </c>
     </row>
-    <row r="217" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" spans="3:19" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" spans="3:19" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" spans="3:19" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" spans="3:19" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" spans="3:19" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" spans="3:19" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" spans="3:19" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" spans="3:19" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" spans="3:19" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" spans="3:19" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" spans="3:19" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" spans="3:19" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" spans="3:19" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" spans="3:19" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" spans="3:19" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" spans="3:19" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" spans="3:19" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" spans="3:19" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" spans="3:19" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" spans="3:19" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" spans="3:19" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" spans="3:19" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -19847,7 +19851,7 @@
       <c r="K235" s="3"/>
       <c r="L235" s="3"/>
     </row>
-    <row r="236" spans="3:19" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="3:19" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -19862,7 +19866,7 @@
       <c r="N236" s="3"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="3:19" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="3:19" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -19879,7 +19883,7 @@
       <c r="P237" s="3"/>
       <c r="Q237" s="3"/>
     </row>
-    <row r="238" spans="3:19" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="3:19" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -19897,7 +19901,7 @@
       <c r="Q238" s="3"/>
       <c r="R238" s="3"/>
     </row>
-    <row r="239" spans="3:19" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="3:19" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -19916,7 +19920,7 @@
       <c r="R239" s="3"/>
       <c r="S239" s="3"/>
     </row>
-    <row r="240" spans="3:19" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="3:19" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -19935,7 +19939,7 @@
       <c r="R240" s="3"/>
       <c r="S240" s="3"/>
     </row>
-    <row r="241" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -19955,7 +19959,7 @@
       <c r="S241" s="3"/>
       <c r="T241" s="3"/>
     </row>
-    <row r="242" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -19975,7 +19979,7 @@
       <c r="S242" s="3"/>
       <c r="T242" s="3"/>
     </row>
-    <row r="243" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -19995,7 +19999,7 @@
       <c r="S243" s="3"/>
       <c r="T243" s="3"/>
     </row>
-    <row r="244" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -20014,7 +20018,7 @@
       <c r="R244" s="3"/>
       <c r="S244" s="3"/>
     </row>
-    <row r="245" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -20033,7 +20037,7 @@
       <c r="R245" s="3"/>
       <c r="S245" s="3"/>
     </row>
-    <row r="246" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -20051,7 +20055,7 @@
       <c r="Q246" s="3"/>
       <c r="R246" s="3"/>
     </row>
-    <row r="247" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -20068,7 +20072,7 @@
       <c r="P247" s="3"/>
       <c r="Q247" s="3"/>
     </row>
-    <row r="248" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -20083,7 +20087,7 @@
       <c r="N248" s="3"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -20095,7 +20099,7 @@
       <c r="K249" s="3"/>
       <c r="L249" s="3"/>
     </row>
-    <row r="250" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -20107,7 +20111,7 @@
       <c r="K250" s="3"/>
       <c r="L250" s="3"/>
     </row>
-    <row r="251" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -20119,7 +20123,7 @@
       <c r="K251" s="3"/>
       <c r="L251" s="3"/>
     </row>
-    <row r="252" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -20134,7 +20138,7 @@
       <c r="N252" s="3"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -20151,7 +20155,7 @@
       <c r="P253" s="3"/>
       <c r="Q253" s="3"/>
     </row>
-    <row r="254" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -20169,7 +20173,7 @@
       <c r="Q254" s="3"/>
       <c r="R254" s="3"/>
     </row>
-    <row r="255" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -20188,7 +20192,7 @@
       <c r="R255" s="3"/>
       <c r="S255" s="3"/>
     </row>
-    <row r="256" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -20207,7 +20211,7 @@
       <c r="R256" s="3"/>
       <c r="S256" s="3"/>
     </row>
-    <row r="257" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -20227,7 +20231,7 @@
       <c r="S257" s="3"/>
       <c r="T257" s="3"/>
     </row>
-    <row r="258" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -20247,7 +20251,7 @@
       <c r="S258" s="3"/>
       <c r="T258" s="3"/>
     </row>
-    <row r="259" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -20267,7 +20271,7 @@
       <c r="S259" s="3"/>
       <c r="T259" s="3"/>
     </row>
-    <row r="260" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -20286,7 +20290,7 @@
       <c r="R260" s="3"/>
       <c r="S260" s="3"/>
     </row>
-    <row r="261" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -20305,7 +20309,7 @@
       <c r="R261" s="3"/>
       <c r="S261" s="3"/>
     </row>
-    <row r="262" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -20323,7 +20327,7 @@
       <c r="Q262" s="3"/>
       <c r="R262" s="3"/>
     </row>
-    <row r="263" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -20340,7 +20344,7 @@
       <c r="P263" s="3"/>
       <c r="Q263" s="3"/>
     </row>
-    <row r="264" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -20355,7 +20359,7 @@
       <c r="N264" s="3"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -20367,8 +20371,8 @@
       <c r="K265" s="3"/>
       <c r="L265" s="3"/>
     </row>
-    <row r="266" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C267" s="12" t="e">
         <f>"0x"&amp;DEC2HEX((SUMIF(C$235:C$242,"&lt;&gt;",#REF!)),2)&amp;","</f>
         <v>#REF!</v>
@@ -20442,7 +20446,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="268" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C268" s="12" t="e">
         <f>"0x"&amp;DEC2HEX((SUMIF(C$243:C$250,"&lt;&gt;",#REF!)),2)&amp;","</f>
         <v>#REF!</v>
@@ -20516,7 +20520,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="269" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C269" s="12" t="e">
         <f>"0x"&amp;DEC2HEX((SUMIF(C$251:C$258,"&lt;&gt;",#REF!)),2)&amp;","</f>
         <v>#REF!</v>
@@ -20590,7 +20594,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="270" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C270" s="12" t="e">
         <f>"0x"&amp;DEC2HEX((SUMIF(C$259:C$266,"&lt;&gt;",#REF!)),2)&amp;","</f>
         <v>#REF!</v>
@@ -20664,25 +20668,25 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="271" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" spans="4:16" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" spans="4:16" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" spans="4:16" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" spans="4:16" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E274" s="3"/>
     </row>
-    <row r="275" spans="4:16" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="4:16" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E275" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J275" s="3"/>
     </row>
-    <row r="276" spans="4:16" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="4:16" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E276" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J276" s="3"/>
     </row>
-    <row r="277" spans="4:16" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="4:16" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E277" s="3" t="s">
         <v>0</v>
       </c>
@@ -20691,7 +20695,7 @@
       </c>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="4:16" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="4:16" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D278" s="3"/>
       <c r="E278" s="3" t="s">
         <v>0</v>
@@ -20709,7 +20713,7 @@
       </c>
       <c r="P278" s="3"/>
     </row>
-    <row r="279" spans="4:16" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="4:16" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D279" s="3" t="s">
         <v>0</v>
       </c>
@@ -20732,7 +20736,7 @@
       </c>
       <c r="P279" s="3"/>
     </row>
-    <row r="280" spans="4:16" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="4:16" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E280" s="3" t="s">
         <v>0</v>
       </c>
@@ -20746,7 +20750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="4:16" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="4:16" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D281" s="3" t="s">
         <v>0</v>
       </c>
@@ -20765,7 +20769,7 @@
       </c>
       <c r="P281" s="3"/>
     </row>
-    <row r="282" spans="4:16" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="4:16" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D282" s="3" t="s">
         <v>0</v>
       </c>
@@ -20795,7 +20799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="4:16" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="4:16" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D283" s="3" t="s">
         <v>0</v>
       </c>
@@ -20814,7 +20818,7 @@
       </c>
       <c r="P283" s="3"/>
     </row>
-    <row r="284" spans="4:16" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="4:16" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E284" s="3" t="s">
         <v>0</v>
       </c>
@@ -20828,7 +20832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="4:16" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="4:16" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D285" s="3" t="s">
         <v>0</v>
       </c>
@@ -20851,7 +20855,7 @@
       </c>
       <c r="P285" s="3"/>
     </row>
-    <row r="286" spans="4:16" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="4:16" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D286" s="3"/>
       <c r="E286" s="3" t="s">
         <v>0</v>
@@ -20869,7 +20873,7 @@
       </c>
       <c r="P286" s="3"/>
     </row>
-    <row r="287" spans="4:16" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="4:16" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E287" s="3" t="s">
         <v>0</v>
       </c>
@@ -20878,29 +20882,29 @@
       </c>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="4:16" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="4:16" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E288" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J288" s="3"/>
     </row>
-    <row r="289" spans="3:35" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="3:35" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E289" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J289" s="3"/>
     </row>
-    <row r="290" spans="3:35" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="3:35" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E290" s="3"/>
     </row>
-    <row r="291" spans="3:35" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" spans="3:35" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" spans="3:35" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" spans="3:35" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" spans="3:35" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" spans="3:35" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" spans="3:35" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" spans="3:35" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="3:35" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" spans="3:35" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" spans="3:35" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" spans="3:35" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" spans="3:35" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" spans="3:35" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" spans="3:35" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" spans="3:35" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C298" s="12" t="e">
         <f>"0x"&amp;DEC2HEX((SUMIF(C$274:C$281,"&lt;&gt;",#REF!)),2)&amp;","</f>
         <v>#REF!</v>
@@ -20974,7 +20978,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="299" spans="3:35" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="3:35" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C299" s="12" t="e">
         <f>"0x"&amp;DEC2HEX((SUMIF(C$282:C$289,"&lt;&gt;",#REF!)),2)&amp;","</f>
         <v>#REF!</v>
@@ -21048,7 +21052,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="300" spans="3:35" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="3:35" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C300" s="12" t="e">
         <f>"0x"&amp;DEC2HEX((SUMIF(C$290:C$297,"&lt;&gt;",#REF!)),2)&amp;","</f>
         <v>#REF!</v>
@@ -21122,8 +21126,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="301" spans="3:35" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" spans="3:35" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="3:35" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" spans="3:35" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E302" s="9">
         <v>1</v>
       </c>
@@ -21179,7 +21183,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="303" spans="3:35" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="3:35" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E303" s="11"/>
       <c r="F303" s="11"/>
       <c r="G303" s="11"/>
@@ -21200,7 +21204,7 @@
       <c r="T303" s="11"/>
       <c r="U303" s="11"/>
     </row>
-    <row r="304" spans="3:35" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="3:35" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E304" s="7"/>
       <c r="F304" s="15"/>
       <c r="G304" s="15"/>
@@ -21228,7 +21232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="5:40" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="5:40" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E305" s="7"/>
       <c r="F305" s="6"/>
       <c r="G305" s="6"/>
@@ -21278,7 +21282,7 @@
       <c r="AL305" s="3"/>
       <c r="AM305" s="3"/>
     </row>
-    <row r="306" spans="5:40" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="5:40" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E306" s="7"/>
       <c r="F306" s="6"/>
       <c r="G306" s="5" t="s">
@@ -21332,7 +21336,7 @@
       <c r="AL306" s="3"/>
       <c r="AM306" s="3"/>
     </row>
-    <row r="307" spans="5:40" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="5:40" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E307" s="7"/>
       <c r="F307" s="5" t="s">
         <v>0</v>
@@ -21402,7 +21406,7 @@
       <c r="AL307" s="3"/>
       <c r="AM307" s="3"/>
     </row>
-    <row r="308" spans="5:40" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="5:40" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E308" s="5" t="s">
         <v>0</v>
       </c>
@@ -21492,7 +21496,7 @@
       <c r="AL308" s="3"/>
       <c r="AM308" s="3"/>
     </row>
-    <row r="309" spans="5:40" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="5:40" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E309" s="7"/>
       <c r="F309" s="5" t="s">
         <v>0</v>
@@ -21572,7 +21576,7 @@
       <c r="AL309" s="3"/>
       <c r="AM309" s="3"/>
     </row>
-    <row r="310" spans="5:40" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="5:40" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E310" s="7"/>
       <c r="F310" s="5" t="s">
         <v>0</v>
@@ -21642,7 +21646,7 @@
       <c r="AL310" s="3"/>
       <c r="AM310" s="3"/>
     </row>
-    <row r="311" spans="5:40" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="5:40" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E311" s="7"/>
       <c r="F311" s="5" t="s">
         <v>0</v>
@@ -21722,7 +21726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="5:40" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="5:40" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E312" s="7"/>
       <c r="F312" s="5" t="s">
         <v>0</v>
@@ -21814,7 +21818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="5:40" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="5:40" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E313" s="7"/>
       <c r="F313" s="5" t="s">
         <v>0</v>
@@ -21896,7 +21900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="5:40" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="5:40" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E314" s="7"/>
       <c r="F314" s="5" t="s">
         <v>0</v>
@@ -21966,7 +21970,7 @@
       <c r="AL314" s="3"/>
       <c r="AM314" s="3"/>
     </row>
-    <row r="315" spans="5:40" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="5:40" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E315" s="7"/>
       <c r="F315" s="5" t="s">
         <v>0</v>
@@ -22046,7 +22050,7 @@
       <c r="AL315" s="3"/>
       <c r="AM315" s="3"/>
     </row>
-    <row r="316" spans="5:40" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="5:40" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E316" s="5" t="s">
         <v>0</v>
       </c>
@@ -22136,7 +22140,7 @@
       <c r="AL316" s="3"/>
       <c r="AM316" s="3"/>
     </row>
-    <row r="317" spans="5:40" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="5:40" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E317" s="7"/>
       <c r="F317" s="5" t="s">
         <v>0</v>
@@ -22206,7 +22210,7 @@
       <c r="AL317" s="3"/>
       <c r="AM317" s="3"/>
     </row>
-    <row r="318" spans="5:40" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="5:40" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E318" s="7"/>
       <c r="F318" s="6"/>
       <c r="G318" s="5" t="s">
@@ -22260,7 +22264,7 @@
       <c r="AL318" s="3"/>
       <c r="AM318" s="3"/>
     </row>
-    <row r="319" spans="5:40" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="5:40" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E319" s="7"/>
       <c r="F319" s="6"/>
       <c r="G319" s="6"/>
@@ -22310,7 +22314,7 @@
       <c r="AL319" s="3"/>
       <c r="AM319" s="3"/>
     </row>
-    <row r="320" spans="5:40" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="5:40" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E320" s="11"/>
       <c r="F320" s="6"/>
       <c r="G320" s="6"/>
@@ -22352,17 +22356,17 @@
       <c r="AL320" s="3"/>
       <c r="AM320" s="3"/>
     </row>
-    <row r="321" spans="3:41" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="3:41" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P321" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="3:41" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" spans="3:41" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" spans="3:41" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" spans="3:41" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" spans="3:41" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" spans="3:41" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="3:41" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" spans="3:41" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" spans="3:41" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" spans="3:41" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" spans="3:41" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" spans="3:41" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C327" s="12" t="e">
         <f>"0x"&amp;DEC2HEX((SUMIF(C$303:C$310,"&lt;&gt;",#REF!)),2)&amp;","</f>
         <v>#REF!</v>
@@ -22516,7 +22520,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="328" spans="3:41" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="3:41" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C328" s="12" t="e">
         <f>"0x"&amp;DEC2HEX((SUMIF(C$311:C$318,"&lt;&gt;",#REF!)),2)&amp;","</f>
         <v>#REF!</v>
@@ -22670,7 +22674,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="329" spans="3:41" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="3:41" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C329" s="12" t="e">
         <f>"0x"&amp;DEC2HEX((SUMIF(C$319:C$326,"&lt;&gt;",#REF!)),2)&amp;","</f>
         <v>#REF!</v>
@@ -22824,35 +22828,35 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="330" spans="3:41" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" spans="3:41" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" spans="3:41" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" spans="3:41" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" spans="3:41" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" spans="3:41" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" spans="3:41" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="3:41" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" spans="3:41" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" spans="3:41" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" spans="3:41" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" spans="3:41" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" spans="3:41" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" spans="3:41" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C358" s="12" t="e">
         <f>"0x"&amp;DEC2HEX((SUMIF(C$303:C$310,"&lt;&gt;",#REF!)),2)&amp;","</f>
         <v>#REF!</v>
@@ -22926,7 +22930,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="359" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C359" s="12" t="e">
         <f>"0x"&amp;DEC2HEX((SUMIF(C$311:C$318,"&lt;&gt;",#REF!)),2)&amp;","</f>
         <v>#REF!</v>
@@ -23000,7 +23004,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="360" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C360" s="12" t="e">
         <f>"0x"&amp;DEC2HEX((SUMIF(C$319:C$326,"&lt;&gt;",#REF!)),2)&amp;","</f>
         <v>#REF!</v>
@@ -23074,12 +23078,12 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="361" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C366" s="9">
         <v>80</v>
       </c>
@@ -23333,7 +23337,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="367" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C367" s="13"/>
       <c r="BC367" s="10"/>
       <c r="BM367" s="3" t="s">
@@ -23347,7 +23351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C368" s="13"/>
       <c r="D368" s="2"/>
       <c r="E368" s="13"/>
@@ -23362,7 +23366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T369" s="3" t="s">
         <v>0</v>
       </c>
@@ -23393,7 +23397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="T370" s="3" t="s">
         <v>0</v>
       </c>
@@ -23425,7 +23429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C371" s="11"/>
       <c r="E371" s="3" t="s">
         <v>0</v>
@@ -23485,7 +23489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C372" s="3" t="s">
         <v>0</v>
       </c>
@@ -23563,7 +23567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C373" s="3" t="s">
         <v>0</v>
       </c>
@@ -23634,7 +23638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C374" s="3" t="s">
         <v>0</v>
       </c>
@@ -23707,7 +23711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C375" s="3"/>
       <c r="F375" s="3" t="s">
         <v>0</v>
@@ -23777,7 +23781,7 @@
       </c>
       <c r="BT375" s="10"/>
     </row>
-    <row r="376" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
@@ -23818,7 +23822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
       <c r="F377" s="3"/>
@@ -23868,7 +23872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C378" s="2"/>
       <c r="E378" s="2"/>
       <c r="BC378" s="10"/>
@@ -23883,7 +23887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C379" s="2"/>
       <c r="E379" s="2"/>
       <c r="BC379" s="10"/>
@@ -23895,7 +23899,7 @@
       </c>
       <c r="BT379" s="10"/>
     </row>
-    <row r="380" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C380" s="13"/>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
@@ -23911,7 +23915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="BC381" s="10"/>
       <c r="BE381" s="3" t="s">
         <v>0</v>
@@ -23927,7 +23931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C382" s="2"/>
       <c r="D382" s="13"/>
       <c r="E382" s="13"/>
@@ -23941,17 +23945,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C383" s="2"/>
       <c r="D383" s="13"/>
       <c r="E383" s="13"/>
       <c r="F383" s="13"/>
     </row>
-    <row r="384" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH388" s="2"/>
       <c r="AI388" s="2"/>
       <c r="AJ388" s="2"/>
@@ -23967,7 +23971,7 @@
       <c r="AT388" s="13"/>
       <c r="BD388" s="3"/>
     </row>
-    <row r="389" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH389" s="3"/>
       <c r="AI389" s="3"/>
       <c r="AJ389" s="3"/>
@@ -23983,7 +23987,7 @@
       <c r="AT389" s="13"/>
       <c r="BD389" s="3"/>
     </row>
-    <row r="390" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH390" s="3"/>
       <c r="AI390" s="3"/>
       <c r="AJ390" s="3"/>
@@ -24008,7 +24012,7 @@
       <c r="BI390" s="3"/>
       <c r="BJ390" s="13"/>
     </row>
-    <row r="391" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C391" s="12" t="e">
         <f>"0x"&amp;DEC2HEX((SUMIF(C$367:C$374,"&lt;&gt;",#REF!)),2)&amp;","</f>
         <v>#REF!</v>
@@ -24354,7 +24358,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="392" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C392" s="12" t="e">
         <f>"0x"&amp;DEC2HEX((SUMIF(C$375:C$382,"&lt;&gt;",#REF!)),2)&amp;","</f>
         <v>#REF!</v>
@@ -24700,7 +24704,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="393" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C393" s="12" t="e">
         <f>"0x"&amp;DEC2HEX((SUMIF(C$383:C$390,"&lt;&gt;",#REF!)),2)&amp;","</f>
         <v>#REF!</v>
@@ -25046,7 +25050,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="394" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH394" s="3"/>
       <c r="AI394" s="3"/>
       <c r="AJ394" s="3"/>
@@ -25074,7 +25078,7 @@
       <c r="BI394" s="3"/>
       <c r="BJ394" s="3"/>
     </row>
-    <row r="395" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH395" s="13"/>
       <c r="AI395" s="2"/>
       <c r="AJ395" s="2"/>
@@ -25088,7 +25092,7 @@
       <c r="AV395" s="3"/>
       <c r="BB395" s="3"/>
     </row>
-    <row r="396" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH396" s="2"/>
       <c r="AI396" s="2"/>
       <c r="AJ396" s="2"/>
@@ -25104,7 +25108,7 @@
       <c r="AX396" s="3"/>
       <c r="BB396" s="3"/>
     </row>
-    <row r="397" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH397" s="13"/>
       <c r="AI397" s="2"/>
       <c r="AJ397" s="2"/>
@@ -25124,7 +25128,7 @@
       <c r="BA397" s="3"/>
       <c r="BB397" s="11"/>
     </row>
-    <row r="398" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AH398" s="13"/>
       <c r="AI398" s="2"/>
       <c r="AJ398" s="2"/>
@@ -25139,9 +25143,9 @@
       <c r="AS398" s="13"/>
       <c r="AT398" s="13"/>
     </row>
-    <row r="399" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" spans="10:57" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" spans="10:57" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J401" s="13"/>
       <c r="K401" s="13"/>
       <c r="L401" s="13"/>
@@ -25154,7 +25158,7 @@
       <c r="S401" s="13"/>
       <c r="T401" s="13"/>
     </row>
-    <row r="402" spans="10:57" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="10:57" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J402" s="2"/>
       <c r="K402" s="13"/>
       <c r="L402" s="2"/>
@@ -25170,11 +25174,11 @@
       <c r="V402" s="13"/>
       <c r="W402" s="13"/>
     </row>
-    <row r="403" spans="10:57" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="10:57" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J403" s="2"/>
       <c r="AL403" s="3"/>
     </row>
-    <row r="404" spans="10:57" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="10:57" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J404" s="3"/>
       <c r="AL404" s="3"/>
       <c r="AX404" s="3"/>
@@ -25182,7 +25186,7 @@
       <c r="BC404" s="3"/>
       <c r="BD404" s="3"/>
     </row>
-    <row r="405" spans="10:57" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="10:57" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J405" s="3"/>
       <c r="L405" s="3"/>
       <c r="M405" s="3"/>
@@ -25216,7 +25220,7 @@
       <c r="BD405" s="3"/>
       <c r="BE405" s="3"/>
     </row>
-    <row r="406" spans="10:57" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="10:57" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J406" s="3"/>
       <c r="L406" s="3"/>
       <c r="M406" s="3"/>
@@ -25245,7 +25249,7 @@
       <c r="BC406" s="3"/>
       <c r="BE406" s="3"/>
     </row>
-    <row r="407" spans="10:57" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="10:57" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J407" s="3"/>
       <c r="L407" s="3"/>
       <c r="M407" s="3"/>
@@ -25280,7 +25284,7 @@
       <c r="BD407" s="3"/>
       <c r="BE407" s="3"/>
     </row>
-    <row r="408" spans="10:57" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="10:57" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J408" s="3"/>
       <c r="L408" s="3"/>
       <c r="M408" s="3"/>
@@ -25308,7 +25312,7 @@
       <c r="BC408" s="3"/>
       <c r="BE408" s="3"/>
     </row>
-    <row r="409" spans="10:57" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="10:57" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J409" s="3"/>
       <c r="L409" s="3"/>
       <c r="M409" s="3"/>
@@ -25341,22 +25345,644 @@
       <c r="BD409" s="3"/>
       <c r="BE409" s="3"/>
     </row>
-    <row r="410" spans="10:57" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="10:57" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J410" s="2"/>
     </row>
-    <row r="411" spans="10:57" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="10:57" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J411" s="2"/>
     </row>
-    <row r="412" spans="10:57" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" spans="10:57" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" spans="10:57" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" spans="10:57" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" spans="10:57" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" spans="10:57" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" spans="10:57" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" spans="10:57" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" spans="10:57" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" spans="10:57" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AS52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="U15">
+        <f>$A15</f>
+        <v>15</v>
+      </c>
+      <c r="V15">
+        <f>$A15</f>
+        <v>15</v>
+      </c>
+      <c r="W15">
+        <f>$A15</f>
+        <v>15</v>
+      </c>
+      <c r="X15">
+        <f>$A15</f>
+        <v>15</v>
+      </c>
+      <c r="Y15">
+        <f>$A15</f>
+        <v>15</v>
+      </c>
+      <c r="Z15">
+        <f>$A15</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="R16">
+        <f>$A16</f>
+        <v>16</v>
+      </c>
+      <c r="S16">
+        <f>$A16</f>
+        <v>16</v>
+      </c>
+      <c r="T16">
+        <f>$A16</f>
+        <v>16</v>
+      </c>
+      <c r="AA16">
+        <f>$A16</f>
+        <v>16</v>
+      </c>
+      <c r="AB16">
+        <f>$A16</f>
+        <v>16</v>
+      </c>
+      <c r="AC16">
+        <f>$A16</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="O17">
+        <f>$A17</f>
+        <v>17</v>
+      </c>
+      <c r="P17">
+        <f>$A17</f>
+        <v>17</v>
+      </c>
+      <c r="Q17">
+        <f>$A17</f>
+        <v>17</v>
+      </c>
+      <c r="AD17">
+        <f>$A17</f>
+        <v>17</v>
+      </c>
+      <c r="AE17">
+        <f>$A17</f>
+        <v>17</v>
+      </c>
+      <c r="AF17">
+        <f>$A17</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="M18">
+        <f>$A18</f>
+        <v>18</v>
+      </c>
+      <c r="N18">
+        <f>$A18</f>
+        <v>18</v>
+      </c>
+      <c r="AG18">
+        <f>$A18</f>
+        <v>18</v>
+      </c>
+      <c r="AH18">
+        <f>$A18</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="L19">
+        <f>$A19</f>
+        <v>19</v>
+      </c>
+      <c r="AI19">
+        <f>$A19</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="K20">
+        <f>$A20</f>
+        <v>20</v>
+      </c>
+      <c r="AJ20">
+        <f>$A20</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="J21">
+        <f>$A21</f>
+        <v>21</v>
+      </c>
+      <c r="AK21">
+        <f>$A21</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="I23">
+        <f>$A23</f>
+        <v>23</v>
+      </c>
+      <c r="AL23">
+        <f>$A23</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="H25">
+        <f>$A25</f>
+        <v>25</v>
+      </c>
+      <c r="AM25">
+        <f>$A25</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="G27">
+        <f>$A27</f>
+        <v>27</v>
+      </c>
+      <c r="AN27">
+        <f>$A27</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="F30">
+        <f>$A30</f>
+        <v>30</v>
+      </c>
+      <c r="AO30">
+        <f>$A30</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="E33">
+        <f>$A33</f>
+        <v>33</v>
+      </c>
+      <c r="AP33">
+        <f>$A33</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="D37">
+        <f>$A37</f>
+        <v>37</v>
+      </c>
+      <c r="AQ37">
+        <f>$A37</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <f>$A41</f>
+        <v>41</v>
+      </c>
+      <c r="AR41">
+        <f>$A41</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <f>$A45</f>
+        <v>45</v>
+      </c>
+      <c r="AS45">
+        <f>$A45</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="B52" t="str">
+        <f>CONCATENATE(TEXT(MAX(B1:B51),0), ", ")</f>
+        <v xml:space="preserve">45, </v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" ref="C52:AS52" si="0">CONCATENATE(TEXT(MAX(C1:C51),0), ", ")</f>
+        <v xml:space="preserve">41, </v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">37, </v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">33, </v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">30, </v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">27, </v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">25, </v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">23, </v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">21, </v>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">20, </v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">19, </v>
+      </c>
+      <c r="M52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">18, </v>
+      </c>
+      <c r="N52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">18, </v>
+      </c>
+      <c r="O52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">17, </v>
+      </c>
+      <c r="P52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">17, </v>
+      </c>
+      <c r="Q52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">17, </v>
+      </c>
+      <c r="R52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">16, </v>
+      </c>
+      <c r="S52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">16, </v>
+      </c>
+      <c r="T52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">16, </v>
+      </c>
+      <c r="U52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">15, </v>
+      </c>
+      <c r="V52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">15, </v>
+      </c>
+      <c r="W52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">15, </v>
+      </c>
+      <c r="X52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">15, </v>
+      </c>
+      <c r="Y52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">15, </v>
+      </c>
+      <c r="Z52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">15, </v>
+      </c>
+      <c r="AA52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">16, </v>
+      </c>
+      <c r="AB52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">16, </v>
+      </c>
+      <c r="AC52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">16, </v>
+      </c>
+      <c r="AD52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">17, </v>
+      </c>
+      <c r="AE52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">17, </v>
+      </c>
+      <c r="AF52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">17, </v>
+      </c>
+      <c r="AG52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">18, </v>
+      </c>
+      <c r="AH52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">18, </v>
+      </c>
+      <c r="AI52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">19, </v>
+      </c>
+      <c r="AJ52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">20, </v>
+      </c>
+      <c r="AK52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">21, </v>
+      </c>
+      <c r="AL52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">23, </v>
+      </c>
+      <c r="AM52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">25, </v>
+      </c>
+      <c r="AN52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">27, </v>
+      </c>
+      <c r="AO52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">30, </v>
+      </c>
+      <c r="AP52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">33, </v>
+      </c>
+      <c r="AQ52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">37, </v>
+      </c>
+      <c r="AR52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">41, </v>
+      </c>
+      <c r="AS52" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">45, </v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Artwork/Artwork.xlsx
+++ b/Artwork/Artwork.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon.holmes\Documents\GitHub\Steve\Artwork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonholmes/Documents/GitHub/Steve/Artwork/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14805" yWindow="1560" windowWidth="31485" windowHeight="23235" tabRatio="500"/>
+    <workbookView xWindow="14800" yWindow="1560" windowWidth="31480" windowHeight="23240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Artwork" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="LS_LR_MIN">#REF!</definedName>
     <definedName name="lSMIN">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -632,6 +632,66 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>86591</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Arc 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="772391" y="5930900"/>
+          <a:ext cx="11521209" cy="16865600"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 10957584"/>
+            <a:gd name="adj2" fmla="val 170200"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -901,13 +961,13 @@
       <selection activeCell="AG82" sqref="AG82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="2.875" style="1"/>
+    <col min="2" max="16384" width="2.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="14"/>
       <c r="D2" s="14">
         <v>1</v>
@@ -1129,7 +1189,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1234,7 +1294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1359,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1472,7 +1532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>8</v>
       </c>
@@ -1593,7 +1653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>16</v>
       </c>
@@ -1712,7 +1772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>32</v>
       </c>
@@ -1837,7 +1897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>64</v>
       </c>
@@ -1914,7 +1974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>128</v>
       </c>
@@ -2059,7 +2119,7 @@
       <c r="CE10" s="18"/>
       <c r="CF10" s="18"/>
     </row>
-    <row r="11" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -2148,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -2249,7 +2309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -2398,7 +2458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>8</v>
       </c>
@@ -2559,7 +2619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>16</v>
       </c>
@@ -2732,7 +2792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>32</v>
       </c>
@@ -2905,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>64</v>
       </c>
@@ -3054,7 +3114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>128</v>
       </c>
@@ -3215,7 +3275,7 @@
       <c r="CE18" s="18"/>
       <c r="CF18" s="18"/>
     </row>
-    <row r="19" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -3316,7 +3376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -3390,7 +3450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -3440,7 +3500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>8</v>
       </c>
@@ -3490,7 +3550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>16</v>
       </c>
@@ -3545,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>32</v>
       </c>
@@ -3562,7 +3622,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>64</v>
       </c>
@@ -3579,7 +3639,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>128</v>
       </c>
@@ -3596,7 +3656,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D27" s="4" t="str">
         <f>"0x"&amp;DEC2HEX((SUMIF(D3:D10,"&lt;&gt;",$A3:$A10)),2)&amp;","</f>
         <v>0x00,</v>
@@ -3886,7 +3946,7 @@
         <v>0x3E,</v>
       </c>
     </row>
-    <row r="28" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D28" s="4" t="str">
         <f>"0x"&amp;DEC2HEX((SUMIF(D11:D18,"&lt;&gt;",$A11:$A18)),2)&amp;","</f>
         <v>0x3F,</v>
@@ -4176,7 +4236,7 @@
         <v>0x00,</v>
       </c>
     </row>
-    <row r="29" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D29" s="4" t="str">
         <f t="shared" ref="D29:U29" si="8">"0x"&amp;DEC2HEX((SUMIF(D19:D26,"&lt;&gt;",$A19:$A26)),2)&amp;","</f>
         <v>0x00,</v>
@@ -4466,7 +4526,7 @@
         <v>0x00,</v>
       </c>
     </row>
-    <row r="30" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -4540,11 +4600,11 @@
       <c r="CE30" s="4"/>
       <c r="CF30" s="4"/>
     </row>
-    <row r="31" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O31" s="3"/>
       <c r="AV31" s="3"/>
     </row>
-    <row r="32" spans="1:84" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="14"/>
       <c r="D32" s="14">
         <v>1</v>
@@ -4711,7 +4771,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -4791,7 +4851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -4886,7 +4946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>4</v>
       </c>
@@ -4981,7 +5041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>8</v>
       </c>
@@ -5076,7 +5136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>16</v>
       </c>
@@ -5171,7 +5231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>32</v>
       </c>
@@ -5266,7 +5326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>64</v>
       </c>
@@ -5325,7 +5385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>128</v>
       </c>
@@ -5435,7 +5495,7 @@
       <c r="BJ40" s="18"/>
       <c r="BK40" s="18"/>
     </row>
-    <row r="41" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>1</v>
       </c>
@@ -5503,7 +5563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -5580,7 +5640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>4</v>
       </c>
@@ -5693,7 +5753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>8</v>
       </c>
@@ -5815,7 +5875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>16</v>
       </c>
@@ -5946,7 +6006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>32</v>
       </c>
@@ -6077,7 +6137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>64</v>
       </c>
@@ -6190,7 +6250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:63" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:63" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>128</v>
       </c>
@@ -6312,7 +6372,7 @@
       <c r="BJ48" s="18"/>
       <c r="BK48" s="18"/>
     </row>
-    <row r="49" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>1</v>
       </c>
@@ -6413,7 +6473,7 @@
       </c>
       <c r="BE49" s="23"/>
     </row>
-    <row r="50" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>2</v>
       </c>
@@ -6499,7 +6559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>4</v>
       </c>
@@ -6579,7 +6639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>8</v>
       </c>
@@ -6665,7 +6725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>16</v>
       </c>
@@ -6751,7 +6811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>32</v>
       </c>
@@ -6813,7 +6873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>64</v>
       </c>
@@ -6827,7 +6887,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>128</v>
       </c>
@@ -6841,7 +6901,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D57" s="4" t="str">
         <f>"0x"&amp;DEC2HEX((SUMIF(D33:D40,"&lt;&gt;",$A33:$A40)),2)&amp;","</f>
         <v>0x00,</v>
@@ -7059,7 +7119,7 @@
         <v>0x3E,</v>
       </c>
     </row>
-    <row r="58" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D58" s="4" t="str">
         <f>"0x"&amp;DEC2HEX((SUMIF(D41:D48,"&lt;&gt;",$A41:$A48)),2)&amp;","</f>
         <v>0x3F,</v>
@@ -7277,7 +7337,7 @@
         <v>0x00,</v>
       </c>
     </row>
-    <row r="59" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D59" s="4" t="str">
         <f>"0x"&amp;DEC2HEX((SUMIF(D49:D56,"&lt;&gt;",$A49:$A56)),2)&amp;","</f>
         <v>0x00,</v>
@@ -7495,11 +7555,11 @@
         <v>0x00,</v>
       </c>
     </row>
-    <row r="60" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O60" s="16"/>
       <c r="AV60" s="16"/>
     </row>
-    <row r="62" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C62" s="14"/>
       <c r="D62" s="14">
         <v>1</v>
@@ -7738,7 +7798,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>1</v>
       </c>
@@ -7811,7 +7871,7 @@
       <c r="CJ63" s="3"/>
       <c r="CK63" s="3"/>
     </row>
-    <row r="64" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>2</v>
       </c>
@@ -7958,7 +8018,7 @@
       <c r="CK64" s="3"/>
       <c r="CL64" s="3"/>
     </row>
-    <row r="65" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>4</v>
       </c>
@@ -8150,7 +8210,7 @@
       <c r="CK65" s="3"/>
       <c r="CL65" s="3"/>
     </row>
-    <row r="66" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>8</v>
       </c>
@@ -8339,7 +8399,7 @@
       <c r="CK66" s="3"/>
       <c r="CL66" s="3"/>
     </row>
-    <row r="67" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>16</v>
       </c>
@@ -8510,7 +8570,7 @@
       <c r="CK67" s="3"/>
       <c r="CL67" s="3"/>
     </row>
-    <row r="68" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>32</v>
       </c>
@@ -8714,7 +8774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>64</v>
       </c>
@@ -8911,7 +8971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>128</v>
       </c>
@@ -9117,7 +9177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>1</v>
       </c>
@@ -9266,7 +9326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>2</v>
       </c>
@@ -9394,7 +9454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>4</v>
       </c>
@@ -9514,7 +9574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>8</v>
       </c>
@@ -9604,7 +9664,7 @@
       <c r="CK74" s="23"/>
       <c r="CL74" s="23"/>
     </row>
-    <row r="75" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>16</v>
       </c>
@@ -9689,7 +9749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>32</v>
       </c>
@@ -9728,7 +9788,7 @@
       <c r="CI76" s="23"/>
       <c r="CJ76" s="23"/>
     </row>
-    <row r="77" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>64</v>
       </c>
@@ -9742,7 +9802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>128</v>
       </c>
@@ -9756,7 +9816,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D79" s="4" t="str">
         <f t="shared" ref="D79:AC79" si="21">"0x"&amp;DEC2HEX((SUMIF(D63:D70,"&lt;&gt;",$A63:$A70)),2)&amp;","</f>
         <v>0x07,</v>
@@ -10070,7 +10130,7 @@
         <v>0xC0,</v>
       </c>
     </row>
-    <row r="80" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D80" s="4" t="str">
         <f t="shared" ref="D80:AC80" si="24">"0x"&amp;DEC2HEX((SUMIF(D71:D78,"&lt;&gt;",$A71:$A78)),2)&amp;","</f>
         <v>0x00,</v>
@@ -10384,11 +10444,11 @@
         <v>0x07,</v>
       </c>
     </row>
-    <row r="81" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O81" s="16"/>
       <c r="AV81" s="16"/>
     </row>
-    <row r="83" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C83" s="14"/>
       <c r="D83" s="14">
         <v>1</v>
@@ -10627,7 +10687,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="84" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>1</v>
       </c>
@@ -10700,7 +10760,7 @@
       <c r="CJ84" s="3"/>
       <c r="CK84" s="3"/>
     </row>
-    <row r="85" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>2</v>
       </c>
@@ -10847,7 +10907,7 @@
       <c r="CK85" s="3"/>
       <c r="CL85" s="3"/>
     </row>
-    <row r="86" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>4</v>
       </c>
@@ -11043,7 +11103,7 @@
       <c r="CK86" s="3"/>
       <c r="CL86" s="3"/>
     </row>
-    <row r="87" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>8</v>
       </c>
@@ -11232,7 +11292,7 @@
       <c r="CK87" s="3"/>
       <c r="CL87" s="3"/>
     </row>
-    <row r="88" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>16</v>
       </c>
@@ -11403,7 +11463,7 @@
       <c r="CK88" s="3"/>
       <c r="CL88" s="3"/>
     </row>
-    <row r="89" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>32</v>
       </c>
@@ -11607,7 +11667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>64</v>
       </c>
@@ -11804,7 +11864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>128</v>
       </c>
@@ -12014,7 +12074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>1</v>
       </c>
@@ -12223,7 +12283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>2</v>
       </c>
@@ -12381,7 +12441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>4</v>
       </c>
@@ -12531,7 +12591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>8</v>
       </c>
@@ -12663,7 +12723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>16</v>
       </c>
@@ -12766,7 +12826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>32</v>
       </c>
@@ -12855,7 +12915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>64</v>
       </c>
@@ -12869,7 +12929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>128</v>
       </c>
@@ -12883,7 +12943,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D100" s="4" t="str">
         <f t="shared" ref="D100:AC100" si="27">"0x"&amp;DEC2HEX((SUMIF(D84:D91,"&lt;&gt;",$A84:$A91)),2)&amp;","</f>
         <v>0x07,</v>
@@ -13197,7 +13257,7 @@
         <v>0xC0,</v>
       </c>
     </row>
-    <row r="101" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D101" s="4" t="str">
         <f t="shared" ref="D101:AC101" si="30">"0x"&amp;DEC2HEX((SUMIF(D92:D99,"&lt;&gt;",$A92:$A99)),2)&amp;","</f>
         <v>0x00,</v>
@@ -13511,15 +13571,15 @@
         <v>0x0F,</v>
       </c>
     </row>
-    <row r="102" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O102" s="3"/>
       <c r="AV102" s="3"/>
     </row>
-    <row r="103" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O103" s="3"/>
       <c r="AV103" s="3"/>
     </row>
-    <row r="104" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C104" s="14"/>
       <c r="D104" s="14">
         <v>1</v>
@@ -13655,7 +13715,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>1</v>
       </c>
@@ -13674,7 +13734,7 @@
       </c>
       <c r="AR105" s="3"/>
     </row>
-    <row r="106" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>2</v>
       </c>
@@ -13703,7 +13763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>4</v>
       </c>
@@ -13738,7 +13798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>8</v>
       </c>
@@ -13784,7 +13844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>16</v>
       </c>
@@ -13843,7 +13903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>32</v>
       </c>
@@ -13940,7 +14000,7 @@
       </c>
       <c r="AW110" s="3"/>
     </row>
-    <row r="111" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>64</v>
       </c>
@@ -14005,7 +14065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:90" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:90" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>128</v>
       </c>
@@ -14121,7 +14181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:80" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:80" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>1</v>
       </c>
@@ -14203,7 +14263,7 @@
       <c r="BC113" s="17"/>
       <c r="BD113" s="17"/>
     </row>
-    <row r="114" spans="1:80" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:80" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>2</v>
       </c>
@@ -14290,7 +14350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:80" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:80" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>4</v>
       </c>
@@ -14372,7 +14432,7 @@
       <c r="BC115" s="3"/>
       <c r="BD115" s="3"/>
     </row>
-    <row r="116" spans="1:80" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:80" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>8</v>
       </c>
@@ -14411,7 +14471,7 @@
       <c r="AY116" s="3"/>
       <c r="AZ116" s="3"/>
     </row>
-    <row r="117" spans="1:80" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:80" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>16</v>
       </c>
@@ -14436,7 +14496,7 @@
       <c r="AS117" s="3"/>
       <c r="AT117" s="3"/>
     </row>
-    <row r="118" spans="1:80" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:80" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>32</v>
       </c>
@@ -14457,7 +14517,7 @@
       <c r="AR118" s="3"/>
       <c r="AS118" s="3"/>
     </row>
-    <row r="119" spans="1:80" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:80" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>64</v>
       </c>
@@ -14476,7 +14536,7 @@
       <c r="AQ119" s="3"/>
       <c r="AR119" s="3"/>
     </row>
-    <row r="120" spans="1:80" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:80" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>128</v>
       </c>
@@ -14493,7 +14553,7 @@
       <c r="AQ120" s="3"/>
       <c r="AR120" s="3"/>
     </row>
-    <row r="121" spans="1:80" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:80" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D121" s="4" t="str">
         <f>"0x"&amp;DEC2HEX((SUMIF(D105:D112,"&lt;&gt;",$A105:$A112)),2)&amp;","</f>
         <v>0x20,</v>
@@ -14671,7 +14731,7 @@
         <v>0x80,</v>
       </c>
     </row>
-    <row r="122" spans="1:80" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:80" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D122" s="4" t="str">
         <f>"0x"&amp;DEC2HEX((SUMIF(D113:D120,"&lt;&gt;",$A113:$A120)),2)&amp;","</f>
         <v>0x00,</v>
@@ -14849,7 +14909,7 @@
         <v>0x00,</v>
       </c>
     </row>
-    <row r="126" spans="1:80" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:80" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C126" s="14"/>
       <c r="D126" s="14">
         <v>1</v>
@@ -15061,7 +15121,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="127" spans="1:80" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:80" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>1</v>
       </c>
@@ -15084,7 +15144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:80" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:80" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>2</v>
       </c>
@@ -15125,7 +15185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>4</v>
       </c>
@@ -15184,7 +15244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>8</v>
       </c>
@@ -15270,7 +15330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>16</v>
       </c>
@@ -15361,7 +15421,7 @@
       </c>
       <c r="CA131" s="3"/>
     </row>
-    <row r="132" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>32</v>
       </c>
@@ -15472,7 +15532,7 @@
       <c r="CA132" s="3"/>
       <c r="CB132" s="3"/>
     </row>
-    <row r="133" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>64</v>
       </c>
@@ -15597,7 +15657,7 @@
       <c r="CA133" s="3"/>
       <c r="CB133" s="3"/>
     </row>
-    <row r="134" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>128</v>
       </c>
@@ -15763,7 +15823,7 @@
       <c r="CA134" s="19"/>
       <c r="CB134" s="19"/>
     </row>
-    <row r="135" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>1</v>
       </c>
@@ -15932,7 +15992,7 @@
       <c r="CA135" s="17"/>
       <c r="CB135" s="17"/>
     </row>
-    <row r="136" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>2</v>
       </c>
@@ -16097,7 +16157,7 @@
       <c r="CA136" s="3"/>
       <c r="CB136" s="3"/>
     </row>
-    <row r="137" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>4</v>
       </c>
@@ -16261,7 +16321,7 @@
       <c r="CA137" s="3"/>
       <c r="CB137" s="3"/>
     </row>
-    <row r="138" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>8</v>
       </c>
@@ -16420,7 +16480,7 @@
       <c r="CA138" s="3"/>
       <c r="CB138" s="3"/>
     </row>
-    <row r="139" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>16</v>
       </c>
@@ -16568,7 +16628,7 @@
       <c r="BX139" s="3"/>
       <c r="BZ139" s="3"/>
     </row>
-    <row r="140" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>32</v>
       </c>
@@ -16707,7 +16767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>64</v>
       </c>
@@ -16822,7 +16882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>128</v>
       </c>
@@ -16955,7 +17015,7 @@
       <c r="CA142" s="18"/>
       <c r="CB142" s="18"/>
     </row>
-    <row r="143" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>1</v>
       </c>
@@ -17038,7 +17098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>2</v>
       </c>
@@ -17113,7 +17173,7 @@
       </c>
       <c r="CC144" s="3"/>
     </row>
-    <row r="145" spans="1:88" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:88" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>4</v>
       </c>
@@ -17182,7 +17242,7 @@
       </c>
       <c r="CC145" s="3"/>
     </row>
-    <row r="146" spans="1:88" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:88" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>8</v>
       </c>
@@ -17251,7 +17311,7 @@
       </c>
       <c r="CC146" s="3"/>
     </row>
-    <row r="147" spans="1:88" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:88" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>16</v>
       </c>
@@ -17314,7 +17374,7 @@
       </c>
       <c r="CC147" s="3"/>
     </row>
-    <row r="148" spans="1:88" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:88" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>32</v>
       </c>
@@ -17377,7 +17437,7 @@
       </c>
       <c r="CC148" s="3"/>
     </row>
-    <row r="149" spans="1:88" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:88" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>64</v>
       </c>
@@ -17393,7 +17453,7 @@
       <c r="CC149" s="3"/>
       <c r="CF149" s="3"/>
     </row>
-    <row r="150" spans="1:88" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:88" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>128</v>
       </c>
@@ -17413,7 +17473,7 @@
       <c r="CF150" s="3"/>
       <c r="CG150" s="3"/>
     </row>
-    <row r="151" spans="1:88" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:88" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D151" s="4" t="str">
         <f>"0x"&amp;DEC2HEX((SUMIF(D127:D134,"&lt;&gt;",$A127:$A134)),2)&amp;","</f>
         <v>0xC0,</v>
@@ -17696,7 +17756,7 @@
       <c r="CF151" s="3"/>
       <c r="CG151" s="3"/>
     </row>
-    <row r="152" spans="1:88" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:88" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D152" s="4" t="str">
         <f>"0x"&amp;DEC2HEX((SUMIF(D135:D142,"&lt;&gt;",$A135:$A142)),2)&amp;","</f>
         <v>0x0F,</v>
@@ -17979,7 +18039,7 @@
       <c r="CF152" s="3"/>
       <c r="CG152" s="3"/>
     </row>
-    <row r="153" spans="1:88" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:88" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D153" s="4" t="str">
         <f>"0x"&amp;DEC2HEX((SUMIF(D143:D150,"&lt;&gt;",$A143:$A150)),2)&amp;","</f>
         <v>0x00,</v>
@@ -18262,7 +18322,7 @@
       <c r="CF153" s="3"/>
       <c r="CG153" s="3"/>
     </row>
-    <row r="154" spans="1:88" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:88" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M154" s="3"/>
       <c r="P154" s="3"/>
       <c r="Q154" s="3"/>
@@ -18293,7 +18353,7 @@
       <c r="CI154" s="8"/>
       <c r="CJ154" s="8"/>
     </row>
-    <row r="155" spans="1:88" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:88" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L155" s="3"/>
       <c r="M155" s="3"/>
       <c r="N155" s="3"/>
@@ -18327,7 +18387,7 @@
       <c r="CF155" s="3"/>
       <c r="CG155" s="3"/>
     </row>
-    <row r="156" spans="1:88" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:88" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L156" s="3"/>
       <c r="M156" s="3"/>
       <c r="N156" s="3"/>
@@ -18354,7 +18414,7 @@
       <c r="CD156" s="3"/>
       <c r="CE156" s="3"/>
     </row>
-    <row r="157" spans="1:88" s="8" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:88" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
@@ -18409,7 +18469,7 @@
       <c r="CI157" s="1"/>
       <c r="CJ157" s="1"/>
     </row>
-    <row r="158" spans="1:88" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:88" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C158" s="14"/>
       <c r="D158" s="14">
         <v>1</v>
@@ -18514,7 +18574,7 @@
       <c r="CB158" s="3"/>
       <c r="CC158" s="3"/>
     </row>
-    <row r="159" spans="1:88" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:88" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>1</v>
       </c>
@@ -18535,7 +18595,7 @@
       <c r="CB159" s="3"/>
       <c r="CC159" s="3"/>
     </row>
-    <row r="160" spans="1:88" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:88" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>2</v>
       </c>
@@ -18555,7 +18615,7 @@
       <c r="CB160" s="3"/>
       <c r="CC160" s="3"/>
     </row>
-    <row r="161" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>4</v>
       </c>
@@ -18665,7 +18725,7 @@
       <c r="CB161" s="3"/>
       <c r="CC161" s="3"/>
     </row>
-    <row r="162" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>8</v>
       </c>
@@ -18682,7 +18742,7 @@
       <c r="CB162" s="3"/>
       <c r="CC162" s="3"/>
     </row>
-    <row r="163" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>16</v>
       </c>
@@ -18710,7 +18770,7 @@
       <c r="CB163" s="3"/>
       <c r="CC163" s="3"/>
     </row>
-    <row r="164" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>32</v>
       </c>
@@ -18729,7 +18789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>64</v>
       </c>
@@ -18753,7 +18813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>128</v>
       </c>
@@ -18764,7 +18824,7 @@
       <c r="Q166" s="3"/>
       <c r="R166" s="3"/>
     </row>
-    <row r="167" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D167" s="4" t="str">
         <f>"0x"&amp;DEC2HEX((SUMIF(D159:D166,"&lt;&gt;",$A159:$A166)),2)&amp;","</f>
         <v>0x14,</v>
@@ -18894,12 +18954,12 @@
         <v>0x04,</v>
       </c>
     </row>
-    <row r="168" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P168" s="3"/>
       <c r="Q168" s="3"/>
       <c r="R168" s="3"/>
     </row>
-    <row r="170" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C170" s="14"/>
       <c r="D170" s="14">
         <v>1</v>
@@ -18998,7 +19058,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="171" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>1</v>
       </c>
@@ -19018,7 +19078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>2</v>
       </c>
@@ -19038,7 +19098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>4</v>
       </c>
@@ -19126,7 +19186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>8</v>
       </c>
@@ -19140,7 +19200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>16</v>
       </c>
@@ -19163,7 +19223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:81" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:81" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>32</v>
       </c>
@@ -19183,7 +19243,7 @@
       <c r="R176" s="3"/>
       <c r="AF176" s="3"/>
     </row>
-    <row r="177" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:35" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>64</v>
       </c>
@@ -19207,7 +19267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:35" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>128</v>
       </c>
@@ -19224,7 +19284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:35" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D179" s="4" t="str">
         <f t="shared" ref="D179" si="47">"0x"&amp;DEC2HEX((SUMIF(D171:D178,"&lt;&gt;",$A171:$A178)),2)&amp;","</f>
         <v>0x04,</v>
@@ -19354,7 +19414,7 @@
         <v>0x04,</v>
       </c>
     </row>
-    <row r="182" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:35" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C182" s="14"/>
       <c r="D182" s="14">
         <v>1</v>
@@ -19453,7 +19513,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="183" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:35" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>1</v>
       </c>
@@ -19465,7 +19525,7 @@
       <c r="T183" s="3"/>
       <c r="U183" s="3"/>
     </row>
-    <row r="184" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:35" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>2</v>
       </c>
@@ -19477,7 +19537,7 @@
       <c r="V184" s="3"/>
       <c r="W184" s="3"/>
     </row>
-    <row r="185" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:35" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>4</v>
       </c>
@@ -19563,7 +19623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:35" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>8</v>
       </c>
@@ -19585,7 +19645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:35" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>16</v>
       </c>
@@ -19625,7 +19685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:35" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>32</v>
       </c>
@@ -19642,7 +19702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:35" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>64</v>
       </c>
@@ -19667,7 +19727,7 @@
       <c r="AE189" s="3"/>
       <c r="AF189" s="3"/>
     </row>
-    <row r="190" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:35" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>128</v>
       </c>
@@ -19691,7 +19751,7 @@
       <c r="U190" s="3"/>
       <c r="V190" s="3"/>
     </row>
-    <row r="191" spans="1:35" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:35" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D191" s="4" t="str">
         <f t="shared" ref="D191" si="78">"0x"&amp;DEC2HEX((SUMIF(D183:D190,"&lt;&gt;",$A183:$A190)),2)&amp;","</f>
         <v>0x84,</v>
@@ -19821,25 +19881,25 @@
         <v>0x04,</v>
       </c>
     </row>
-    <row r="217" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" spans="3:19" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" spans="3:19" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" spans="3:19" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" spans="3:19" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" spans="3:19" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" spans="3:19" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" spans="3:19" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" spans="3:19" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" spans="3:19" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" spans="3:19" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" spans="3:19" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" spans="3:19" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" spans="3:19" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" spans="3:19" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" spans="3:19" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" spans="3:19" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" spans="3:19" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" spans="3:19" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" spans="3:19" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" spans="3:19" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" spans="3:19" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" spans="3:19" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
@@ -19851,7 +19911,7 @@
       <c r="K235" s="3"/>
       <c r="L235" s="3"/>
     </row>
-    <row r="236" spans="3:19" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:19" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
@@ -19866,7 +19926,7 @@
       <c r="N236" s="3"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="3:19" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:19" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
@@ -19883,7 +19943,7 @@
       <c r="P237" s="3"/>
       <c r="Q237" s="3"/>
     </row>
-    <row r="238" spans="3:19" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:19" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
@@ -19901,7 +19961,7 @@
       <c r="Q238" s="3"/>
       <c r="R238" s="3"/>
     </row>
-    <row r="239" spans="3:19" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:19" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
@@ -19920,7 +19980,7 @@
       <c r="R239" s="3"/>
       <c r="S239" s="3"/>
     </row>
-    <row r="240" spans="3:19" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:19" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
@@ -19939,7 +19999,7 @@
       <c r="R240" s="3"/>
       <c r="S240" s="3"/>
     </row>
-    <row r="241" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
@@ -19959,7 +20019,7 @@
       <c r="S241" s="3"/>
       <c r="T241" s="3"/>
     </row>
-    <row r="242" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
@@ -19979,7 +20039,7 @@
       <c r="S242" s="3"/>
       <c r="T242" s="3"/>
     </row>
-    <row r="243" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
@@ -19999,7 +20059,7 @@
       <c r="S243" s="3"/>
       <c r="T243" s="3"/>
     </row>
-    <row r="244" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
@@ -20018,7 +20078,7 @@
       <c r="R244" s="3"/>
       <c r="S244" s="3"/>
     </row>
-    <row r="245" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
@@ -20037,7 +20097,7 @@
       <c r="R245" s="3"/>
       <c r="S245" s="3"/>
     </row>
-    <row r="246" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
@@ -20055,7 +20115,7 @@
       <c r="Q246" s="3"/>
       <c r="R246" s="3"/>
     </row>
-    <row r="247" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
@@ -20072,7 +20132,7 @@
       <c r="P247" s="3"/>
       <c r="Q247" s="3"/>
     </row>
-    <row r="248" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
@@ -20087,7 +20147,7 @@
       <c r="N248" s="3"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
@@ -20099,7 +20159,7 @@
       <c r="K249" s="3"/>
       <c r="L249" s="3"/>
     </row>
-    <row r="250" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
@@ -20111,7 +20171,7 @@
       <c r="K250" s="3"/>
       <c r="L250" s="3"/>
     </row>
-    <row r="251" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
@@ -20123,7 +20183,7 @@
       <c r="K251" s="3"/>
       <c r="L251" s="3"/>
     </row>
-    <row r="252" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
@@ -20138,7 +20198,7 @@
       <c r="N252" s="3"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
@@ -20155,7 +20215,7 @@
       <c r="P253" s="3"/>
       <c r="Q253" s="3"/>
     </row>
-    <row r="254" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
@@ -20173,7 +20233,7 @@
       <c r="Q254" s="3"/>
       <c r="R254" s="3"/>
     </row>
-    <row r="255" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
@@ -20192,7 +20252,7 @@
       <c r="R255" s="3"/>
       <c r="S255" s="3"/>
     </row>
-    <row r="256" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
@@ -20211,7 +20271,7 @@
       <c r="R256" s="3"/>
       <c r="S256" s="3"/>
     </row>
-    <row r="257" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
@@ -20231,7 +20291,7 @@
       <c r="S257" s="3"/>
       <c r="T257" s="3"/>
     </row>
-    <row r="258" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
@@ -20251,7 +20311,7 @@
       <c r="S258" s="3"/>
       <c r="T258" s="3"/>
     </row>
-    <row r="259" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
@@ -20271,7 +20331,7 @@
       <c r="S259" s="3"/>
       <c r="T259" s="3"/>
     </row>
-    <row r="260" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
@@ -20290,7 +20350,7 @@
       <c r="R260" s="3"/>
       <c r="S260" s="3"/>
     </row>
-    <row r="261" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
@@ -20309,7 +20369,7 @@
       <c r="R261" s="3"/>
       <c r="S261" s="3"/>
     </row>
-    <row r="262" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
@@ -20327,7 +20387,7 @@
       <c r="Q262" s="3"/>
       <c r="R262" s="3"/>
     </row>
-    <row r="263" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
@@ -20344,7 +20404,7 @@
       <c r="P263" s="3"/>
       <c r="Q263" s="3"/>
     </row>
-    <row r="264" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
@@ -20359,7 +20419,7 @@
       <c r="N264" s="3"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
@@ -20371,8 +20431,8 @@
       <c r="K265" s="3"/>
       <c r="L265" s="3"/>
     </row>
-    <row r="266" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C267" s="12" t="e">
         <f>"0x"&amp;DEC2HEX((SUMIF(C$235:C$242,"&lt;&gt;",#REF!)),2)&amp;","</f>
         <v>#REF!</v>
@@ -20446,7 +20506,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="268" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C268" s="12" t="e">
         <f>"0x"&amp;DEC2HEX((SUMIF(C$243:C$250,"&lt;&gt;",#REF!)),2)&amp;","</f>
         <v>#REF!</v>
@@ -20520,7 +20580,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="269" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C269" s="12" t="e">
         <f>"0x"&amp;DEC2HEX((SUMIF(C$251:C$258,"&lt;&gt;",#REF!)),2)&amp;","</f>
         <v>#REF!</v>
@@ -20594,7 +20654,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="270" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C270" s="12" t="e">
         <f>"0x"&amp;DEC2HEX((SUMIF(C$259:C$266,"&lt;&gt;",#REF!)),2)&amp;","</f>
         <v>#REF!</v>
@@ -20668,25 +20728,25 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="271" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" spans="3:20" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" spans="4:16" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" spans="4:16" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" spans="3:20" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" spans="4:16" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" spans="4:16" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E274" s="3"/>
     </row>
-    <row r="275" spans="4:16" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="4:16" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E275" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J275" s="3"/>
     </row>
-    <row r="276" spans="4:16" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="4:16" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E276" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J276" s="3"/>
     </row>
-    <row r="277" spans="4:16" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="4:16" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E277" s="3" t="s">
         <v>0</v>
       </c>
@@ -20695,7 +20755,7 @@
       </c>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="4:16" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="4:16" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D278" s="3"/>
       <c r="E278" s="3" t="s">
         <v>0</v>
@@ -20713,7 +20773,7 @@
       </c>
       <c r="P278" s="3"/>
     </row>
-    <row r="279" spans="4:16" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="4:16" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D279" s="3" t="s">
         <v>0</v>
       </c>
@@ -20736,7 +20796,7 @@
       </c>
       <c r="P279" s="3"/>
     </row>
-    <row r="280" spans="4:16" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="4:16" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E280" s="3" t="s">
         <v>0</v>
       </c>
@@ -20750,7 +20810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="4:16" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="4:16" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D281" s="3" t="s">
         <v>0</v>
       </c>
@@ -20769,7 +20829,7 @@
       </c>
       <c r="P281" s="3"/>
     </row>
-    <row r="282" spans="4:16" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="4:16" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D282" s="3" t="s">
         <v>0</v>
       </c>
@@ -20799,7 +20859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="4:16" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="4:16" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D283" s="3" t="s">
         <v>0</v>
       </c>
@@ -20818,7 +20878,7 @@
       </c>
       <c r="P283" s="3"/>
     </row>
-    <row r="284" spans="4:16" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="4:16" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E284" s="3" t="s">
         <v>0</v>
       </c>
@@ -20832,7 +20892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="4:16" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="4:16" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D285" s="3" t="s">
         <v>0</v>
       </c>
@@ -20855,7 +20915,7 @@
       </c>
       <c r="P285" s="3"/>
     </row>
-    <row r="286" spans="4:16" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="4:16" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D286" s="3"/>
       <c r="E286" s="3" t="s">
         <v>0</v>
@@ -20873,7 +20933,7 @@
       </c>
       <c r="P286" s="3"/>
     </row>
-    <row r="287" spans="4:16" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="4:16" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E287" s="3" t="s">
         <v>0</v>
       </c>
@@ -20882,29 +20942,29 @@
       </c>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="4:16" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="4:16" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E288" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J288" s="3"/>
     </row>
-    <row r="289" spans="3:35" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="3:35" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E289" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J289" s="3"/>
     </row>
-    <row r="290" spans="3:35" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="3:35" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E290" s="3"/>
     </row>
-    <row r="291" spans="3:35" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" spans="3:35" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" spans="3:35" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" spans="3:35" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" spans="3:35" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" spans="3:35" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" spans="3:35" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" spans="3:35" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="3:35" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" spans="3:35" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" spans="3:35" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" spans="3:35" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" spans="3:35" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" spans="3:35" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" spans="3:35" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" spans="3:35" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C298" s="12" t="e">
         <f>"0x"&amp;DEC2HEX((SUMIF(C$274:C$281,"&lt;&gt;",#REF!)),2)&amp;","</f>
         <v>#REF!</v>
@@ -20978,7 +21038,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="299" spans="3:35" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="3:35" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C299" s="12" t="e">
         <f>"0x"&amp;DEC2HEX((SUMIF(C$282:C$289,"&lt;&gt;",#REF!)),2)&amp;","</f>
         <v>#REF!</v>
@@ -21052,7 +21112,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="300" spans="3:35" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="3:35" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C300" s="12" t="e">
         <f>"0x"&amp;DEC2HEX((SUMIF(C$290:C$297,"&lt;&gt;",#REF!)),2)&amp;","</f>
         <v>#REF!</v>
@@ -21126,8 +21186,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="301" spans="3:35" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" spans="3:35" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="3:35" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" spans="3:35" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E302" s="9">
         <v>1</v>
       </c>
@@ -21183,7 +21243,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="303" spans="3:35" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="3:35" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E303" s="11"/>
       <c r="F303" s="11"/>
       <c r="G303" s="11"/>
@@ -21204,7 +21264,7 @@
       <c r="T303" s="11"/>
       <c r="U303" s="11"/>
     </row>
-    <row r="304" spans="3:35" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="3:35" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E304" s="7"/>
       <c r="F304" s="15"/>
       <c r="G304" s="15"/>
@@ -21232,7 +21292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="5:40" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="5:40" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E305" s="7"/>
       <c r="F305" s="6"/>
       <c r="G305" s="6"/>
@@ -21282,7 +21342,7 @@
       <c r="AL305" s="3"/>
       <c r="AM305" s="3"/>
     </row>
-    <row r="306" spans="5:40" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="5:40" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E306" s="7"/>
       <c r="F306" s="6"/>
       <c r="G306" s="5" t="s">
@@ -21336,7 +21396,7 @@
       <c r="AL306" s="3"/>
       <c r="AM306" s="3"/>
     </row>
-    <row r="307" spans="5:40" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="5:40" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E307" s="7"/>
       <c r="F307" s="5" t="s">
         <v>0</v>
@@ -21406,7 +21466,7 @@
       <c r="AL307" s="3"/>
       <c r="AM307" s="3"/>
     </row>
-    <row r="308" spans="5:40" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="5:40" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E308" s="5" t="s">
         <v>0</v>
       </c>
@@ -21496,7 +21556,7 @@
       <c r="AL308" s="3"/>
       <c r="AM308" s="3"/>
     </row>
-    <row r="309" spans="5:40" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="5:40" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E309" s="7"/>
       <c r="F309" s="5" t="s">
         <v>0</v>
@@ -21576,7 +21636,7 @@
       <c r="AL309" s="3"/>
       <c r="AM309" s="3"/>
     </row>
-    <row r="310" spans="5:40" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="5:40" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E310" s="7"/>
       <c r="F310" s="5" t="s">
         <v>0</v>
@@ -21646,7 +21706,7 @@
       <c r="AL310" s="3"/>
       <c r="AM310" s="3"/>
     </row>
-    <row r="311" spans="5:40" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="5:40" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E311" s="7"/>
       <c r="F311" s="5" t="s">
         <v>0</v>
@@ -21726,7 +21786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="5:40" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="5:40" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E312" s="7"/>
       <c r="F312" s="5" t="s">
         <v>0</v>
@@ -21818,7 +21878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="5:40" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="5:40" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E313" s="7"/>
       <c r="F313" s="5" t="s">
         <v>0</v>
@@ -21900,7 +21960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="5:40" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="5:40" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E314" s="7"/>
       <c r="F314" s="5" t="s">
         <v>0</v>
@@ -21970,7 +22030,7 @@
       <c r="AL314" s="3"/>
       <c r="AM314" s="3"/>
     </row>
-    <row r="315" spans="5:40" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="5:40" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E315" s="7"/>
       <c r="F315" s="5" t="s">
         <v>0</v>
@@ -22050,7 +22110,7 @@
       <c r="AL315" s="3"/>
       <c r="AM315" s="3"/>
     </row>
-    <row r="316" spans="5:40" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="5:40" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E316" s="5" t="s">
         <v>0</v>
       </c>
@@ -22140,7 +22200,7 @@
       <c r="AL316" s="3"/>
       <c r="AM316" s="3"/>
     </row>
-    <row r="317" spans="5:40" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="5:40" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E317" s="7"/>
       <c r="F317" s="5" t="s">
         <v>0</v>
@@ -22210,7 +22270,7 @@
       <c r="AL317" s="3"/>
       <c r="AM317" s="3"/>
     </row>
-    <row r="318" spans="5:40" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="5:40" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E318" s="7"/>
       <c r="F318" s="6"/>
       <c r="G318" s="5" t="s">
@@ -22264,7 +22324,7 @@
       <c r="AL318" s="3"/>
       <c r="AM318" s="3"/>
     </row>
-    <row r="319" spans="5:40" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="5:40" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E319" s="7"/>
       <c r="F319" s="6"/>
       <c r="G319" s="6"/>
@@ -22314,7 +22374,7 @@
       <c r="AL319" s="3"/>
       <c r="AM319" s="3"/>
     </row>
-    <row r="320" spans="5:40" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="5:40" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E320" s="11"/>
       <c r="F320" s="6"/>
       <c r="G320" s="6"/>
@@ -22356,17 +22416,17 @@
       <c r="AL320" s="3"/>
       <c r="AM320" s="3"/>
     </row>
-    <row r="321" spans="3:41" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="3:41" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P321" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="3:41" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" spans="3:41" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" spans="3:41" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" spans="3:41" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" spans="3:41" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" spans="3:41" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="3:41" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" spans="3:41" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" spans="3:41" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" spans="3:41" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" spans="3:41" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" spans="3:41" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C327" s="12" t="e">
         <f>"0x"&amp;DEC2HEX((SUMIF(C$303:C$310,"&lt;&gt;",#REF!)),2)&amp;","</f>
         <v>#REF!</v>
@@ -22520,7 +22580,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="328" spans="3:41" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="3:41" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C328" s="12" t="e">
         <f>"0x"&amp;DEC2HEX((SUMIF(C$311:C$318,"&lt;&gt;",#REF!)),2)&amp;","</f>
         <v>#REF!</v>
@@ -22674,7 +22734,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="329" spans="3:41" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="3:41" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C329" s="12" t="e">
         <f>"0x"&amp;DEC2HEX((SUMIF(C$319:C$326,"&lt;&gt;",#REF!)),2)&amp;","</f>
         <v>#REF!</v>
@@ -22828,35 +22888,35 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="330" spans="3:41" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" spans="3:41" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" spans="3:41" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" spans="3:41" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" spans="3:41" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" spans="3:41" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" spans="3:41" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="3:41" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" spans="3:41" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" spans="3:41" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" spans="3:41" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" spans="3:41" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" spans="3:41" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" spans="3:41" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C358" s="12" t="e">
         <f>"0x"&amp;DEC2HEX((SUMIF(C$303:C$310,"&lt;&gt;",#REF!)),2)&amp;","</f>
         <v>#REF!</v>
@@ -22930,7 +22990,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="359" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C359" s="12" t="e">
         <f>"0x"&amp;DEC2HEX((SUMIF(C$311:C$318,"&lt;&gt;",#REF!)),2)&amp;","</f>
         <v>#REF!</v>
@@ -23004,7 +23064,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="360" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C360" s="12" t="e">
         <f>"0x"&amp;DEC2HEX((SUMIF(C$319:C$326,"&lt;&gt;",#REF!)),2)&amp;","</f>
         <v>#REF!</v>
@@ -23078,12 +23138,12 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="361" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C366" s="9">
         <v>80</v>
       </c>
@@ -23337,7 +23397,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="367" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C367" s="13"/>
       <c r="BC367" s="10"/>
       <c r="BM367" s="3" t="s">
@@ -23351,7 +23411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C368" s="13"/>
       <c r="D368" s="2"/>
       <c r="E368" s="13"/>
@@ -23366,7 +23426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="T369" s="3" t="s">
         <v>0</v>
       </c>
@@ -23397,7 +23457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="T370" s="3" t="s">
         <v>0</v>
       </c>
@@ -23429,7 +23489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C371" s="11"/>
       <c r="E371" s="3" t="s">
         <v>0</v>
@@ -23489,7 +23549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C372" s="3" t="s">
         <v>0</v>
       </c>
@@ -23567,7 +23627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C373" s="3" t="s">
         <v>0</v>
       </c>
@@ -23638,7 +23698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C374" s="3" t="s">
         <v>0</v>
       </c>
@@ -23711,7 +23771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C375" s="3"/>
       <c r="F375" s="3" t="s">
         <v>0</v>
@@ -23781,7 +23841,7 @@
       </c>
       <c r="BT375" s="10"/>
     </row>
-    <row r="376" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
       <c r="E376" s="3"/>
@@ -23822,7 +23882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
       <c r="F377" s="3"/>
@@ -23872,7 +23932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C378" s="2"/>
       <c r="E378" s="2"/>
       <c r="BC378" s="10"/>
@@ -23887,7 +23947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C379" s="2"/>
       <c r="E379" s="2"/>
       <c r="BC379" s="10"/>
@@ -23899,7 +23959,7 @@
       </c>
       <c r="BT379" s="10"/>
     </row>
-    <row r="380" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C380" s="13"/>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
@@ -23915,7 +23975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="BC381" s="10"/>
       <c r="BE381" s="3" t="s">
         <v>0</v>
@@ -23931,7 +23991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C382" s="2"/>
       <c r="D382" s="13"/>
       <c r="E382" s="13"/>
@@ -23945,17 +24005,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C383" s="2"/>
       <c r="D383" s="13"/>
       <c r="E383" s="13"/>
       <c r="F383" s="13"/>
     </row>
-    <row r="384" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AH388" s="2"/>
       <c r="AI388" s="2"/>
       <c r="AJ388" s="2"/>
@@ -23971,7 +24031,7 @@
       <c r="AT388" s="13"/>
       <c r="BD388" s="3"/>
     </row>
-    <row r="389" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AH389" s="3"/>
       <c r="AI389" s="3"/>
       <c r="AJ389" s="3"/>
@@ -23987,7 +24047,7 @@
       <c r="AT389" s="13"/>
       <c r="BD389" s="3"/>
     </row>
-    <row r="390" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AH390" s="3"/>
       <c r="AI390" s="3"/>
       <c r="AJ390" s="3"/>
@@ -24012,7 +24072,7 @@
       <c r="BI390" s="3"/>
       <c r="BJ390" s="13"/>
     </row>
-    <row r="391" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C391" s="12" t="e">
         <f>"0x"&amp;DEC2HEX((SUMIF(C$367:C$374,"&lt;&gt;",#REF!)),2)&amp;","</f>
         <v>#REF!</v>
@@ -24358,7 +24418,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="392" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C392" s="12" t="e">
         <f>"0x"&amp;DEC2HEX((SUMIF(C$375:C$382,"&lt;&gt;",#REF!)),2)&amp;","</f>
         <v>#REF!</v>
@@ -24704,7 +24764,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="393" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C393" s="12" t="e">
         <f>"0x"&amp;DEC2HEX((SUMIF(C$383:C$390,"&lt;&gt;",#REF!)),2)&amp;","</f>
         <v>#REF!</v>
@@ -25050,7 +25110,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="394" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AH394" s="3"/>
       <c r="AI394" s="3"/>
       <c r="AJ394" s="3"/>
@@ -25078,7 +25138,7 @@
       <c r="BI394" s="3"/>
       <c r="BJ394" s="3"/>
     </row>
-    <row r="395" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AH395" s="13"/>
       <c r="AI395" s="2"/>
       <c r="AJ395" s="2"/>
@@ -25092,7 +25152,7 @@
       <c r="AV395" s="3"/>
       <c r="BB395" s="3"/>
     </row>
-    <row r="396" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AH396" s="2"/>
       <c r="AI396" s="2"/>
       <c r="AJ396" s="2"/>
@@ -25108,7 +25168,7 @@
       <c r="AX396" s="3"/>
       <c r="BB396" s="3"/>
     </row>
-    <row r="397" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AH397" s="13"/>
       <c r="AI397" s="2"/>
       <c r="AJ397" s="2"/>
@@ -25128,7 +25188,7 @@
       <c r="BA397" s="3"/>
       <c r="BB397" s="11"/>
     </row>
-    <row r="398" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AH398" s="13"/>
       <c r="AI398" s="2"/>
       <c r="AJ398" s="2"/>
@@ -25143,9 +25203,9 @@
       <c r="AS398" s="13"/>
       <c r="AT398" s="13"/>
     </row>
-    <row r="399" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" spans="3:88" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" spans="10:57" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" spans="3:88" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" spans="10:57" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J401" s="13"/>
       <c r="K401" s="13"/>
       <c r="L401" s="13"/>
@@ -25158,7 +25218,7 @@
       <c r="S401" s="13"/>
       <c r="T401" s="13"/>
     </row>
-    <row r="402" spans="10:57" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="10:57" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J402" s="2"/>
       <c r="K402" s="13"/>
       <c r="L402" s="2"/>
@@ -25174,11 +25234,11 @@
       <c r="V402" s="13"/>
       <c r="W402" s="13"/>
     </row>
-    <row r="403" spans="10:57" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="10:57" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J403" s="2"/>
       <c r="AL403" s="3"/>
     </row>
-    <row r="404" spans="10:57" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="10:57" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J404" s="3"/>
       <c r="AL404" s="3"/>
       <c r="AX404" s="3"/>
@@ -25186,7 +25246,7 @@
       <c r="BC404" s="3"/>
       <c r="BD404" s="3"/>
     </row>
-    <row r="405" spans="10:57" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="10:57" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J405" s="3"/>
       <c r="L405" s="3"/>
       <c r="M405" s="3"/>
@@ -25220,7 +25280,7 @@
       <c r="BD405" s="3"/>
       <c r="BE405" s="3"/>
     </row>
-    <row r="406" spans="10:57" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="10:57" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J406" s="3"/>
       <c r="L406" s="3"/>
       <c r="M406" s="3"/>
@@ -25249,7 +25309,7 @@
       <c r="BC406" s="3"/>
       <c r="BE406" s="3"/>
     </row>
-    <row r="407" spans="10:57" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="10:57" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J407" s="3"/>
       <c r="L407" s="3"/>
       <c r="M407" s="3"/>
@@ -25284,7 +25344,7 @@
       <c r="BD407" s="3"/>
       <c r="BE407" s="3"/>
     </row>
-    <row r="408" spans="10:57" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="10:57" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J408" s="3"/>
       <c r="L408" s="3"/>
       <c r="M408" s="3"/>
@@ -25312,7 +25372,7 @@
       <c r="BC408" s="3"/>
       <c r="BE408" s="3"/>
     </row>
-    <row r="409" spans="10:57" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="10:57" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J409" s="3"/>
       <c r="L409" s="3"/>
       <c r="M409" s="3"/>
@@ -25345,20 +25405,20 @@
       <c r="BD409" s="3"/>
       <c r="BE409" s="3"/>
     </row>
-    <row r="410" spans="10:57" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="10:57" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J410" s="2"/>
     </row>
-    <row r="411" spans="10:57" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="10:57" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J411" s="2"/>
     </row>
-    <row r="412" spans="10:57" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" spans="10:57" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" spans="10:57" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" spans="10:57" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" spans="10:57" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" s="9" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" spans="10:57" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" spans="10:57" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" spans="10:57" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" spans="10:57" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" spans="10:57" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" s="9" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -25367,622 +25427,850 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS52"/>
+  <dimension ref="A1:XFD66"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="BL66" sqref="C66:BL66"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="17" spans="1:43 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="18" spans="1:43 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="19" spans="1:43 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="20" spans="1:43 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="21" spans="1:43 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="22" spans="1:43 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="23" spans="1:43 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="24" spans="1:43 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="25" spans="1:43 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>15</v>
       </c>
-      <c r="U15">
-        <f>$A15</f>
-        <v>15</v>
-      </c>
-      <c r="V15">
-        <f>$A15</f>
-        <v>15</v>
-      </c>
-      <c r="W15">
-        <f>$A15</f>
-        <v>15</v>
-      </c>
-      <c r="X15">
-        <f>$A15</f>
-        <v>15</v>
-      </c>
-      <c r="Y15">
-        <f>$A15</f>
-        <v>15</v>
-      </c>
-      <c r="Z15">
-        <f>$A15</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16">
+    </row>
+    <row r="26" spans="1:43 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>16</v>
       </c>
-      <c r="R16">
-        <f>$A16</f>
-        <v>16</v>
-      </c>
-      <c r="S16">
-        <f>$A16</f>
-        <v>16</v>
-      </c>
-      <c r="T16">
-        <f>$A16</f>
-        <v>16</v>
-      </c>
-      <c r="AA16">
-        <f>$A16</f>
-        <v>16</v>
-      </c>
-      <c r="AB16">
-        <f>$A16</f>
-        <v>16</v>
-      </c>
-      <c r="AC16">
-        <f>$A16</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A17">
+    </row>
+    <row r="27" spans="1:43 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>17</v>
       </c>
-      <c r="O17">
-        <f>$A17</f>
-        <v>17</v>
-      </c>
-      <c r="P17">
-        <f>$A17</f>
-        <v>17</v>
-      </c>
-      <c r="Q17">
-        <f>$A17</f>
-        <v>17</v>
-      </c>
-      <c r="AD17">
-        <f>$A17</f>
-        <v>17</v>
-      </c>
-      <c r="AE17">
-        <f>$A17</f>
-        <v>17</v>
-      </c>
-      <c r="AF17">
-        <f>$A17</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A18">
+    </row>
+    <row r="28" spans="1:43 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>18</v>
       </c>
-      <c r="M18">
-        <f>$A18</f>
-        <v>18</v>
-      </c>
-      <c r="N18">
-        <f>$A18</f>
-        <v>18</v>
-      </c>
-      <c r="AG18">
-        <f>$A18</f>
-        <v>18</v>
-      </c>
-      <c r="AH18">
-        <f>$A18</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A19">
+    </row>
+    <row r="29" spans="1:43 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>19</v>
       </c>
-      <c r="L19">
-        <f>$A19</f>
+      <c r="AE29">
+        <f>$A29</f>
         <v>19</v>
       </c>
-      <c r="AI19">
-        <f>$A19</f>
+      <c r="AF29">
+        <f>$A29</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="AG29">
+        <f>$A29</f>
+        <v>19</v>
+      </c>
+      <c r="AH29">
+        <f>$A29</f>
+        <v>19</v>
+      </c>
+      <c r="AI29">
+        <f>$A29</f>
+        <v>19</v>
+      </c>
+      <c r="XFD29">
+        <f>$A29</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>20</v>
       </c>
-      <c r="K20">
-        <f>$A20</f>
+      <c r="AA30">
+        <f>$A30</f>
         <v>20</v>
       </c>
-      <c r="AJ20">
-        <f>$A20</f>
+      <c r="AB30">
+        <f>$A30</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="AC30">
+        <f>$A30</f>
+        <v>20</v>
+      </c>
+      <c r="AD30">
+        <f>$A30</f>
+        <v>20</v>
+      </c>
+      <c r="AJ30">
+        <f>$A30</f>
+        <v>20</v>
+      </c>
+      <c r="AK30">
+        <f>$A30</f>
+        <v>20</v>
+      </c>
+      <c r="AL30">
+        <f>$A30</f>
+        <v>20</v>
+      </c>
+      <c r="AM30">
+        <f>$A30</f>
+        <v>20</v>
+      </c>
+      <c r="XFD30">
+        <f>$A30</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>21</v>
       </c>
-      <c r="J21">
-        <f>$A21</f>
+      <c r="Y31">
+        <f>$A31</f>
         <v>21</v>
       </c>
-      <c r="AK21">
-        <f>$A21</f>
+      <c r="Z31">
+        <f>$A31</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="AN31">
+        <f>$A31</f>
+        <v>21</v>
+      </c>
+      <c r="AO31">
+        <f>$A31</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43 16384:16384" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="W32">
+        <f>$A32</f>
+        <v>22</v>
+      </c>
+      <c r="X32">
+        <f>$A32</f>
+        <v>22</v>
+      </c>
+      <c r="AP32">
+        <f>$A32</f>
+        <v>22</v>
+      </c>
+      <c r="AQ32">
+        <f>$A32</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>23</v>
       </c>
-      <c r="I23">
-        <f>$A23</f>
+      <c r="U33">
+        <f>$A33</f>
         <v>23</v>
       </c>
-      <c r="AL23">
-        <f>$A23</f>
+      <c r="V33">
+        <f>$A33</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="AR33">
+        <f>$A33</f>
+        <v>23</v>
+      </c>
+      <c r="AS33">
+        <f>$A33</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="S34">
+        <f>$A34</f>
+        <v>24</v>
+      </c>
+      <c r="T34">
+        <f>$A34</f>
+        <v>24</v>
+      </c>
+      <c r="AT34">
+        <f>$A34</f>
+        <v>24</v>
+      </c>
+      <c r="AU34">
+        <f>$A34</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>25</v>
       </c>
-      <c r="H25">
-        <f>$A25</f>
+      <c r="R35">
+        <f>$A35</f>
         <v>25</v>
       </c>
-      <c r="AM25">
-        <f>$A25</f>
+      <c r="AV35">
+        <f>$A35</f>
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="36" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="Q36">
+        <f>$A36</f>
+        <v>26</v>
+      </c>
+      <c r="AW36">
+        <f>$A36</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>27</v>
       </c>
-      <c r="G27">
-        <f>$A27</f>
+      <c r="P37">
+        <f>$A37</f>
         <v>27</v>
       </c>
-      <c r="AN27">
-        <f>$A27</f>
+      <c r="AX37">
+        <f>$A37</f>
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="38" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="O38">
+        <f>$A38</f>
+        <v>28</v>
+      </c>
+      <c r="AY38">
+        <f>$A38</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="N39">
+        <f>$A39</f>
+        <v>29</v>
+      </c>
+      <c r="AZ39">
+        <f>$A39</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>30</v>
       </c>
-      <c r="F30">
-        <f>$A30</f>
+      <c r="M40">
+        <f>$A40</f>
         <v>30</v>
       </c>
-      <c r="AO30">
-        <f>$A30</f>
+      <c r="BA40">
+        <f>$A40</f>
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="41" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="L41">
+        <f>$A41</f>
+        <v>31</v>
+      </c>
+      <c r="BB41">
+        <f>$A41</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="43" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>33</v>
       </c>
-      <c r="E33">
-        <f>$A33</f>
+      <c r="K43">
+        <f>$A43</f>
         <v>33</v>
       </c>
-      <c r="AP33">
-        <f>$A33</f>
+      <c r="BC43">
+        <f>$A43</f>
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="44" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="J44">
+        <f>$A44</f>
+        <v>34</v>
+      </c>
+      <c r="BD44">
+        <f>$A44</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="46" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="I46">
+        <f>$A46</f>
+        <v>36</v>
+      </c>
+      <c r="BE46">
+        <f>$A46</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>37</v>
       </c>
-      <c r="D37">
-        <f>$A37</f>
-        <v>37</v>
-      </c>
-      <c r="AQ37">
-        <f>$A37</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A38">
+    </row>
+    <row r="48" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="H48">
+        <f>$A48</f>
+        <v>38</v>
+      </c>
+      <c r="BF48">
+        <f>$A48</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="50" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="G50">
+        <f>$A50</f>
+        <v>40</v>
+      </c>
+      <c r="BG50">
+        <f>$A50</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>41</v>
       </c>
-      <c r="C41">
-        <f>$A41</f>
-        <v>41</v>
-      </c>
-      <c r="AR41">
-        <f>$A41</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A42">
+    </row>
+    <row r="52" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="53" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="F53">
+        <f>$A53</f>
+        <v>43</v>
+      </c>
+      <c r="BH53">
+        <f>$A53</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="55" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>45</v>
       </c>
-      <c r="B45">
-        <f>$A45</f>
-        <v>45</v>
-      </c>
-      <c r="AS45">
-        <f>$A45</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A46">
+    </row>
+    <row r="56" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="57" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="E57">
+        <f>$A57</f>
+        <v>47</v>
+      </c>
+      <c r="BI57">
+        <f>$A57</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="59" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="60" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="61" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B52" t="str">
-        <f>CONCATENATE(TEXT(MAX(B1:B51),0), ", ")</f>
-        <v xml:space="preserve">45, </v>
-      </c>
-      <c r="C52" t="str">
-        <f t="shared" ref="C52:AS52" si="0">CONCATENATE(TEXT(MAX(C1:C51),0), ", ")</f>
-        <v xml:space="preserve">41, </v>
-      </c>
-      <c r="D52" t="str">
+      <c r="D61">
+        <f>$A61</f>
+        <v>51</v>
+      </c>
+      <c r="BJ61">
+        <f>$A61</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>52</v>
+      </c>
+      <c r="D62">
+        <f>$A62</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>55</v>
+      </c>
+      <c r="C65">
+        <f>$A65</f>
+        <v>55</v>
+      </c>
+      <c r="BK65">
+        <f>$A65</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="B66" t="str">
+        <f>CONCATENATE(TEXT(MAX(B1:B65),0), ", ")</f>
+        <v xml:space="preserve">0, </v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" ref="C66:BM66" si="0">CONCATENATE(TEXT(MAX(C1:C65),0), ", ")</f>
+        <v xml:space="preserve">55, </v>
+      </c>
+      <c r="D66" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">37, </v>
-      </c>
-      <c r="E52" t="str">
+        <v xml:space="preserve">52, </v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">47, </v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">43, </v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">40, </v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">38, </v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">36, </v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">34, </v>
+      </c>
+      <c r="K66" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">33, </v>
       </c>
-      <c r="F52" t="str">
+      <c r="L66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">31, </v>
+      </c>
+      <c r="M66" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">30, </v>
       </c>
-      <c r="G52" t="str">
+      <c r="N66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">29, </v>
+      </c>
+      <c r="O66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">28, </v>
+      </c>
+      <c r="P66" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">27, </v>
       </c>
-      <c r="H52" t="str">
+      <c r="Q66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">26, </v>
+      </c>
+      <c r="R66" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">25, </v>
       </c>
-      <c r="I52" t="str">
+      <c r="S66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">24, </v>
+      </c>
+      <c r="T66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">24, </v>
+      </c>
+      <c r="U66" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">23, </v>
       </c>
-      <c r="J52" t="str">
+      <c r="V66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">23, </v>
+      </c>
+      <c r="W66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">22, </v>
+      </c>
+      <c r="X66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">22, </v>
+      </c>
+      <c r="Y66" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">21, </v>
       </c>
-      <c r="K52" t="str">
+      <c r="Z66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">21, </v>
+      </c>
+      <c r="AA66" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">20, </v>
       </c>
-      <c r="L52" t="str">
+      <c r="AB66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">20, </v>
+      </c>
+      <c r="AC66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">20, </v>
+      </c>
+      <c r="AD66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">20, </v>
+      </c>
+      <c r="AE66" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">19, </v>
       </c>
-      <c r="M52" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">18, </v>
-      </c>
-      <c r="N52" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">18, </v>
-      </c>
-      <c r="O52" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">17, </v>
-      </c>
-      <c r="P52" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">17, </v>
-      </c>
-      <c r="Q52" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">17, </v>
-      </c>
-      <c r="R52" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">16, </v>
-      </c>
-      <c r="S52" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">16, </v>
-      </c>
-      <c r="T52" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">16, </v>
-      </c>
-      <c r="U52" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">15, </v>
-      </c>
-      <c r="V52" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">15, </v>
-      </c>
-      <c r="W52" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">15, </v>
-      </c>
-      <c r="X52" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">15, </v>
-      </c>
-      <c r="Y52" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">15, </v>
-      </c>
-      <c r="Z52" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">15, </v>
-      </c>
-      <c r="AA52" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">16, </v>
-      </c>
-      <c r="AB52" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">16, </v>
-      </c>
-      <c r="AC52" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">16, </v>
-      </c>
-      <c r="AD52" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">17, </v>
-      </c>
-      <c r="AE52" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">17, </v>
-      </c>
-      <c r="AF52" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">17, </v>
-      </c>
-      <c r="AG52" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">18, </v>
-      </c>
-      <c r="AH52" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">18, </v>
-      </c>
-      <c r="AI52" t="str">
+      <c r="AF66" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">19, </v>
       </c>
-      <c r="AJ52" t="str">
+      <c r="AG66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">19, </v>
+      </c>
+      <c r="AH66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">19, </v>
+      </c>
+      <c r="AI66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">19, </v>
+      </c>
+      <c r="AJ66" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">20, </v>
       </c>
-      <c r="AK52" t="str">
+      <c r="AK66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">20, </v>
+      </c>
+      <c r="AL66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">20, </v>
+      </c>
+      <c r="AM66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">20, </v>
+      </c>
+      <c r="AN66" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">21, </v>
       </c>
-      <c r="AL52" t="str">
+      <c r="AO66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">21, </v>
+      </c>
+      <c r="AP66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">22, </v>
+      </c>
+      <c r="AQ66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">22, </v>
+      </c>
+      <c r="AR66" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">23, </v>
       </c>
-      <c r="AM52" t="str">
+      <c r="AS66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">23, </v>
+      </c>
+      <c r="AT66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">24, </v>
+      </c>
+      <c r="AU66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">24, </v>
+      </c>
+      <c r="AV66" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">25, </v>
       </c>
-      <c r="AN52" t="str">
+      <c r="AW66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">26, </v>
+      </c>
+      <c r="AX66" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">27, </v>
       </c>
-      <c r="AO52" t="str">
+      <c r="AY66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">28, </v>
+      </c>
+      <c r="AZ66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">29, </v>
+      </c>
+      <c r="BA66" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">30, </v>
       </c>
-      <c r="AP52" t="str">
+      <c r="BB66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">31, </v>
+      </c>
+      <c r="BC66" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">33, </v>
       </c>
-      <c r="AQ52" t="str">
+      <c r="BD66" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">37, </v>
-      </c>
-      <c r="AR52" t="str">
+        <v xml:space="preserve">34, </v>
+      </c>
+      <c r="BE66" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">41, </v>
-      </c>
-      <c r="AS52" t="str">
+        <v xml:space="preserve">36, </v>
+      </c>
+      <c r="BF66" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">45, </v>
+        <v xml:space="preserve">38, </v>
+      </c>
+      <c r="BG66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">40, </v>
+      </c>
+      <c r="BH66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">43, </v>
+      </c>
+      <c r="BI66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">47, </v>
+      </c>
+      <c r="BJ66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">51, </v>
+      </c>
+      <c r="BK66" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">55, </v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Artwork/Artwork.xlsx
+++ b/Artwork/Artwork.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14800" yWindow="1560" windowWidth="31480" windowHeight="23240" tabRatio="500"/>
+    <workbookView xWindow="14800" yWindow="1560" windowWidth="34300" windowHeight="25920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Artwork" sheetId="1" r:id="rId1"/>
@@ -158,7 +158,7 @@
       <charset val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,13 +183,37 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -331,7 +355,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -377,6 +401,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="136">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -854,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:CL419"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A136" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="AZ162" sqref="AZ162"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1979,24 +2020,36 @@
       <c r="C11" s="6">
         <v>9</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="D11" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
       <c r="X11" s="6">
         <v>9</v>
       </c>
@@ -2068,7 +2121,7 @@
       <c r="C12" s="6">
         <v>10</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="24" t="s">
         <v>0</v>
       </c>
       <c r="K12" s="3" t="s">
@@ -2169,7 +2222,7 @@
       <c r="C13" s="6">
         <v>11</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="24" t="s">
         <v>0</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -2318,7 +2371,7 @@
       <c r="C14" s="6">
         <v>12</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="24" t="s">
         <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -2479,7 +2532,7 @@
       <c r="C15" s="6">
         <v>13</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="24" t="s">
         <v>0</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -2652,7 +2705,7 @@
       <c r="C16" s="6">
         <v>14</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="24" t="s">
         <v>0</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -2825,6 +2878,7 @@
       <c r="C17" s="6">
         <v>15</v>
       </c>
+      <c r="D17" s="25"/>
       <c r="E17" s="3" t="s">
         <v>0</v>
       </c>
@@ -2974,33 +3028,42 @@
       <c r="C18" s="6">
         <v>16</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="N18" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
       <c r="X18" s="6">
         <v>16</v>
       </c>
@@ -3764,7 +3827,7 @@
       </c>
     </row>
     <row r="28" spans="1:84" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="7" t="str">
+      <c r="D28" s="27" t="str">
         <f>"0x"&amp;DEC2HEX((SUMIF(D11:D18,"&lt;&gt;",$A11:$A18)),2)&amp;","</f>
         <v>0x3F,</v>
       </c>
